--- a/Gender Diversity in NY Numbers.xlsx
+++ b/Gender Diversity in NY Numbers.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatho\Documents\R\dataviz_nyctech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E49865F-E3C8-48FA-ADE8-48D494E20D43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE1D44-84AB-4115-8A59-EA34CD7DAB2A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8685" yWindow="1140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -497,37 +505,39 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" customWidth="1"/>
-    <col min="19" max="19" width="6.109375" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.42578125" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="26" width="5.5546875" customWidth="1"/>
+    <col min="24" max="26" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -669,7 +679,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -740,7 +750,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -811,7 +821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -822,7 +832,7 @@
         <v>71</v>
       </c>
       <c r="D5" s="9">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9">
         <v>58</v>
@@ -882,7 +892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -953,7 +963,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="10">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="H8" s="10">
         <v>3</v>
@@ -1095,7 +1105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1166,7 +1176,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1237,7 +1247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1308,7 +1318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1392,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1456,7 +1466,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,7 +1492,7 @@
         <v>103</v>
       </c>
       <c r="I14" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J14" s="11">
         <v>8</v>
@@ -1527,7 +1537,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,7 +1625,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="10">
         <v>61</v>
@@ -1669,7 +1679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1882,7 +1892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="U20" s="15">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="V20" s="15">
         <v>125</v>
@@ -1953,7 +1963,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>2</v>
       </c>
       <c r="U21" s="22">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="V21" s="22">
         <v>87</v>
@@ -2024,7 +2034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" s="9">
         <v>65</v>
@@ -2095,7 +2105,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2166,7 +2176,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2237,7 +2247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2308,7 +2318,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2387,7 +2397,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="9">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" s="9">
         <v>125</v>
@@ -2450,7 +2460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2592,7 +2602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2663,7 +2673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>24</v>
       </c>
@@ -2734,7 +2744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -2757,7 +2767,7 @@
       <c r="V32" s="29"/>
       <c r="W32" s="29"/>
     </row>
-    <row r="33" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -2780,7 +2790,7 @@
       <c r="V33" s="29"/>
       <c r="W33" s="29"/>
     </row>
-    <row r="34" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
@@ -2803,7 +2813,7 @@
       <c r="V34" s="29"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -2826,7 +2836,7 @@
       <c r="V35" s="29"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
@@ -2849,7 +2859,7 @@
       <c r="V36" s="29"/>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -2872,7 +2882,7 @@
       <c r="V37" s="29"/>
       <c r="W37" s="29"/>
     </row>
-    <row r="38" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -2895,7 +2905,7 @@
       <c r="V38" s="29"/>
       <c r="W38" s="29"/>
     </row>
-    <row r="39" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
@@ -2918,7 +2928,7 @@
       <c r="V39" s="29"/>
       <c r="W39" s="29"/>
     </row>
-    <row r="40" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
@@ -2941,7 +2951,7 @@
       <c r="V40" s="29"/>
       <c r="W40" s="29"/>
     </row>
-    <row r="41" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
@@ -2964,7 +2974,7 @@
       <c r="V41" s="29"/>
       <c r="W41" s="29"/>
     </row>
-    <row r="42" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="23"/>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
@@ -2987,7 +2997,7 @@
       <c r="V42" s="29"/>
       <c r="W42" s="29"/>
     </row>
-    <row r="43" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -3010,7 +3020,7 @@
       <c r="V43" s="29"/>
       <c r="W43" s="29"/>
     </row>
-    <row r="44" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3033,7 +3043,7 @@
       <c r="V44" s="29"/>
       <c r="W44" s="29"/>
     </row>
-    <row r="45" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -3056,7 +3066,7 @@
       <c r="V45" s="29"/>
       <c r="W45" s="29"/>
     </row>
-    <row r="46" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -3079,7 +3089,7 @@
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
     </row>
-    <row r="47" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="23"/>
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
@@ -3102,7 +3112,7 @@
       <c r="V47" s="29"/>
       <c r="W47" s="29"/>
     </row>
-    <row r="48" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
@@ -3125,7 +3135,7 @@
       <c r="V48" s="29"/>
       <c r="W48" s="29"/>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -3148,7 +3158,7 @@
       <c r="V49" s="29"/>
       <c r="W49" s="29"/>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
@@ -3171,7 +3181,7 @@
       <c r="V50" s="29"/>
       <c r="W50" s="29"/>
     </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
@@ -3194,7 +3204,7 @@
       <c r="V51" s="29"/>
       <c r="W51" s="29"/>
     </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -3217,7 +3227,7 @@
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -3240,7 +3250,7 @@
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
     </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -3263,7 +3273,7 @@
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -3286,7 +3296,7 @@
       <c r="V55" s="29"/>
       <c r="W55" s="29"/>
     </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
@@ -3309,7 +3319,7 @@
       <c r="V56" s="29"/>
       <c r="W56" s="29"/>
     </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -3332,7 +3342,7 @@
       <c r="V57" s="29"/>
       <c r="W57" s="29"/>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -3355,7 +3365,7 @@
       <c r="V58" s="29"/>
       <c r="W58" s="29"/>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -3378,7 +3388,7 @@
       <c r="V59" s="29"/>
       <c r="W59" s="29"/>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="23"/>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -3401,7 +3411,7 @@
       <c r="V60" s="29"/>
       <c r="W60" s="29"/>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -3424,7 +3434,7 @@
       <c r="V61" s="29"/>
       <c r="W61" s="29"/>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
@@ -3447,7 +3457,7 @@
       <c r="V62" s="29"/>
       <c r="W62" s="29"/>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -3470,7 +3480,7 @@
       <c r="V63" s="29"/>
       <c r="W63" s="29"/>
     </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
@@ -3493,7 +3503,7 @@
       <c r="V64" s="29"/>
       <c r="W64" s="29"/>
     </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
@@ -3516,7 +3526,7 @@
       <c r="V65" s="29"/>
       <c r="W65" s="29"/>
     </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -3539,7 +3549,7 @@
       <c r="V66" s="29"/>
       <c r="W66" s="29"/>
     </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -3562,7 +3572,7 @@
       <c r="V67" s="29"/>
       <c r="W67" s="29"/>
     </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C68" s="23"/>
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
@@ -3585,7 +3595,7 @@
       <c r="V68" s="29"/>
       <c r="W68" s="29"/>
     </row>
-    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C69" s="23"/>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -3608,7 +3618,7 @@
       <c r="V69" s="29"/>
       <c r="W69" s="29"/>
     </row>
-    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C70" s="23"/>
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
@@ -3631,7 +3641,7 @@
       <c r="V70" s="29"/>
       <c r="W70" s="29"/>
     </row>
-    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C71" s="23"/>
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
@@ -3654,7 +3664,7 @@
       <c r="V71" s="29"/>
       <c r="W71" s="29"/>
     </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -3677,7 +3687,7 @@
       <c r="V72" s="29"/>
       <c r="W72" s="29"/>
     </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C73" s="23"/>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
@@ -3700,7 +3710,7 @@
       <c r="V73" s="29"/>
       <c r="W73" s="29"/>
     </row>
-    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C74" s="23"/>
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
@@ -3723,7 +3733,7 @@
       <c r="V74" s="29"/>
       <c r="W74" s="29"/>
     </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C75" s="23"/>
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
@@ -3746,7 +3756,7 @@
       <c r="V75" s="29"/>
       <c r="W75" s="29"/>
     </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
@@ -3769,7 +3779,7 @@
       <c r="V76" s="29"/>
       <c r="W76" s="29"/>
     </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C77" s="23"/>
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
@@ -3792,7 +3802,7 @@
       <c r="V77" s="29"/>
       <c r="W77" s="29"/>
     </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C78" s="23"/>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -3815,7 +3825,7 @@
       <c r="V78" s="29"/>
       <c r="W78" s="29"/>
     </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C79" s="23"/>
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
@@ -3838,7 +3848,7 @@
       <c r="V79" s="29"/>
       <c r="W79" s="29"/>
     </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C80" s="23"/>
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
@@ -3861,7 +3871,7 @@
       <c r="V80" s="29"/>
       <c r="W80" s="29"/>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C81" s="23"/>
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
@@ -3884,7 +3894,7 @@
       <c r="V81" s="29"/>
       <c r="W81" s="29"/>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
@@ -3907,7 +3917,7 @@
       <c r="V82" s="29"/>
       <c r="W82" s="29"/>
     </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -3930,7 +3940,7 @@
       <c r="V83" s="29"/>
       <c r="W83" s="29"/>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
@@ -3953,7 +3963,7 @@
       <c r="V84" s="29"/>
       <c r="W84" s="29"/>
     </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
@@ -3976,7 +3986,7 @@
       <c r="V85" s="29"/>
       <c r="W85" s="29"/>
     </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C86" s="23"/>
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
@@ -3999,7 +4009,7 @@
       <c r="V86" s="29"/>
       <c r="W86" s="29"/>
     </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C87" s="23"/>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -4022,7 +4032,7 @@
       <c r="V87" s="29"/>
       <c r="W87" s="29"/>
     </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C88" s="23"/>
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
@@ -4045,7 +4055,7 @@
       <c r="V88" s="29"/>
       <c r="W88" s="29"/>
     </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C89" s="23"/>
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
@@ -4068,7 +4078,7 @@
       <c r="V89" s="29"/>
       <c r="W89" s="29"/>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C90" s="23"/>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -4091,7 +4101,7 @@
       <c r="V90" s="29"/>
       <c r="W90" s="29"/>
     </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C91" s="23"/>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -4114,7 +4124,7 @@
       <c r="V91" s="29"/>
       <c r="W91" s="29"/>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C92" s="23"/>
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
@@ -4137,7 +4147,7 @@
       <c r="V92" s="29"/>
       <c r="W92" s="29"/>
     </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C93" s="23"/>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
@@ -4160,7 +4170,7 @@
       <c r="V93" s="29"/>
       <c r="W93" s="29"/>
     </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C94" s="23"/>
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
@@ -4183,7 +4193,7 @@
       <c r="V94" s="29"/>
       <c r="W94" s="29"/>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C95" s="23"/>
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
@@ -4206,7 +4216,7 @@
       <c r="V95" s="29"/>
       <c r="W95" s="29"/>
     </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C96" s="23"/>
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
@@ -4229,7 +4239,7 @@
       <c r="V96" s="29"/>
       <c r="W96" s="29"/>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C97" s="23"/>
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
@@ -4252,7 +4262,7 @@
       <c r="V97" s="29"/>
       <c r="W97" s="29"/>
     </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C98" s="23"/>
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
@@ -4275,7 +4285,7 @@
       <c r="V98" s="29"/>
       <c r="W98" s="29"/>
     </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
@@ -4298,7 +4308,7 @@
       <c r="V99" s="29"/>
       <c r="W99" s="29"/>
     </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
@@ -4321,7 +4331,7 @@
       <c r="V100" s="29"/>
       <c r="W100" s="29"/>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
@@ -4344,7 +4354,7 @@
       <c r="V101" s="29"/>
       <c r="W101" s="29"/>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
@@ -4367,7 +4377,7 @@
       <c r="V102" s="29"/>
       <c r="W102" s="29"/>
     </row>
-    <row r="103" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
@@ -4390,7 +4400,7 @@
       <c r="V103" s="29"/>
       <c r="W103" s="29"/>
     </row>
-    <row r="104" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
@@ -4413,7 +4423,7 @@
       <c r="V104" s="29"/>
       <c r="W104" s="29"/>
     </row>
-    <row r="105" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
@@ -4436,7 +4446,7 @@
       <c r="V105" s="29"/>
       <c r="W105" s="29"/>
     </row>
-    <row r="106" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
@@ -4459,7 +4469,7 @@
       <c r="V106" s="29"/>
       <c r="W106" s="29"/>
     </row>
-    <row r="107" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
@@ -4482,7 +4492,7 @@
       <c r="V107" s="29"/>
       <c r="W107" s="29"/>
     </row>
-    <row r="108" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
@@ -4505,7 +4515,7 @@
       <c r="V108" s="29"/>
       <c r="W108" s="29"/>
     </row>
-    <row r="109" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
@@ -4528,7 +4538,7 @@
       <c r="V109" s="29"/>
       <c r="W109" s="29"/>
     </row>
-    <row r="110" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
@@ -4551,7 +4561,7 @@
       <c r="V110" s="29"/>
       <c r="W110" s="29"/>
     </row>
-    <row r="111" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
@@ -4574,7 +4584,7 @@
       <c r="V111" s="29"/>
       <c r="W111" s="29"/>
     </row>
-    <row r="112" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
@@ -4597,7 +4607,7 @@
       <c r="V112" s="29"/>
       <c r="W112" s="29"/>
     </row>
-    <row r="113" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
@@ -4620,7 +4630,7 @@
       <c r="V113" s="29"/>
       <c r="W113" s="29"/>
     </row>
-    <row r="114" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
@@ -4643,7 +4653,7 @@
       <c r="V114" s="29"/>
       <c r="W114" s="29"/>
     </row>
-    <row r="115" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
@@ -4666,7 +4676,7 @@
       <c r="V115" s="29"/>
       <c r="W115" s="29"/>
     </row>
-    <row r="116" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
@@ -4689,7 +4699,7 @@
       <c r="V116" s="29"/>
       <c r="W116" s="29"/>
     </row>
-    <row r="117" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
@@ -4712,7 +4722,7 @@
       <c r="V117" s="29"/>
       <c r="W117" s="29"/>
     </row>
-    <row r="118" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
@@ -4735,7 +4745,7 @@
       <c r="V118" s="29"/>
       <c r="W118" s="29"/>
     </row>
-    <row r="119" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
@@ -4758,7 +4768,7 @@
       <c r="V119" s="29"/>
       <c r="W119" s="29"/>
     </row>
-    <row r="120" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
@@ -4781,7 +4791,7 @@
       <c r="V120" s="29"/>
       <c r="W120" s="29"/>
     </row>
-    <row r="121" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
@@ -4804,7 +4814,7 @@
       <c r="V121" s="29"/>
       <c r="W121" s="29"/>
     </row>
-    <row r="122" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
@@ -4827,7 +4837,7 @@
       <c r="V122" s="29"/>
       <c r="W122" s="29"/>
     </row>
-    <row r="123" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
@@ -4850,7 +4860,7 @@
       <c r="V123" s="29"/>
       <c r="W123" s="29"/>
     </row>
-    <row r="124" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
@@ -4873,7 +4883,7 @@
       <c r="V124" s="29"/>
       <c r="W124" s="29"/>
     </row>
-    <row r="125" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
@@ -4896,7 +4906,7 @@
       <c r="V125" s="29"/>
       <c r="W125" s="29"/>
     </row>
-    <row r="126" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
@@ -4919,7 +4929,7 @@
       <c r="V126" s="29"/>
       <c r="W126" s="29"/>
     </row>
-    <row r="127" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
@@ -4942,7 +4952,7 @@
       <c r="V127" s="29"/>
       <c r="W127" s="29"/>
     </row>
-    <row r="128" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
@@ -4965,7 +4975,7 @@
       <c r="V128" s="29"/>
       <c r="W128" s="29"/>
     </row>
-    <row r="129" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
@@ -4988,7 +4998,7 @@
       <c r="V129" s="29"/>
       <c r="W129" s="29"/>
     </row>
-    <row r="130" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
@@ -5011,7 +5021,7 @@
       <c r="V130" s="29"/>
       <c r="W130" s="29"/>
     </row>
-    <row r="131" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
@@ -5034,7 +5044,7 @@
       <c r="V131" s="29"/>
       <c r="W131" s="29"/>
     </row>
-    <row r="132" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
@@ -5057,7 +5067,7 @@
       <c r="V132" s="29"/>
       <c r="W132" s="29"/>
     </row>
-    <row r="133" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
@@ -5080,7 +5090,7 @@
       <c r="V133" s="29"/>
       <c r="W133" s="29"/>
     </row>
-    <row r="134" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
@@ -5103,7 +5113,7 @@
       <c r="V134" s="29"/>
       <c r="W134" s="29"/>
     </row>
-    <row r="135" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
@@ -5126,7 +5136,7 @@
       <c r="V135" s="29"/>
       <c r="W135" s="29"/>
     </row>
-    <row r="136" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
@@ -5149,7 +5159,7 @@
       <c r="V136" s="29"/>
       <c r="W136" s="29"/>
     </row>
-    <row r="137" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
@@ -5172,7 +5182,7 @@
       <c r="V137" s="29"/>
       <c r="W137" s="29"/>
     </row>
-    <row r="138" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
@@ -5195,7 +5205,7 @@
       <c r="V138" s="29"/>
       <c r="W138" s="29"/>
     </row>
-    <row r="139" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
@@ -5218,7 +5228,7 @@
       <c r="V139" s="29"/>
       <c r="W139" s="29"/>
     </row>
-    <row r="140" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
@@ -5241,7 +5251,7 @@
       <c r="V140" s="29"/>
       <c r="W140" s="29"/>
     </row>
-    <row r="141" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
@@ -5264,7 +5274,7 @@
       <c r="V141" s="29"/>
       <c r="W141" s="29"/>
     </row>
-    <row r="142" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
@@ -5287,7 +5297,7 @@
       <c r="V142" s="29"/>
       <c r="W142" s="29"/>
     </row>
-    <row r="143" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
@@ -5310,7 +5320,7 @@
       <c r="V143" s="29"/>
       <c r="W143" s="29"/>
     </row>
-    <row r="144" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
@@ -5333,7 +5343,7 @@
       <c r="V144" s="29"/>
       <c r="W144" s="29"/>
     </row>
-    <row r="145" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
@@ -5356,7 +5366,7 @@
       <c r="V145" s="29"/>
       <c r="W145" s="29"/>
     </row>
-    <row r="146" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
@@ -5379,7 +5389,7 @@
       <c r="V146" s="29"/>
       <c r="W146" s="29"/>
     </row>
-    <row r="147" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
@@ -5402,7 +5412,7 @@
       <c r="V147" s="29"/>
       <c r="W147" s="29"/>
     </row>
-    <row r="148" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
@@ -5425,7 +5435,7 @@
       <c r="V148" s="29"/>
       <c r="W148" s="29"/>
     </row>
-    <row r="149" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
@@ -5448,7 +5458,7 @@
       <c r="V149" s="29"/>
       <c r="W149" s="29"/>
     </row>
-    <row r="150" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
@@ -5471,7 +5481,7 @@
       <c r="V150" s="29"/>
       <c r="W150" s="29"/>
     </row>
-    <row r="151" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
@@ -5494,7 +5504,7 @@
       <c r="V151" s="29"/>
       <c r="W151" s="29"/>
     </row>
-    <row r="152" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
@@ -5517,7 +5527,7 @@
       <c r="V152" s="29"/>
       <c r="W152" s="29"/>
     </row>
-    <row r="153" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
@@ -5540,7 +5550,7 @@
       <c r="V153" s="29"/>
       <c r="W153" s="29"/>
     </row>
-    <row r="154" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
@@ -5563,7 +5573,7 @@
       <c r="V154" s="29"/>
       <c r="W154" s="29"/>
     </row>
-    <row r="155" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
@@ -5586,7 +5596,7 @@
       <c r="V155" s="29"/>
       <c r="W155" s="29"/>
     </row>
-    <row r="156" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
@@ -5609,7 +5619,7 @@
       <c r="V156" s="29"/>
       <c r="W156" s="29"/>
     </row>
-    <row r="157" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
@@ -5632,7 +5642,7 @@
       <c r="V157" s="29"/>
       <c r="W157" s="29"/>
     </row>
-    <row r="158" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
@@ -5655,7 +5665,7 @@
       <c r="V158" s="29"/>
       <c r="W158" s="29"/>
     </row>
-    <row r="159" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
@@ -5678,7 +5688,7 @@
       <c r="V159" s="29"/>
       <c r="W159" s="29"/>
     </row>
-    <row r="160" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
@@ -5701,7 +5711,7 @@
       <c r="V160" s="29"/>
       <c r="W160" s="29"/>
     </row>
-    <row r="161" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
@@ -5724,7 +5734,7 @@
       <c r="V161" s="29"/>
       <c r="W161" s="29"/>
     </row>
-    <row r="162" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
@@ -5747,7 +5757,7 @@
       <c r="V162" s="29"/>
       <c r="W162" s="29"/>
     </row>
-    <row r="163" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
@@ -5770,7 +5780,7 @@
       <c r="V163" s="29"/>
       <c r="W163" s="29"/>
     </row>
-    <row r="164" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
@@ -5793,7 +5803,7 @@
       <c r="V164" s="29"/>
       <c r="W164" s="29"/>
     </row>
-    <row r="165" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
@@ -5816,7 +5826,7 @@
       <c r="V165" s="29"/>
       <c r="W165" s="29"/>
     </row>
-    <row r="166" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
@@ -5839,7 +5849,7 @@
       <c r="V166" s="29"/>
       <c r="W166" s="29"/>
     </row>
-    <row r="167" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
@@ -5862,7 +5872,7 @@
       <c r="V167" s="29"/>
       <c r="W167" s="29"/>
     </row>
-    <row r="168" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
@@ -5885,7 +5895,7 @@
       <c r="V168" s="29"/>
       <c r="W168" s="29"/>
     </row>
-    <row r="169" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
@@ -5908,7 +5918,7 @@
       <c r="V169" s="29"/>
       <c r="W169" s="29"/>
     </row>
-    <row r="170" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
@@ -5931,7 +5941,7 @@
       <c r="V170" s="29"/>
       <c r="W170" s="29"/>
     </row>
-    <row r="171" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
@@ -5954,7 +5964,7 @@
       <c r="V171" s="29"/>
       <c r="W171" s="29"/>
     </row>
-    <row r="172" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
@@ -5977,7 +5987,7 @@
       <c r="V172" s="29"/>
       <c r="W172" s="29"/>
     </row>
-    <row r="173" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
@@ -6000,7 +6010,7 @@
       <c r="V173" s="29"/>
       <c r="W173" s="29"/>
     </row>
-    <row r="174" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
@@ -6023,7 +6033,7 @@
       <c r="V174" s="29"/>
       <c r="W174" s="29"/>
     </row>
-    <row r="175" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
@@ -6046,7 +6056,7 @@
       <c r="V175" s="29"/>
       <c r="W175" s="29"/>
     </row>
-    <row r="176" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
@@ -6069,7 +6079,7 @@
       <c r="V176" s="29"/>
       <c r="W176" s="29"/>
     </row>
-    <row r="177" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
@@ -6092,7 +6102,7 @@
       <c r="V177" s="29"/>
       <c r="W177" s="29"/>
     </row>
-    <row r="178" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
@@ -6115,7 +6125,7 @@
       <c r="V178" s="29"/>
       <c r="W178" s="29"/>
     </row>
-    <row r="179" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
       <c r="E179" s="23"/>
@@ -6138,7 +6148,7 @@
       <c r="V179" s="29"/>
       <c r="W179" s="29"/>
     </row>
-    <row r="180" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
@@ -6161,7 +6171,7 @@
       <c r="V180" s="29"/>
       <c r="W180" s="29"/>
     </row>
-    <row r="181" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
@@ -6184,7 +6194,7 @@
       <c r="V181" s="29"/>
       <c r="W181" s="29"/>
     </row>
-    <row r="182" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
@@ -6207,7 +6217,7 @@
       <c r="V182" s="29"/>
       <c r="W182" s="29"/>
     </row>
-    <row r="183" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
       <c r="E183" s="23"/>
@@ -6230,7 +6240,7 @@
       <c r="V183" s="29"/>
       <c r="W183" s="29"/>
     </row>
-    <row r="184" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
@@ -6253,7 +6263,7 @@
       <c r="V184" s="29"/>
       <c r="W184" s="29"/>
     </row>
-    <row r="185" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
@@ -6276,7 +6286,7 @@
       <c r="V185" s="29"/>
       <c r="W185" s="29"/>
     </row>
-    <row r="186" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
@@ -6299,7 +6309,7 @@
       <c r="V186" s="29"/>
       <c r="W186" s="29"/>
     </row>
-    <row r="187" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
@@ -6322,7 +6332,7 @@
       <c r="V187" s="29"/>
       <c r="W187" s="29"/>
     </row>
-    <row r="188" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
@@ -6345,7 +6355,7 @@
       <c r="V188" s="29"/>
       <c r="W188" s="29"/>
     </row>
-    <row r="189" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
@@ -6368,7 +6378,7 @@
       <c r="V189" s="29"/>
       <c r="W189" s="29"/>
     </row>
-    <row r="190" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
@@ -6391,7 +6401,7 @@
       <c r="V190" s="29"/>
       <c r="W190" s="29"/>
     </row>
-    <row r="191" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
@@ -6414,7 +6424,7 @@
       <c r="V191" s="29"/>
       <c r="W191" s="29"/>
     </row>
-    <row r="192" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
@@ -6437,7 +6447,7 @@
       <c r="V192" s="29"/>
       <c r="W192" s="29"/>
     </row>
-    <row r="193" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
       <c r="E193" s="23"/>
@@ -6460,7 +6470,7 @@
       <c r="V193" s="29"/>
       <c r="W193" s="29"/>
     </row>
-    <row r="194" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C194" s="23"/>
       <c r="D194" s="23"/>
       <c r="E194" s="23"/>
@@ -6483,7 +6493,7 @@
       <c r="V194" s="29"/>
       <c r="W194" s="29"/>
     </row>
-    <row r="195" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C195" s="23"/>
       <c r="D195" s="23"/>
       <c r="E195" s="23"/>
@@ -6506,7 +6516,7 @@
       <c r="V195" s="29"/>
       <c r="W195" s="29"/>
     </row>
-    <row r="196" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
       <c r="E196" s="23"/>
@@ -6529,7 +6539,7 @@
       <c r="V196" s="29"/>
       <c r="W196" s="29"/>
     </row>
-    <row r="197" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C197" s="23"/>
       <c r="D197" s="23"/>
       <c r="E197" s="23"/>
@@ -6552,7 +6562,7 @@
       <c r="V197" s="29"/>
       <c r="W197" s="29"/>
     </row>
-    <row r="198" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
       <c r="E198" s="23"/>
@@ -6575,7 +6585,7 @@
       <c r="V198" s="29"/>
       <c r="W198" s="29"/>
     </row>
-    <row r="199" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C199" s="23"/>
       <c r="D199" s="23"/>
       <c r="E199" s="23"/>
@@ -6598,7 +6608,7 @@
       <c r="V199" s="29"/>
       <c r="W199" s="29"/>
     </row>
-    <row r="200" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C200" s="23"/>
       <c r="D200" s="23"/>
       <c r="E200" s="23"/>
@@ -6621,7 +6631,7 @@
       <c r="V200" s="29"/>
       <c r="W200" s="29"/>
     </row>
-    <row r="201" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C201" s="23"/>
       <c r="D201" s="23"/>
       <c r="E201" s="23"/>
@@ -6644,7 +6654,7 @@
       <c r="V201" s="29"/>
       <c r="W201" s="29"/>
     </row>
-    <row r="202" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C202" s="23"/>
       <c r="D202" s="23"/>
       <c r="E202" s="23"/>
@@ -6667,7 +6677,7 @@
       <c r="V202" s="29"/>
       <c r="W202" s="29"/>
     </row>
-    <row r="203" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C203" s="23"/>
       <c r="D203" s="23"/>
       <c r="E203" s="23"/>
@@ -6690,7 +6700,7 @@
       <c r="V203" s="29"/>
       <c r="W203" s="29"/>
     </row>
-    <row r="204" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C204" s="23"/>
       <c r="D204" s="23"/>
       <c r="E204" s="23"/>
@@ -6713,7 +6723,7 @@
       <c r="V204" s="29"/>
       <c r="W204" s="29"/>
     </row>
-    <row r="205" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C205" s="23"/>
       <c r="D205" s="23"/>
       <c r="E205" s="23"/>
@@ -6736,7 +6746,7 @@
       <c r="V205" s="29"/>
       <c r="W205" s="29"/>
     </row>
-    <row r="206" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C206" s="23"/>
       <c r="D206" s="23"/>
       <c r="E206" s="23"/>
@@ -6759,7 +6769,7 @@
       <c r="V206" s="29"/>
       <c r="W206" s="29"/>
     </row>
-    <row r="207" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C207" s="23"/>
       <c r="D207" s="23"/>
       <c r="E207" s="23"/>
@@ -6782,7 +6792,7 @@
       <c r="V207" s="29"/>
       <c r="W207" s="29"/>
     </row>
-    <row r="208" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C208" s="23"/>
       <c r="D208" s="23"/>
       <c r="E208" s="23"/>
@@ -6805,7 +6815,7 @@
       <c r="V208" s="29"/>
       <c r="W208" s="29"/>
     </row>
-    <row r="209" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C209" s="23"/>
       <c r="D209" s="23"/>
       <c r="E209" s="23"/>
@@ -6828,7 +6838,7 @@
       <c r="V209" s="29"/>
       <c r="W209" s="29"/>
     </row>
-    <row r="210" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C210" s="23"/>
       <c r="D210" s="23"/>
       <c r="E210" s="23"/>
@@ -6851,7 +6861,7 @@
       <c r="V210" s="29"/>
       <c r="W210" s="29"/>
     </row>
-    <row r="211" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C211" s="23"/>
       <c r="D211" s="23"/>
       <c r="E211" s="23"/>
@@ -6874,7 +6884,7 @@
       <c r="V211" s="29"/>
       <c r="W211" s="29"/>
     </row>
-    <row r="212" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C212" s="23"/>
       <c r="D212" s="23"/>
       <c r="E212" s="23"/>
@@ -6897,7 +6907,7 @@
       <c r="V212" s="29"/>
       <c r="W212" s="29"/>
     </row>
-    <row r="213" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C213" s="23"/>
       <c r="D213" s="23"/>
       <c r="E213" s="23"/>
@@ -6920,7 +6930,7 @@
       <c r="V213" s="29"/>
       <c r="W213" s="29"/>
     </row>
-    <row r="214" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C214" s="23"/>
       <c r="D214" s="23"/>
       <c r="E214" s="23"/>
@@ -6943,7 +6953,7 @@
       <c r="V214" s="29"/>
       <c r="W214" s="29"/>
     </row>
-    <row r="215" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C215" s="23"/>
       <c r="D215" s="23"/>
       <c r="E215" s="23"/>
@@ -6966,7 +6976,7 @@
       <c r="V215" s="29"/>
       <c r="W215" s="29"/>
     </row>
-    <row r="216" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C216" s="23"/>
       <c r="D216" s="23"/>
       <c r="E216" s="23"/>
@@ -6989,7 +6999,7 @@
       <c r="V216" s="29"/>
       <c r="W216" s="29"/>
     </row>
-    <row r="217" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C217" s="23"/>
       <c r="D217" s="23"/>
       <c r="E217" s="23"/>
@@ -7012,7 +7022,7 @@
       <c r="V217" s="29"/>
       <c r="W217" s="29"/>
     </row>
-    <row r="218" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C218" s="23"/>
       <c r="D218" s="23"/>
       <c r="E218" s="23"/>
@@ -7035,7 +7045,7 @@
       <c r="V218" s="29"/>
       <c r="W218" s="29"/>
     </row>
-    <row r="219" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C219" s="23"/>
       <c r="D219" s="23"/>
       <c r="E219" s="23"/>
@@ -7058,7 +7068,7 @@
       <c r="V219" s="29"/>
       <c r="W219" s="29"/>
     </row>
-    <row r="220" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C220" s="23"/>
       <c r="D220" s="23"/>
       <c r="E220" s="23"/>
@@ -7081,7 +7091,7 @@
       <c r="V220" s="29"/>
       <c r="W220" s="29"/>
     </row>
-    <row r="221" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C221" s="23"/>
       <c r="D221" s="23"/>
       <c r="E221" s="23"/>
@@ -7104,7 +7114,7 @@
       <c r="V221" s="29"/>
       <c r="W221" s="29"/>
     </row>
-    <row r="222" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C222" s="23"/>
       <c r="D222" s="23"/>
       <c r="E222" s="23"/>
@@ -7127,7 +7137,7 @@
       <c r="V222" s="29"/>
       <c r="W222" s="29"/>
     </row>
-    <row r="223" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C223" s="23"/>
       <c r="D223" s="23"/>
       <c r="E223" s="23"/>
@@ -7150,7 +7160,7 @@
       <c r="V223" s="29"/>
       <c r="W223" s="29"/>
     </row>
-    <row r="224" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C224" s="23"/>
       <c r="D224" s="23"/>
       <c r="E224" s="23"/>
@@ -7173,7 +7183,7 @@
       <c r="V224" s="29"/>
       <c r="W224" s="29"/>
     </row>
-    <row r="225" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C225" s="23"/>
       <c r="D225" s="23"/>
       <c r="E225" s="23"/>
@@ -7196,7 +7206,7 @@
       <c r="V225" s="29"/>
       <c r="W225" s="29"/>
     </row>
-    <row r="226" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C226" s="23"/>
       <c r="D226" s="23"/>
       <c r="E226" s="23"/>
@@ -7219,7 +7229,7 @@
       <c r="V226" s="29"/>
       <c r="W226" s="29"/>
     </row>
-    <row r="227" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C227" s="23"/>
       <c r="D227" s="23"/>
       <c r="E227" s="23"/>
@@ -7242,7 +7252,7 @@
       <c r="V227" s="29"/>
       <c r="W227" s="29"/>
     </row>
-    <row r="228" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C228" s="23"/>
       <c r="D228" s="23"/>
       <c r="E228" s="23"/>
@@ -7265,7 +7275,7 @@
       <c r="V228" s="29"/>
       <c r="W228" s="29"/>
     </row>
-    <row r="229" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C229" s="23"/>
       <c r="D229" s="23"/>
       <c r="E229" s="23"/>
@@ -7288,7 +7298,7 @@
       <c r="V229" s="29"/>
       <c r="W229" s="29"/>
     </row>
-    <row r="230" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C230" s="23"/>
       <c r="D230" s="23"/>
       <c r="E230" s="23"/>
@@ -7311,7 +7321,7 @@
       <c r="V230" s="29"/>
       <c r="W230" s="29"/>
     </row>
-    <row r="231" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C231" s="23"/>
       <c r="D231" s="23"/>
       <c r="E231" s="23"/>
@@ -7334,7 +7344,7 @@
       <c r="V231" s="29"/>
       <c r="W231" s="29"/>
     </row>
-    <row r="232" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C232" s="23"/>
       <c r="D232" s="23"/>
       <c r="E232" s="23"/>
@@ -7357,7 +7367,7 @@
       <c r="V232" s="29"/>
       <c r="W232" s="29"/>
     </row>
-    <row r="233" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C233" s="23"/>
       <c r="D233" s="23"/>
       <c r="E233" s="23"/>
@@ -7380,7 +7390,7 @@
       <c r="V233" s="29"/>
       <c r="W233" s="29"/>
     </row>
-    <row r="234" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C234" s="23"/>
       <c r="D234" s="23"/>
       <c r="E234" s="23"/>
@@ -7403,7 +7413,7 @@
       <c r="V234" s="29"/>
       <c r="W234" s="29"/>
     </row>
-    <row r="235" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C235" s="23"/>
       <c r="D235" s="23"/>
       <c r="E235" s="23"/>
@@ -7426,7 +7436,7 @@
       <c r="V235" s="29"/>
       <c r="W235" s="29"/>
     </row>
-    <row r="236" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C236" s="23"/>
       <c r="D236" s="23"/>
       <c r="E236" s="23"/>
@@ -7449,7 +7459,7 @@
       <c r="V236" s="29"/>
       <c r="W236" s="29"/>
     </row>
-    <row r="237" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C237" s="23"/>
       <c r="D237" s="23"/>
       <c r="E237" s="23"/>
@@ -7472,7 +7482,7 @@
       <c r="V237" s="29"/>
       <c r="W237" s="29"/>
     </row>
-    <row r="238" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C238" s="23"/>
       <c r="D238" s="23"/>
       <c r="E238" s="23"/>
@@ -7495,7 +7505,7 @@
       <c r="V238" s="29"/>
       <c r="W238" s="29"/>
     </row>
-    <row r="239" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C239" s="23"/>
       <c r="D239" s="23"/>
       <c r="E239" s="23"/>
@@ -7518,7 +7528,7 @@
       <c r="V239" s="29"/>
       <c r="W239" s="29"/>
     </row>
-    <row r="240" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C240" s="23"/>
       <c r="D240" s="23"/>
       <c r="E240" s="23"/>
@@ -7541,7 +7551,7 @@
       <c r="V240" s="29"/>
       <c r="W240" s="29"/>
     </row>
-    <row r="241" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C241" s="23"/>
       <c r="D241" s="23"/>
       <c r="E241" s="23"/>
@@ -7564,7 +7574,7 @@
       <c r="V241" s="29"/>
       <c r="W241" s="29"/>
     </row>
-    <row r="242" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C242" s="23"/>
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
@@ -7587,7 +7597,7 @@
       <c r="V242" s="29"/>
       <c r="W242" s="29"/>
     </row>
-    <row r="243" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C243" s="23"/>
       <c r="D243" s="23"/>
       <c r="E243" s="23"/>
@@ -7610,7 +7620,7 @@
       <c r="V243" s="29"/>
       <c r="W243" s="29"/>
     </row>
-    <row r="244" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C244" s="23"/>
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
@@ -7633,7 +7643,7 @@
       <c r="V244" s="29"/>
       <c r="W244" s="29"/>
     </row>
-    <row r="245" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C245" s="23"/>
       <c r="D245" s="23"/>
       <c r="E245" s="23"/>
@@ -7656,7 +7666,7 @@
       <c r="V245" s="29"/>
       <c r="W245" s="29"/>
     </row>
-    <row r="246" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C246" s="23"/>
       <c r="D246" s="23"/>
       <c r="E246" s="23"/>
@@ -7679,7 +7689,7 @@
       <c r="V246" s="29"/>
       <c r="W246" s="29"/>
     </row>
-    <row r="247" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C247" s="23"/>
       <c r="D247" s="23"/>
       <c r="E247" s="23"/>
@@ -7702,7 +7712,7 @@
       <c r="V247" s="29"/>
       <c r="W247" s="29"/>
     </row>
-    <row r="248" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C248" s="23"/>
       <c r="D248" s="23"/>
       <c r="E248" s="23"/>
@@ -7725,7 +7735,7 @@
       <c r="V248" s="29"/>
       <c r="W248" s="29"/>
     </row>
-    <row r="249" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C249" s="23"/>
       <c r="D249" s="23"/>
       <c r="E249" s="23"/>
@@ -7748,7 +7758,7 @@
       <c r="V249" s="29"/>
       <c r="W249" s="29"/>
     </row>
-    <row r="250" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C250" s="23"/>
       <c r="D250" s="23"/>
       <c r="E250" s="23"/>
@@ -7771,7 +7781,7 @@
       <c r="V250" s="29"/>
       <c r="W250" s="29"/>
     </row>
-    <row r="251" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C251" s="23"/>
       <c r="D251" s="23"/>
       <c r="E251" s="23"/>
@@ -7794,7 +7804,7 @@
       <c r="V251" s="29"/>
       <c r="W251" s="29"/>
     </row>
-    <row r="252" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C252" s="23"/>
       <c r="D252" s="23"/>
       <c r="E252" s="23"/>
@@ -7817,7 +7827,7 @@
       <c r="V252" s="29"/>
       <c r="W252" s="29"/>
     </row>
-    <row r="253" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C253" s="23"/>
       <c r="D253" s="23"/>
       <c r="E253" s="23"/>
@@ -7840,7 +7850,7 @@
       <c r="V253" s="29"/>
       <c r="W253" s="29"/>
     </row>
-    <row r="254" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C254" s="23"/>
       <c r="D254" s="23"/>
       <c r="E254" s="23"/>
@@ -7863,7 +7873,7 @@
       <c r="V254" s="29"/>
       <c r="W254" s="29"/>
     </row>
-    <row r="255" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C255" s="23"/>
       <c r="D255" s="23"/>
       <c r="E255" s="23"/>
@@ -7886,7 +7896,7 @@
       <c r="V255" s="29"/>
       <c r="W255" s="29"/>
     </row>
-    <row r="256" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C256" s="23"/>
       <c r="D256" s="23"/>
       <c r="E256" s="23"/>
@@ -7909,7 +7919,7 @@
       <c r="V256" s="29"/>
       <c r="W256" s="29"/>
     </row>
-    <row r="257" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C257" s="23"/>
       <c r="D257" s="23"/>
       <c r="E257" s="23"/>
@@ -7932,7 +7942,7 @@
       <c r="V257" s="29"/>
       <c r="W257" s="29"/>
     </row>
-    <row r="258" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C258" s="23"/>
       <c r="D258" s="23"/>
       <c r="E258" s="23"/>
@@ -7955,7 +7965,7 @@
       <c r="V258" s="29"/>
       <c r="W258" s="29"/>
     </row>
-    <row r="259" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C259" s="23"/>
       <c r="D259" s="23"/>
       <c r="E259" s="23"/>
@@ -7978,7 +7988,7 @@
       <c r="V259" s="29"/>
       <c r="W259" s="29"/>
     </row>
-    <row r="260" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C260" s="23"/>
       <c r="D260" s="23"/>
       <c r="E260" s="23"/>
@@ -8001,7 +8011,7 @@
       <c r="V260" s="29"/>
       <c r="W260" s="29"/>
     </row>
-    <row r="261" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C261" s="23"/>
       <c r="D261" s="23"/>
       <c r="E261" s="23"/>
@@ -8024,7 +8034,7 @@
       <c r="V261" s="29"/>
       <c r="W261" s="29"/>
     </row>
-    <row r="262" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C262" s="23"/>
       <c r="D262" s="23"/>
       <c r="E262" s="23"/>
@@ -8047,7 +8057,7 @@
       <c r="V262" s="29"/>
       <c r="W262" s="29"/>
     </row>
-    <row r="263" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C263" s="23"/>
       <c r="D263" s="23"/>
       <c r="E263" s="23"/>
@@ -8070,7 +8080,7 @@
       <c r="V263" s="29"/>
       <c r="W263" s="29"/>
     </row>
-    <row r="264" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C264" s="23"/>
       <c r="D264" s="23"/>
       <c r="E264" s="23"/>
@@ -8093,7 +8103,7 @@
       <c r="V264" s="29"/>
       <c r="W264" s="29"/>
     </row>
-    <row r="265" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C265" s="23"/>
       <c r="D265" s="23"/>
       <c r="E265" s="23"/>
@@ -8116,7 +8126,7 @@
       <c r="V265" s="29"/>
       <c r="W265" s="29"/>
     </row>
-    <row r="266" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C266" s="23"/>
       <c r="D266" s="23"/>
       <c r="E266" s="23"/>
@@ -8139,7 +8149,7 @@
       <c r="V266" s="29"/>
       <c r="W266" s="29"/>
     </row>
-    <row r="267" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C267" s="23"/>
       <c r="D267" s="23"/>
       <c r="E267" s="23"/>
@@ -8162,7 +8172,7 @@
       <c r="V267" s="29"/>
       <c r="W267" s="29"/>
     </row>
-    <row r="268" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C268" s="23"/>
       <c r="D268" s="23"/>
       <c r="E268" s="23"/>
@@ -8185,7 +8195,7 @@
       <c r="V268" s="29"/>
       <c r="W268" s="29"/>
     </row>
-    <row r="269" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C269" s="23"/>
       <c r="D269" s="23"/>
       <c r="E269" s="23"/>
@@ -8208,7 +8218,7 @@
       <c r="V269" s="29"/>
       <c r="W269" s="29"/>
     </row>
-    <row r="270" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C270" s="23"/>
       <c r="D270" s="23"/>
       <c r="E270" s="23"/>
@@ -8231,7 +8241,7 @@
       <c r="V270" s="29"/>
       <c r="W270" s="29"/>
     </row>
-    <row r="271" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C271" s="23"/>
       <c r="D271" s="23"/>
       <c r="E271" s="23"/>
@@ -8254,7 +8264,7 @@
       <c r="V271" s="29"/>
       <c r="W271" s="29"/>
     </row>
-    <row r="272" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C272" s="23"/>
       <c r="D272" s="23"/>
       <c r="E272" s="23"/>
@@ -8277,7 +8287,7 @@
       <c r="V272" s="29"/>
       <c r="W272" s="29"/>
     </row>
-    <row r="273" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C273" s="23"/>
       <c r="D273" s="23"/>
       <c r="E273" s="23"/>
@@ -8300,7 +8310,7 @@
       <c r="V273" s="29"/>
       <c r="W273" s="29"/>
     </row>
-    <row r="274" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C274" s="23"/>
       <c r="D274" s="23"/>
       <c r="E274" s="23"/>
@@ -8323,7 +8333,7 @@
       <c r="V274" s="29"/>
       <c r="W274" s="29"/>
     </row>
-    <row r="275" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C275" s="23"/>
       <c r="D275" s="23"/>
       <c r="E275" s="23"/>
@@ -8346,7 +8356,7 @@
       <c r="V275" s="29"/>
       <c r="W275" s="29"/>
     </row>
-    <row r="276" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C276" s="23"/>
       <c r="D276" s="23"/>
       <c r="E276" s="23"/>
@@ -8369,7 +8379,7 @@
       <c r="V276" s="29"/>
       <c r="W276" s="29"/>
     </row>
-    <row r="277" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C277" s="23"/>
       <c r="D277" s="23"/>
       <c r="E277" s="23"/>
@@ -8392,7 +8402,7 @@
       <c r="V277" s="29"/>
       <c r="W277" s="29"/>
     </row>
-    <row r="278" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C278" s="23"/>
       <c r="D278" s="23"/>
       <c r="E278" s="23"/>
@@ -8415,7 +8425,7 @@
       <c r="V278" s="29"/>
       <c r="W278" s="29"/>
     </row>
-    <row r="279" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C279" s="23"/>
       <c r="D279" s="23"/>
       <c r="E279" s="23"/>
@@ -8438,7 +8448,7 @@
       <c r="V279" s="29"/>
       <c r="W279" s="29"/>
     </row>
-    <row r="280" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C280" s="23"/>
       <c r="D280" s="23"/>
       <c r="E280" s="23"/>
@@ -8461,7 +8471,7 @@
       <c r="V280" s="29"/>
       <c r="W280" s="29"/>
     </row>
-    <row r="281" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C281" s="23"/>
       <c r="D281" s="23"/>
       <c r="E281" s="23"/>
@@ -8484,7 +8494,7 @@
       <c r="V281" s="29"/>
       <c r="W281" s="29"/>
     </row>
-    <row r="282" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C282" s="23"/>
       <c r="D282" s="23"/>
       <c r="E282" s="23"/>
@@ -8507,7 +8517,7 @@
       <c r="V282" s="29"/>
       <c r="W282" s="29"/>
     </row>
-    <row r="283" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C283" s="23"/>
       <c r="D283" s="23"/>
       <c r="E283" s="23"/>
@@ -8530,7 +8540,7 @@
       <c r="V283" s="29"/>
       <c r="W283" s="29"/>
     </row>
-    <row r="284" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C284" s="23"/>
       <c r="D284" s="23"/>
       <c r="E284" s="23"/>
@@ -8553,7 +8563,7 @@
       <c r="V284" s="29"/>
       <c r="W284" s="29"/>
     </row>
-    <row r="285" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C285" s="23"/>
       <c r="D285" s="23"/>
       <c r="E285" s="23"/>
@@ -8576,7 +8586,7 @@
       <c r="V285" s="29"/>
       <c r="W285" s="29"/>
     </row>
-    <row r="286" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C286" s="23"/>
       <c r="D286" s="23"/>
       <c r="E286" s="23"/>
@@ -8599,7 +8609,7 @@
       <c r="V286" s="29"/>
       <c r="W286" s="29"/>
     </row>
-    <row r="287" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C287" s="23"/>
       <c r="D287" s="23"/>
       <c r="E287" s="23"/>
@@ -8622,7 +8632,7 @@
       <c r="V287" s="29"/>
       <c r="W287" s="29"/>
     </row>
-    <row r="288" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C288" s="23"/>
       <c r="D288" s="23"/>
       <c r="E288" s="23"/>
@@ -8645,7 +8655,7 @@
       <c r="V288" s="29"/>
       <c r="W288" s="29"/>
     </row>
-    <row r="289" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C289" s="23"/>
       <c r="D289" s="23"/>
       <c r="E289" s="23"/>
@@ -8668,7 +8678,7 @@
       <c r="V289" s="29"/>
       <c r="W289" s="29"/>
     </row>
-    <row r="290" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C290" s="23"/>
       <c r="D290" s="23"/>
       <c r="E290" s="23"/>
@@ -8691,7 +8701,7 @@
       <c r="V290" s="29"/>
       <c r="W290" s="29"/>
     </row>
-    <row r="291" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C291" s="23"/>
       <c r="D291" s="23"/>
       <c r="E291" s="23"/>
@@ -8714,7 +8724,7 @@
       <c r="V291" s="29"/>
       <c r="W291" s="29"/>
     </row>
-    <row r="292" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C292" s="23"/>
       <c r="D292" s="23"/>
       <c r="E292" s="23"/>
@@ -8737,7 +8747,7 @@
       <c r="V292" s="29"/>
       <c r="W292" s="29"/>
     </row>
-    <row r="293" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C293" s="23"/>
       <c r="D293" s="23"/>
       <c r="E293" s="23"/>
@@ -8760,7 +8770,7 @@
       <c r="V293" s="29"/>
       <c r="W293" s="29"/>
     </row>
-    <row r="294" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C294" s="23"/>
       <c r="D294" s="23"/>
       <c r="E294" s="23"/>
@@ -8783,7 +8793,7 @@
       <c r="V294" s="29"/>
       <c r="W294" s="29"/>
     </row>
-    <row r="295" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C295" s="23"/>
       <c r="D295" s="23"/>
       <c r="E295" s="23"/>
@@ -8806,7 +8816,7 @@
       <c r="V295" s="29"/>
       <c r="W295" s="29"/>
     </row>
-    <row r="296" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C296" s="23"/>
       <c r="D296" s="23"/>
       <c r="E296" s="23"/>
@@ -8829,7 +8839,7 @@
       <c r="V296" s="29"/>
       <c r="W296" s="29"/>
     </row>
-    <row r="297" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C297" s="23"/>
       <c r="D297" s="23"/>
       <c r="E297" s="23"/>
@@ -8852,7 +8862,7 @@
       <c r="V297" s="29"/>
       <c r="W297" s="29"/>
     </row>
-    <row r="298" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C298" s="23"/>
       <c r="D298" s="23"/>
       <c r="E298" s="23"/>
@@ -8875,7 +8885,7 @@
       <c r="V298" s="29"/>
       <c r="W298" s="29"/>
     </row>
-    <row r="299" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C299" s="23"/>
       <c r="D299" s="23"/>
       <c r="E299" s="23"/>
@@ -8898,7 +8908,7 @@
       <c r="V299" s="29"/>
       <c r="W299" s="29"/>
     </row>
-    <row r="300" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C300" s="23"/>
       <c r="D300" s="23"/>
       <c r="E300" s="23"/>
@@ -8921,7 +8931,7 @@
       <c r="V300" s="29"/>
       <c r="W300" s="29"/>
     </row>
-    <row r="301" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C301" s="23"/>
       <c r="D301" s="23"/>
       <c r="E301" s="23"/>
@@ -8944,7 +8954,7 @@
       <c r="V301" s="29"/>
       <c r="W301" s="29"/>
     </row>
-    <row r="302" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C302" s="23"/>
       <c r="D302" s="23"/>
       <c r="E302" s="23"/>
@@ -8967,7 +8977,7 @@
       <c r="V302" s="29"/>
       <c r="W302" s="29"/>
     </row>
-    <row r="303" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C303" s="23"/>
       <c r="D303" s="23"/>
       <c r="E303" s="23"/>
@@ -8990,7 +9000,7 @@
       <c r="V303" s="29"/>
       <c r="W303" s="29"/>
     </row>
-    <row r="304" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C304" s="23"/>
       <c r="D304" s="23"/>
       <c r="E304" s="23"/>
@@ -9013,7 +9023,7 @@
       <c r="V304" s="29"/>
       <c r="W304" s="29"/>
     </row>
-    <row r="305" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C305" s="23"/>
       <c r="D305" s="23"/>
       <c r="E305" s="23"/>
@@ -9036,7 +9046,7 @@
       <c r="V305" s="29"/>
       <c r="W305" s="29"/>
     </row>
-    <row r="306" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C306" s="23"/>
       <c r="D306" s="23"/>
       <c r="E306" s="23"/>
@@ -9059,7 +9069,7 @@
       <c r="V306" s="29"/>
       <c r="W306" s="29"/>
     </row>
-    <row r="307" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C307" s="23"/>
       <c r="D307" s="23"/>
       <c r="E307" s="23"/>
@@ -9082,7 +9092,7 @@
       <c r="V307" s="29"/>
       <c r="W307" s="29"/>
     </row>
-    <row r="308" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C308" s="23"/>
       <c r="D308" s="23"/>
       <c r="E308" s="23"/>
@@ -9105,7 +9115,7 @@
       <c r="V308" s="29"/>
       <c r="W308" s="29"/>
     </row>
-    <row r="309" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C309" s="23"/>
       <c r="D309" s="23"/>
       <c r="E309" s="23"/>
@@ -9128,7 +9138,7 @@
       <c r="V309" s="29"/>
       <c r="W309" s="29"/>
     </row>
-    <row r="310" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C310" s="23"/>
       <c r="D310" s="23"/>
       <c r="E310" s="23"/>
@@ -9151,7 +9161,7 @@
       <c r="V310" s="29"/>
       <c r="W310" s="29"/>
     </row>
-    <row r="311" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C311" s="23"/>
       <c r="D311" s="23"/>
       <c r="E311" s="23"/>
@@ -9174,7 +9184,7 @@
       <c r="V311" s="29"/>
       <c r="W311" s="29"/>
     </row>
-    <row r="312" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C312" s="23"/>
       <c r="D312" s="23"/>
       <c r="E312" s="23"/>
@@ -9197,7 +9207,7 @@
       <c r="V312" s="29"/>
       <c r="W312" s="29"/>
     </row>
-    <row r="313" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C313" s="23"/>
       <c r="D313" s="23"/>
       <c r="E313" s="23"/>
@@ -9220,7 +9230,7 @@
       <c r="V313" s="29"/>
       <c r="W313" s="29"/>
     </row>
-    <row r="314" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C314" s="23"/>
       <c r="D314" s="23"/>
       <c r="E314" s="23"/>
@@ -9243,7 +9253,7 @@
       <c r="V314" s="29"/>
       <c r="W314" s="29"/>
     </row>
-    <row r="315" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C315" s="23"/>
       <c r="D315" s="23"/>
       <c r="E315" s="23"/>
@@ -9266,7 +9276,7 @@
       <c r="V315" s="29"/>
       <c r="W315" s="29"/>
     </row>
-    <row r="316" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C316" s="23"/>
       <c r="D316" s="23"/>
       <c r="E316" s="23"/>
@@ -9289,7 +9299,7 @@
       <c r="V316" s="29"/>
       <c r="W316" s="29"/>
     </row>
-    <row r="317" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C317" s="23"/>
       <c r="D317" s="23"/>
       <c r="E317" s="23"/>
@@ -9312,7 +9322,7 @@
       <c r="V317" s="29"/>
       <c r="W317" s="29"/>
     </row>
-    <row r="318" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C318" s="23"/>
       <c r="D318" s="23"/>
       <c r="E318" s="23"/>
@@ -9335,7 +9345,7 @@
       <c r="V318" s="29"/>
       <c r="W318" s="29"/>
     </row>
-    <row r="319" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C319" s="23"/>
       <c r="D319" s="23"/>
       <c r="E319" s="23"/>
@@ -9358,7 +9368,7 @@
       <c r="V319" s="29"/>
       <c r="W319" s="29"/>
     </row>
-    <row r="320" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C320" s="23"/>
       <c r="D320" s="23"/>
       <c r="E320" s="23"/>
@@ -9381,7 +9391,7 @@
       <c r="V320" s="29"/>
       <c r="W320" s="29"/>
     </row>
-    <row r="321" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C321" s="23"/>
       <c r="D321" s="23"/>
       <c r="E321" s="23"/>
@@ -9404,7 +9414,7 @@
       <c r="V321" s="29"/>
       <c r="W321" s="29"/>
     </row>
-    <row r="322" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C322" s="23"/>
       <c r="D322" s="23"/>
       <c r="E322" s="23"/>
@@ -9427,7 +9437,7 @@
       <c r="V322" s="29"/>
       <c r="W322" s="29"/>
     </row>
-    <row r="323" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C323" s="23"/>
       <c r="D323" s="23"/>
       <c r="E323" s="23"/>
@@ -9450,7 +9460,7 @@
       <c r="V323" s="29"/>
       <c r="W323" s="29"/>
     </row>
-    <row r="324" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C324" s="23"/>
       <c r="D324" s="23"/>
       <c r="E324" s="23"/>
@@ -9473,7 +9483,7 @@
       <c r="V324" s="29"/>
       <c r="W324" s="29"/>
     </row>
-    <row r="325" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C325" s="23"/>
       <c r="D325" s="23"/>
       <c r="E325" s="23"/>
@@ -9496,7 +9506,7 @@
       <c r="V325" s="29"/>
       <c r="W325" s="29"/>
     </row>
-    <row r="326" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C326" s="23"/>
       <c r="D326" s="23"/>
       <c r="E326" s="23"/>
@@ -9519,7 +9529,7 @@
       <c r="V326" s="29"/>
       <c r="W326" s="29"/>
     </row>
-    <row r="327" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C327" s="23"/>
       <c r="D327" s="23"/>
       <c r="E327" s="23"/>
@@ -9542,7 +9552,7 @@
       <c r="V327" s="29"/>
       <c r="W327" s="29"/>
     </row>
-    <row r="328" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C328" s="23"/>
       <c r="D328" s="23"/>
       <c r="E328" s="23"/>
@@ -9565,7 +9575,7 @@
       <c r="V328" s="29"/>
       <c r="W328" s="29"/>
     </row>
-    <row r="329" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C329" s="23"/>
       <c r="D329" s="23"/>
       <c r="E329" s="23"/>
@@ -9588,7 +9598,7 @@
       <c r="V329" s="29"/>
       <c r="W329" s="29"/>
     </row>
-    <row r="330" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C330" s="23"/>
       <c r="D330" s="23"/>
       <c r="E330" s="23"/>
@@ -9611,7 +9621,7 @@
       <c r="V330" s="29"/>
       <c r="W330" s="29"/>
     </row>
-    <row r="331" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C331" s="23"/>
       <c r="D331" s="23"/>
       <c r="E331" s="23"/>
@@ -9634,7 +9644,7 @@
       <c r="V331" s="29"/>
       <c r="W331" s="29"/>
     </row>
-    <row r="332" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C332" s="23"/>
       <c r="D332" s="23"/>
       <c r="E332" s="23"/>
@@ -9657,7 +9667,7 @@
       <c r="V332" s="29"/>
       <c r="W332" s="29"/>
     </row>
-    <row r="333" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C333" s="23"/>
       <c r="D333" s="23"/>
       <c r="E333" s="23"/>
@@ -9680,7 +9690,7 @@
       <c r="V333" s="29"/>
       <c r="W333" s="29"/>
     </row>
-    <row r="334" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C334" s="23"/>
       <c r="D334" s="23"/>
       <c r="E334" s="23"/>
@@ -9703,7 +9713,7 @@
       <c r="V334" s="29"/>
       <c r="W334" s="29"/>
     </row>
-    <row r="335" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C335" s="23"/>
       <c r="D335" s="23"/>
       <c r="E335" s="23"/>
@@ -9726,7 +9736,7 @@
       <c r="V335" s="29"/>
       <c r="W335" s="29"/>
     </row>
-    <row r="336" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C336" s="23"/>
       <c r="D336" s="23"/>
       <c r="E336" s="23"/>
@@ -9749,7 +9759,7 @@
       <c r="V336" s="29"/>
       <c r="W336" s="29"/>
     </row>
-    <row r="337" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C337" s="23"/>
       <c r="D337" s="23"/>
       <c r="E337" s="23"/>
@@ -9772,7 +9782,7 @@
       <c r="V337" s="29"/>
       <c r="W337" s="29"/>
     </row>
-    <row r="338" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C338" s="23"/>
       <c r="D338" s="23"/>
       <c r="E338" s="23"/>
@@ -9795,7 +9805,7 @@
       <c r="V338" s="29"/>
       <c r="W338" s="29"/>
     </row>
-    <row r="339" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C339" s="23"/>
       <c r="D339" s="23"/>
       <c r="E339" s="23"/>
@@ -9818,7 +9828,7 @@
       <c r="V339" s="29"/>
       <c r="W339" s="29"/>
     </row>
-    <row r="340" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C340" s="23"/>
       <c r="D340" s="23"/>
       <c r="E340" s="23"/>
@@ -9841,7 +9851,7 @@
       <c r="V340" s="29"/>
       <c r="W340" s="29"/>
     </row>
-    <row r="341" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C341" s="23"/>
       <c r="D341" s="23"/>
       <c r="E341" s="23"/>
@@ -9864,7 +9874,7 @@
       <c r="V341" s="29"/>
       <c r="W341" s="29"/>
     </row>
-    <row r="342" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C342" s="23"/>
       <c r="D342" s="23"/>
       <c r="E342" s="23"/>
@@ -9887,7 +9897,7 @@
       <c r="V342" s="29"/>
       <c r="W342" s="29"/>
     </row>
-    <row r="343" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C343" s="23"/>
       <c r="D343" s="23"/>
       <c r="E343" s="23"/>
@@ -9910,7 +9920,7 @@
       <c r="V343" s="29"/>
       <c r="W343" s="29"/>
     </row>
-    <row r="344" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C344" s="23"/>
       <c r="D344" s="23"/>
       <c r="E344" s="23"/>
@@ -9933,7 +9943,7 @@
       <c r="V344" s="29"/>
       <c r="W344" s="29"/>
     </row>
-    <row r="345" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C345" s="23"/>
       <c r="D345" s="23"/>
       <c r="E345" s="23"/>
@@ -9956,7 +9966,7 @@
       <c r="V345" s="29"/>
       <c r="W345" s="29"/>
     </row>
-    <row r="346" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C346" s="23"/>
       <c r="D346" s="23"/>
       <c r="E346" s="23"/>
@@ -9979,7 +9989,7 @@
       <c r="V346" s="29"/>
       <c r="W346" s="29"/>
     </row>
-    <row r="347" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C347" s="23"/>
       <c r="D347" s="23"/>
       <c r="E347" s="23"/>
@@ -10002,7 +10012,7 @@
       <c r="V347" s="29"/>
       <c r="W347" s="29"/>
     </row>
-    <row r="348" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C348" s="23"/>
       <c r="D348" s="23"/>
       <c r="E348" s="23"/>
@@ -10025,7 +10035,7 @@
       <c r="V348" s="29"/>
       <c r="W348" s="29"/>
     </row>
-    <row r="349" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C349" s="23"/>
       <c r="D349" s="23"/>
       <c r="E349" s="23"/>
@@ -10048,7 +10058,7 @@
       <c r="V349" s="29"/>
       <c r="W349" s="29"/>
     </row>
-    <row r="350" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C350" s="23"/>
       <c r="D350" s="23"/>
       <c r="E350" s="23"/>
@@ -10071,7 +10081,7 @@
       <c r="V350" s="29"/>
       <c r="W350" s="29"/>
     </row>
-    <row r="351" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C351" s="23"/>
       <c r="D351" s="23"/>
       <c r="E351" s="23"/>
@@ -10094,7 +10104,7 @@
       <c r="V351" s="29"/>
       <c r="W351" s="29"/>
     </row>
-    <row r="352" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C352" s="23"/>
       <c r="D352" s="23"/>
       <c r="E352" s="23"/>
@@ -10117,7 +10127,7 @@
       <c r="V352" s="29"/>
       <c r="W352" s="29"/>
     </row>
-    <row r="353" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C353" s="23"/>
       <c r="D353" s="23"/>
       <c r="E353" s="23"/>
@@ -10140,7 +10150,7 @@
       <c r="V353" s="29"/>
       <c r="W353" s="29"/>
     </row>
-    <row r="354" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C354" s="23"/>
       <c r="D354" s="23"/>
       <c r="E354" s="23"/>
@@ -10163,7 +10173,7 @@
       <c r="V354" s="29"/>
       <c r="W354" s="29"/>
     </row>
-    <row r="355" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C355" s="23"/>
       <c r="D355" s="23"/>
       <c r="E355" s="23"/>
@@ -10186,7 +10196,7 @@
       <c r="V355" s="29"/>
       <c r="W355" s="29"/>
     </row>
-    <row r="356" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C356" s="23"/>
       <c r="D356" s="23"/>
       <c r="E356" s="23"/>
@@ -10209,7 +10219,7 @@
       <c r="V356" s="29"/>
       <c r="W356" s="29"/>
     </row>
-    <row r="357" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C357" s="23"/>
       <c r="D357" s="23"/>
       <c r="E357" s="23"/>
@@ -10232,7 +10242,7 @@
       <c r="V357" s="29"/>
       <c r="W357" s="29"/>
     </row>
-    <row r="358" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C358" s="23"/>
       <c r="D358" s="23"/>
       <c r="E358" s="23"/>
@@ -10255,7 +10265,7 @@
       <c r="V358" s="29"/>
       <c r="W358" s="29"/>
     </row>
-    <row r="359" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C359" s="23"/>
       <c r="D359" s="23"/>
       <c r="E359" s="23"/>
@@ -10278,7 +10288,7 @@
       <c r="V359" s="29"/>
       <c r="W359" s="29"/>
     </row>
-    <row r="360" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C360" s="23"/>
       <c r="D360" s="23"/>
       <c r="E360" s="23"/>
@@ -10301,7 +10311,7 @@
       <c r="V360" s="29"/>
       <c r="W360" s="29"/>
     </row>
-    <row r="361" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C361" s="23"/>
       <c r="D361" s="23"/>
       <c r="E361" s="23"/>
@@ -10324,7 +10334,7 @@
       <c r="V361" s="29"/>
       <c r="W361" s="29"/>
     </row>
-    <row r="362" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C362" s="23"/>
       <c r="D362" s="23"/>
       <c r="E362" s="23"/>
@@ -10347,7 +10357,7 @@
       <c r="V362" s="29"/>
       <c r="W362" s="29"/>
     </row>
-    <row r="363" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C363" s="23"/>
       <c r="D363" s="23"/>
       <c r="E363" s="23"/>
@@ -10370,7 +10380,7 @@
       <c r="V363" s="29"/>
       <c r="W363" s="29"/>
     </row>
-    <row r="364" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C364" s="23"/>
       <c r="D364" s="23"/>
       <c r="E364" s="23"/>
@@ -10393,7 +10403,7 @@
       <c r="V364" s="29"/>
       <c r="W364" s="29"/>
     </row>
-    <row r="365" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C365" s="23"/>
       <c r="D365" s="23"/>
       <c r="E365" s="23"/>
@@ -10416,7 +10426,7 @@
       <c r="V365" s="29"/>
       <c r="W365" s="29"/>
     </row>
-    <row r="366" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C366" s="23"/>
       <c r="D366" s="23"/>
       <c r="E366" s="23"/>
@@ -10439,7 +10449,7 @@
       <c r="V366" s="29"/>
       <c r="W366" s="29"/>
     </row>
-    <row r="367" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C367" s="23"/>
       <c r="D367" s="23"/>
       <c r="E367" s="23"/>
@@ -10462,7 +10472,7 @@
       <c r="V367" s="29"/>
       <c r="W367" s="29"/>
     </row>
-    <row r="368" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C368" s="23"/>
       <c r="D368" s="23"/>
       <c r="E368" s="23"/>
@@ -10485,7 +10495,7 @@
       <c r="V368" s="29"/>
       <c r="W368" s="29"/>
     </row>
-    <row r="369" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C369" s="23"/>
       <c r="D369" s="23"/>
       <c r="E369" s="23"/>
@@ -10508,7 +10518,7 @@
       <c r="V369" s="29"/>
       <c r="W369" s="29"/>
     </row>
-    <row r="370" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C370" s="23"/>
       <c r="D370" s="23"/>
       <c r="E370" s="23"/>
@@ -10531,7 +10541,7 @@
       <c r="V370" s="29"/>
       <c r="W370" s="29"/>
     </row>
-    <row r="371" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C371" s="23"/>
       <c r="D371" s="23"/>
       <c r="E371" s="23"/>
@@ -10554,7 +10564,7 @@
       <c r="V371" s="29"/>
       <c r="W371" s="29"/>
     </row>
-    <row r="372" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C372" s="23"/>
       <c r="D372" s="23"/>
       <c r="E372" s="23"/>
@@ -10577,7 +10587,7 @@
       <c r="V372" s="29"/>
       <c r="W372" s="29"/>
     </row>
-    <row r="373" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C373" s="23"/>
       <c r="D373" s="23"/>
       <c r="E373" s="23"/>
@@ -10600,7 +10610,7 @@
       <c r="V373" s="29"/>
       <c r="W373" s="29"/>
     </row>
-    <row r="374" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C374" s="23"/>
       <c r="D374" s="23"/>
       <c r="E374" s="23"/>
@@ -10623,7 +10633,7 @@
       <c r="V374" s="29"/>
       <c r="W374" s="29"/>
     </row>
-    <row r="375" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C375" s="23"/>
       <c r="D375" s="23"/>
       <c r="E375" s="23"/>
@@ -10646,7 +10656,7 @@
       <c r="V375" s="29"/>
       <c r="W375" s="29"/>
     </row>
-    <row r="376" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C376" s="23"/>
       <c r="D376" s="23"/>
       <c r="E376" s="23"/>
@@ -10669,7 +10679,7 @@
       <c r="V376" s="29"/>
       <c r="W376" s="29"/>
     </row>
-    <row r="377" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C377" s="23"/>
       <c r="D377" s="23"/>
       <c r="E377" s="23"/>
@@ -10692,7 +10702,7 @@
       <c r="V377" s="29"/>
       <c r="W377" s="29"/>
     </row>
-    <row r="378" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C378" s="23"/>
       <c r="D378" s="23"/>
       <c r="E378" s="23"/>
@@ -10715,7 +10725,7 @@
       <c r="V378" s="29"/>
       <c r="W378" s="29"/>
     </row>
-    <row r="379" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C379" s="23"/>
       <c r="D379" s="23"/>
       <c r="E379" s="23"/>
@@ -10738,7 +10748,7 @@
       <c r="V379" s="29"/>
       <c r="W379" s="29"/>
     </row>
-    <row r="380" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C380" s="23"/>
       <c r="D380" s="23"/>
       <c r="E380" s="23"/>
@@ -10761,7 +10771,7 @@
       <c r="V380" s="29"/>
       <c r="W380" s="29"/>
     </row>
-    <row r="381" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C381" s="23"/>
       <c r="D381" s="23"/>
       <c r="E381" s="23"/>
@@ -10784,7 +10794,7 @@
       <c r="V381" s="29"/>
       <c r="W381" s="29"/>
     </row>
-    <row r="382" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C382" s="23"/>
       <c r="D382" s="23"/>
       <c r="E382" s="23"/>
@@ -10807,7 +10817,7 @@
       <c r="V382" s="29"/>
       <c r="W382" s="29"/>
     </row>
-    <row r="383" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C383" s="23"/>
       <c r="D383" s="23"/>
       <c r="E383" s="23"/>
@@ -10830,7 +10840,7 @@
       <c r="V383" s="29"/>
       <c r="W383" s="29"/>
     </row>
-    <row r="384" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C384" s="23"/>
       <c r="D384" s="23"/>
       <c r="E384" s="23"/>
@@ -10853,7 +10863,7 @@
       <c r="V384" s="29"/>
       <c r="W384" s="29"/>
     </row>
-    <row r="385" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="385" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C385" s="23"/>
       <c r="D385" s="23"/>
       <c r="E385" s="23"/>
@@ -10876,7 +10886,7 @@
       <c r="V385" s="29"/>
       <c r="W385" s="29"/>
     </row>
-    <row r="386" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="386" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C386" s="23"/>
       <c r="D386" s="23"/>
       <c r="E386" s="23"/>
@@ -10899,7 +10909,7 @@
       <c r="V386" s="29"/>
       <c r="W386" s="29"/>
     </row>
-    <row r="387" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="387" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C387" s="23"/>
       <c r="D387" s="23"/>
       <c r="E387" s="23"/>
@@ -10922,7 +10932,7 @@
       <c r="V387" s="29"/>
       <c r="W387" s="29"/>
     </row>
-    <row r="388" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="388" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C388" s="23"/>
       <c r="D388" s="23"/>
       <c r="E388" s="23"/>
@@ -10945,7 +10955,7 @@
       <c r="V388" s="29"/>
       <c r="W388" s="29"/>
     </row>
-    <row r="389" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C389" s="23"/>
       <c r="D389" s="23"/>
       <c r="E389" s="23"/>
@@ -10968,7 +10978,7 @@
       <c r="V389" s="29"/>
       <c r="W389" s="29"/>
     </row>
-    <row r="390" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C390" s="23"/>
       <c r="D390" s="23"/>
       <c r="E390" s="23"/>
@@ -10991,7 +11001,7 @@
       <c r="V390" s="29"/>
       <c r="W390" s="29"/>
     </row>
-    <row r="391" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C391" s="23"/>
       <c r="D391" s="23"/>
       <c r="E391" s="23"/>
@@ -11014,7 +11024,7 @@
       <c r="V391" s="29"/>
       <c r="W391" s="29"/>
     </row>
-    <row r="392" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C392" s="23"/>
       <c r="D392" s="23"/>
       <c r="E392" s="23"/>
@@ -11037,7 +11047,7 @@
       <c r="V392" s="29"/>
       <c r="W392" s="29"/>
     </row>
-    <row r="393" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C393" s="23"/>
       <c r="D393" s="23"/>
       <c r="E393" s="23"/>
@@ -11060,7 +11070,7 @@
       <c r="V393" s="29"/>
       <c r="W393" s="29"/>
     </row>
-    <row r="394" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C394" s="23"/>
       <c r="D394" s="23"/>
       <c r="E394" s="23"/>
@@ -11083,7 +11093,7 @@
       <c r="V394" s="29"/>
       <c r="W394" s="29"/>
     </row>
-    <row r="395" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C395" s="23"/>
       <c r="D395" s="23"/>
       <c r="E395" s="23"/>
@@ -11106,7 +11116,7 @@
       <c r="V395" s="29"/>
       <c r="W395" s="29"/>
     </row>
-    <row r="396" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C396" s="23"/>
       <c r="D396" s="23"/>
       <c r="E396" s="23"/>
@@ -11129,7 +11139,7 @@
       <c r="V396" s="29"/>
       <c r="W396" s="29"/>
     </row>
-    <row r="397" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C397" s="23"/>
       <c r="D397" s="23"/>
       <c r="E397" s="23"/>
@@ -11152,7 +11162,7 @@
       <c r="V397" s="29"/>
       <c r="W397" s="29"/>
     </row>
-    <row r="398" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C398" s="23"/>
       <c r="D398" s="23"/>
       <c r="E398" s="23"/>
@@ -11175,7 +11185,7 @@
       <c r="V398" s="29"/>
       <c r="W398" s="29"/>
     </row>
-    <row r="399" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C399" s="23"/>
       <c r="D399" s="23"/>
       <c r="E399" s="23"/>
@@ -11198,7 +11208,7 @@
       <c r="V399" s="29"/>
       <c r="W399" s="29"/>
     </row>
-    <row r="400" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="400" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C400" s="23"/>
       <c r="D400" s="23"/>
       <c r="E400" s="23"/>
@@ -11221,7 +11231,7 @@
       <c r="V400" s="29"/>
       <c r="W400" s="29"/>
     </row>
-    <row r="401" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C401" s="23"/>
       <c r="D401" s="23"/>
       <c r="E401" s="23"/>
@@ -11244,7 +11254,7 @@
       <c r="V401" s="29"/>
       <c r="W401" s="29"/>
     </row>
-    <row r="402" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C402" s="23"/>
       <c r="D402" s="23"/>
       <c r="E402" s="23"/>
@@ -11267,7 +11277,7 @@
       <c r="V402" s="29"/>
       <c r="W402" s="29"/>
     </row>
-    <row r="403" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C403" s="23"/>
       <c r="D403" s="23"/>
       <c r="E403" s="23"/>
@@ -11290,7 +11300,7 @@
       <c r="V403" s="29"/>
       <c r="W403" s="29"/>
     </row>
-    <row r="404" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C404" s="23"/>
       <c r="D404" s="23"/>
       <c r="E404" s="23"/>
@@ -11313,7 +11323,7 @@
       <c r="V404" s="29"/>
       <c r="W404" s="29"/>
     </row>
-    <row r="405" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="405" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C405" s="23"/>
       <c r="D405" s="23"/>
       <c r="E405" s="23"/>
@@ -11336,7 +11346,7 @@
       <c r="V405" s="29"/>
       <c r="W405" s="29"/>
     </row>
-    <row r="406" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="406" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C406" s="23"/>
       <c r="D406" s="23"/>
       <c r="E406" s="23"/>
@@ -11359,7 +11369,7 @@
       <c r="V406" s="29"/>
       <c r="W406" s="29"/>
     </row>
-    <row r="407" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="407" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C407" s="23"/>
       <c r="D407" s="23"/>
       <c r="E407" s="23"/>
@@ -11382,7 +11392,7 @@
       <c r="V407" s="29"/>
       <c r="W407" s="29"/>
     </row>
-    <row r="408" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="408" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C408" s="23"/>
       <c r="D408" s="23"/>
       <c r="E408" s="23"/>
@@ -11405,7 +11415,7 @@
       <c r="V408" s="29"/>
       <c r="W408" s="29"/>
     </row>
-    <row r="409" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="409" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C409" s="23"/>
       <c r="D409" s="23"/>
       <c r="E409" s="23"/>
@@ -11428,7 +11438,7 @@
       <c r="V409" s="29"/>
       <c r="W409" s="29"/>
     </row>
-    <row r="410" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="410" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C410" s="23"/>
       <c r="D410" s="23"/>
       <c r="E410" s="23"/>
@@ -11451,7 +11461,7 @@
       <c r="V410" s="29"/>
       <c r="W410" s="29"/>
     </row>
-    <row r="411" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="411" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C411" s="23"/>
       <c r="D411" s="23"/>
       <c r="E411" s="23"/>
@@ -11474,7 +11484,7 @@
       <c r="V411" s="29"/>
       <c r="W411" s="29"/>
     </row>
-    <row r="412" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="412" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C412" s="23"/>
       <c r="D412" s="23"/>
       <c r="E412" s="23"/>
@@ -11497,7 +11507,7 @@
       <c r="V412" s="29"/>
       <c r="W412" s="29"/>
     </row>
-    <row r="413" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="413" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C413" s="23"/>
       <c r="D413" s="23"/>
       <c r="E413" s="23"/>
@@ -11520,7 +11530,7 @@
       <c r="V413" s="29"/>
       <c r="W413" s="29"/>
     </row>
-    <row r="414" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="414" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C414" s="23"/>
       <c r="D414" s="23"/>
       <c r="E414" s="23"/>
@@ -11543,7 +11553,7 @@
       <c r="V414" s="29"/>
       <c r="W414" s="29"/>
     </row>
-    <row r="415" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="415" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C415" s="23"/>
       <c r="D415" s="23"/>
       <c r="E415" s="23"/>
@@ -11566,7 +11576,7 @@
       <c r="V415" s="29"/>
       <c r="W415" s="29"/>
     </row>
-    <row r="416" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="416" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C416" s="23"/>
       <c r="D416" s="23"/>
       <c r="E416" s="23"/>
@@ -11589,7 +11599,7 @@
       <c r="V416" s="29"/>
       <c r="W416" s="29"/>
     </row>
-    <row r="417" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="417" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C417" s="23"/>
       <c r="D417" s="23"/>
       <c r="E417" s="23"/>
@@ -11612,7 +11622,7 @@
       <c r="V417" s="29"/>
       <c r="W417" s="29"/>
     </row>
-    <row r="418" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="418" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C418" s="23"/>
       <c r="D418" s="23"/>
       <c r="E418" s="23"/>
@@ -11635,7 +11645,7 @@
       <c r="V418" s="29"/>
       <c r="W418" s="29"/>
     </row>
-    <row r="419" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="419" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C419" s="23"/>
       <c r="D419" s="23"/>
       <c r="E419" s="23"/>
@@ -11658,7 +11668,7 @@
       <c r="V419" s="29"/>
       <c r="W419" s="29"/>
     </row>
-    <row r="420" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="420" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C420" s="23"/>
       <c r="D420" s="23"/>
       <c r="E420" s="23"/>
@@ -11681,7 +11691,7 @@
       <c r="V420" s="29"/>
       <c r="W420" s="29"/>
     </row>
-    <row r="421" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="421" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C421" s="23"/>
       <c r="D421" s="23"/>
       <c r="E421" s="23"/>
@@ -11704,7 +11714,7 @@
       <c r="V421" s="29"/>
       <c r="W421" s="29"/>
     </row>
-    <row r="422" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="422" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C422" s="23"/>
       <c r="D422" s="23"/>
       <c r="E422" s="23"/>
@@ -11727,7 +11737,7 @@
       <c r="V422" s="29"/>
       <c r="W422" s="29"/>
     </row>
-    <row r="423" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="423" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C423" s="23"/>
       <c r="D423" s="23"/>
       <c r="E423" s="23"/>
@@ -11750,7 +11760,7 @@
       <c r="V423" s="29"/>
       <c r="W423" s="29"/>
     </row>
-    <row r="424" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="424" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C424" s="23"/>
       <c r="D424" s="23"/>
       <c r="E424" s="23"/>
@@ -11773,7 +11783,7 @@
       <c r="V424" s="29"/>
       <c r="W424" s="29"/>
     </row>
-    <row r="425" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="425" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C425" s="23"/>
       <c r="D425" s="23"/>
       <c r="E425" s="23"/>
@@ -11796,7 +11806,7 @@
       <c r="V425" s="29"/>
       <c r="W425" s="29"/>
     </row>
-    <row r="426" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="426" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C426" s="23"/>
       <c r="D426" s="23"/>
       <c r="E426" s="23"/>
@@ -11819,7 +11829,7 @@
       <c r="V426" s="29"/>
       <c r="W426" s="29"/>
     </row>
-    <row r="427" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="427" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C427" s="23"/>
       <c r="D427" s="23"/>
       <c r="E427" s="23"/>
@@ -11842,7 +11852,7 @@
       <c r="V427" s="29"/>
       <c r="W427" s="29"/>
     </row>
-    <row r="428" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="428" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C428" s="23"/>
       <c r="D428" s="23"/>
       <c r="E428" s="23"/>
@@ -11865,7 +11875,7 @@
       <c r="V428" s="29"/>
       <c r="W428" s="29"/>
     </row>
-    <row r="429" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="429" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C429" s="23"/>
       <c r="D429" s="23"/>
       <c r="E429" s="23"/>
@@ -11888,7 +11898,7 @@
       <c r="V429" s="29"/>
       <c r="W429" s="29"/>
     </row>
-    <row r="430" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="430" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C430" s="23"/>
       <c r="D430" s="23"/>
       <c r="E430" s="23"/>
@@ -11911,7 +11921,7 @@
       <c r="V430" s="29"/>
       <c r="W430" s="29"/>
     </row>
-    <row r="431" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="431" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C431" s="23"/>
       <c r="D431" s="23"/>
       <c r="E431" s="23"/>
@@ -11934,7 +11944,7 @@
       <c r="V431" s="29"/>
       <c r="W431" s="29"/>
     </row>
-    <row r="432" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="432" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C432" s="23"/>
       <c r="D432" s="23"/>
       <c r="E432" s="23"/>
@@ -11957,7 +11967,7 @@
       <c r="V432" s="29"/>
       <c r="W432" s="29"/>
     </row>
-    <row r="433" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="433" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C433" s="23"/>
       <c r="D433" s="23"/>
       <c r="E433" s="23"/>
@@ -11980,7 +11990,7 @@
       <c r="V433" s="29"/>
       <c r="W433" s="29"/>
     </row>
-    <row r="434" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="434" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C434" s="23"/>
       <c r="D434" s="23"/>
       <c r="E434" s="23"/>
@@ -12003,7 +12013,7 @@
       <c r="V434" s="29"/>
       <c r="W434" s="29"/>
     </row>
-    <row r="435" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="435" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C435" s="23"/>
       <c r="D435" s="23"/>
       <c r="E435" s="23"/>
@@ -12026,7 +12036,7 @@
       <c r="V435" s="29"/>
       <c r="W435" s="29"/>
     </row>
-    <row r="436" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="436" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C436" s="23"/>
       <c r="D436" s="23"/>
       <c r="E436" s="23"/>
@@ -12049,7 +12059,7 @@
       <c r="V436" s="29"/>
       <c r="W436" s="29"/>
     </row>
-    <row r="437" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="437" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C437" s="23"/>
       <c r="D437" s="23"/>
       <c r="E437" s="23"/>
@@ -12072,7 +12082,7 @@
       <c r="V437" s="29"/>
       <c r="W437" s="29"/>
     </row>
-    <row r="438" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="438" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C438" s="23"/>
       <c r="D438" s="23"/>
       <c r="E438" s="23"/>
@@ -12095,7 +12105,7 @@
       <c r="V438" s="29"/>
       <c r="W438" s="29"/>
     </row>
-    <row r="439" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="439" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C439" s="23"/>
       <c r="D439" s="23"/>
       <c r="E439" s="23"/>
@@ -12118,7 +12128,7 @@
       <c r="V439" s="29"/>
       <c r="W439" s="29"/>
     </row>
-    <row r="440" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="440" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C440" s="23"/>
       <c r="D440" s="23"/>
       <c r="E440" s="23"/>
@@ -12141,7 +12151,7 @@
       <c r="V440" s="29"/>
       <c r="W440" s="29"/>
     </row>
-    <row r="441" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="441" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C441" s="23"/>
       <c r="D441" s="23"/>
       <c r="E441" s="23"/>
@@ -12164,7 +12174,7 @@
       <c r="V441" s="29"/>
       <c r="W441" s="29"/>
     </row>
-    <row r="442" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="442" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C442" s="23"/>
       <c r="D442" s="23"/>
       <c r="E442" s="23"/>
@@ -12187,7 +12197,7 @@
       <c r="V442" s="29"/>
       <c r="W442" s="29"/>
     </row>
-    <row r="443" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="443" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C443" s="23"/>
       <c r="D443" s="23"/>
       <c r="E443" s="23"/>
@@ -12210,7 +12220,7 @@
       <c r="V443" s="29"/>
       <c r="W443" s="29"/>
     </row>
-    <row r="444" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="444" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C444" s="23"/>
       <c r="D444" s="23"/>
       <c r="E444" s="23"/>
@@ -12233,7 +12243,7 @@
       <c r="V444" s="29"/>
       <c r="W444" s="29"/>
     </row>
-    <row r="445" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="445" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C445" s="23"/>
       <c r="D445" s="23"/>
       <c r="E445" s="23"/>
@@ -12256,7 +12266,7 @@
       <c r="V445" s="29"/>
       <c r="W445" s="29"/>
     </row>
-    <row r="446" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="446" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C446" s="23"/>
       <c r="D446" s="23"/>
       <c r="E446" s="23"/>
@@ -12279,7 +12289,7 @@
       <c r="V446" s="29"/>
       <c r="W446" s="29"/>
     </row>
-    <row r="447" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="447" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C447" s="23"/>
       <c r="D447" s="23"/>
       <c r="E447" s="23"/>
@@ -12302,7 +12312,7 @@
       <c r="V447" s="29"/>
       <c r="W447" s="29"/>
     </row>
-    <row r="448" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="448" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C448" s="23"/>
       <c r="D448" s="23"/>
       <c r="E448" s="23"/>
@@ -12325,7 +12335,7 @@
       <c r="V448" s="29"/>
       <c r="W448" s="29"/>
     </row>
-    <row r="449" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="449" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C449" s="23"/>
       <c r="D449" s="23"/>
       <c r="E449" s="23"/>
@@ -12348,7 +12358,7 @@
       <c r="V449" s="29"/>
       <c r="W449" s="29"/>
     </row>
-    <row r="450" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="450" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C450" s="23"/>
       <c r="D450" s="23"/>
       <c r="E450" s="23"/>
@@ -12371,7 +12381,7 @@
       <c r="V450" s="29"/>
       <c r="W450" s="29"/>
     </row>
-    <row r="451" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="451" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C451" s="23"/>
       <c r="D451" s="23"/>
       <c r="E451" s="23"/>
@@ -12394,7 +12404,7 @@
       <c r="V451" s="29"/>
       <c r="W451" s="29"/>
     </row>
-    <row r="452" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="452" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C452" s="23"/>
       <c r="D452" s="23"/>
       <c r="E452" s="23"/>
@@ -12417,7 +12427,7 @@
       <c r="V452" s="29"/>
       <c r="W452" s="29"/>
     </row>
-    <row r="453" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="453" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C453" s="23"/>
       <c r="D453" s="23"/>
       <c r="E453" s="23"/>
@@ -12440,7 +12450,7 @@
       <c r="V453" s="29"/>
       <c r="W453" s="29"/>
     </row>
-    <row r="454" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="454" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C454" s="23"/>
       <c r="D454" s="23"/>
       <c r="E454" s="23"/>
@@ -12463,7 +12473,7 @@
       <c r="V454" s="29"/>
       <c r="W454" s="29"/>
     </row>
-    <row r="455" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="455" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C455" s="23"/>
       <c r="D455" s="23"/>
       <c r="E455" s="23"/>
@@ -12486,7 +12496,7 @@
       <c r="V455" s="29"/>
       <c r="W455" s="29"/>
     </row>
-    <row r="456" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="456" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C456" s="23"/>
       <c r="D456" s="23"/>
       <c r="E456" s="23"/>
@@ -12509,7 +12519,7 @@
       <c r="V456" s="29"/>
       <c r="W456" s="29"/>
     </row>
-    <row r="457" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="457" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C457" s="23"/>
       <c r="D457" s="23"/>
       <c r="E457" s="23"/>
@@ -12532,7 +12542,7 @@
       <c r="V457" s="29"/>
       <c r="W457" s="29"/>
     </row>
-    <row r="458" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="458" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C458" s="23"/>
       <c r="D458" s="23"/>
       <c r="E458" s="23"/>
@@ -12555,7 +12565,7 @@
       <c r="V458" s="29"/>
       <c r="W458" s="29"/>
     </row>
-    <row r="459" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="459" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C459" s="23"/>
       <c r="D459" s="23"/>
       <c r="E459" s="23"/>
@@ -12578,7 +12588,7 @@
       <c r="V459" s="29"/>
       <c r="W459" s="29"/>
     </row>
-    <row r="460" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="460" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C460" s="23"/>
       <c r="D460" s="23"/>
       <c r="E460" s="23"/>
@@ -12601,7 +12611,7 @@
       <c r="V460" s="29"/>
       <c r="W460" s="29"/>
     </row>
-    <row r="461" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="461" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C461" s="23"/>
       <c r="D461" s="23"/>
       <c r="E461" s="23"/>
@@ -12624,7 +12634,7 @@
       <c r="V461" s="29"/>
       <c r="W461" s="29"/>
     </row>
-    <row r="462" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="462" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C462" s="23"/>
       <c r="D462" s="23"/>
       <c r="E462" s="23"/>
@@ -12647,7 +12657,7 @@
       <c r="V462" s="29"/>
       <c r="W462" s="29"/>
     </row>
-    <row r="463" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="463" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C463" s="23"/>
       <c r="D463" s="23"/>
       <c r="E463" s="23"/>
@@ -12670,7 +12680,7 @@
       <c r="V463" s="29"/>
       <c r="W463" s="29"/>
     </row>
-    <row r="464" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="464" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C464" s="23"/>
       <c r="D464" s="23"/>
       <c r="E464" s="23"/>
@@ -12693,7 +12703,7 @@
       <c r="V464" s="29"/>
       <c r="W464" s="29"/>
     </row>
-    <row r="465" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="465" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C465" s="23"/>
       <c r="D465" s="23"/>
       <c r="E465" s="23"/>
@@ -12716,7 +12726,7 @@
       <c r="V465" s="29"/>
       <c r="W465" s="29"/>
     </row>
-    <row r="466" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="466" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C466" s="23"/>
       <c r="D466" s="23"/>
       <c r="E466" s="23"/>
@@ -12739,7 +12749,7 @@
       <c r="V466" s="29"/>
       <c r="W466" s="29"/>
     </row>
-    <row r="467" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="467" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C467" s="23"/>
       <c r="D467" s="23"/>
       <c r="E467" s="23"/>
@@ -12762,7 +12772,7 @@
       <c r="V467" s="29"/>
       <c r="W467" s="29"/>
     </row>
-    <row r="468" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="468" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C468" s="23"/>
       <c r="D468" s="23"/>
       <c r="E468" s="23"/>
@@ -12785,7 +12795,7 @@
       <c r="V468" s="29"/>
       <c r="W468" s="29"/>
     </row>
-    <row r="469" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="469" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C469" s="23"/>
       <c r="D469" s="23"/>
       <c r="E469" s="23"/>
@@ -12808,7 +12818,7 @@
       <c r="V469" s="29"/>
       <c r="W469" s="29"/>
     </row>
-    <row r="470" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="470" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C470" s="23"/>
       <c r="D470" s="23"/>
       <c r="E470" s="23"/>
@@ -12831,7 +12841,7 @@
       <c r="V470" s="29"/>
       <c r="W470" s="29"/>
     </row>
-    <row r="471" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="471" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C471" s="23"/>
       <c r="D471" s="23"/>
       <c r="E471" s="23"/>
@@ -12854,7 +12864,7 @@
       <c r="V471" s="29"/>
       <c r="W471" s="29"/>
     </row>
-    <row r="472" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="472" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C472" s="23"/>
       <c r="D472" s="23"/>
       <c r="E472" s="23"/>
@@ -12877,7 +12887,7 @@
       <c r="V472" s="29"/>
       <c r="W472" s="29"/>
     </row>
-    <row r="473" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="473" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C473" s="23"/>
       <c r="D473" s="23"/>
       <c r="E473" s="23"/>
@@ -12900,7 +12910,7 @@
       <c r="V473" s="29"/>
       <c r="W473" s="29"/>
     </row>
-    <row r="474" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="474" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C474" s="23"/>
       <c r="D474" s="23"/>
       <c r="E474" s="23"/>
@@ -12923,7 +12933,7 @@
       <c r="V474" s="29"/>
       <c r="W474" s="29"/>
     </row>
-    <row r="475" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="475" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C475" s="23"/>
       <c r="D475" s="23"/>
       <c r="E475" s="23"/>
@@ -12946,7 +12956,7 @@
       <c r="V475" s="29"/>
       <c r="W475" s="29"/>
     </row>
-    <row r="476" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="476" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C476" s="23"/>
       <c r="D476" s="23"/>
       <c r="E476" s="23"/>
@@ -12969,7 +12979,7 @@
       <c r="V476" s="29"/>
       <c r="W476" s="29"/>
     </row>
-    <row r="477" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="477" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C477" s="23"/>
       <c r="D477" s="23"/>
       <c r="E477" s="23"/>
@@ -12992,7 +13002,7 @@
       <c r="V477" s="29"/>
       <c r="W477" s="29"/>
     </row>
-    <row r="478" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="478" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C478" s="23"/>
       <c r="D478" s="23"/>
       <c r="E478" s="23"/>
@@ -13015,7 +13025,7 @@
       <c r="V478" s="29"/>
       <c r="W478" s="29"/>
     </row>
-    <row r="479" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="479" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C479" s="23"/>
       <c r="D479" s="23"/>
       <c r="E479" s="23"/>
@@ -13038,7 +13048,7 @@
       <c r="V479" s="29"/>
       <c r="W479" s="29"/>
     </row>
-    <row r="480" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="480" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C480" s="23"/>
       <c r="D480" s="23"/>
       <c r="E480" s="23"/>
@@ -13061,7 +13071,7 @@
       <c r="V480" s="29"/>
       <c r="W480" s="29"/>
     </row>
-    <row r="481" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="481" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C481" s="23"/>
       <c r="D481" s="23"/>
       <c r="E481" s="23"/>
@@ -13084,7 +13094,7 @@
       <c r="V481" s="29"/>
       <c r="W481" s="29"/>
     </row>
-    <row r="482" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="482" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C482" s="23"/>
       <c r="D482" s="23"/>
       <c r="E482" s="23"/>
@@ -13107,7 +13117,7 @@
       <c r="V482" s="29"/>
       <c r="W482" s="29"/>
     </row>
-    <row r="483" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="483" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C483" s="23"/>
       <c r="D483" s="23"/>
       <c r="E483" s="23"/>
@@ -13130,7 +13140,7 @@
       <c r="V483" s="29"/>
       <c r="W483" s="29"/>
     </row>
-    <row r="484" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="484" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C484" s="23"/>
       <c r="D484" s="23"/>
       <c r="E484" s="23"/>
@@ -13153,7 +13163,7 @@
       <c r="V484" s="29"/>
       <c r="W484" s="29"/>
     </row>
-    <row r="485" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="485" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C485" s="23"/>
       <c r="D485" s="23"/>
       <c r="E485" s="23"/>
@@ -13176,7 +13186,7 @@
       <c r="V485" s="29"/>
       <c r="W485" s="29"/>
     </row>
-    <row r="486" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="486" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C486" s="23"/>
       <c r="D486" s="23"/>
       <c r="E486" s="23"/>
@@ -13199,7 +13209,7 @@
       <c r="V486" s="29"/>
       <c r="W486" s="29"/>
     </row>
-    <row r="487" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="487" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C487" s="23"/>
       <c r="D487" s="23"/>
       <c r="E487" s="23"/>
@@ -13222,7 +13232,7 @@
       <c r="V487" s="29"/>
       <c r="W487" s="29"/>
     </row>
-    <row r="488" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="488" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C488" s="23"/>
       <c r="D488" s="23"/>
       <c r="E488" s="23"/>
@@ -13245,7 +13255,7 @@
       <c r="V488" s="29"/>
       <c r="W488" s="29"/>
     </row>
-    <row r="489" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="489" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C489" s="23"/>
       <c r="D489" s="23"/>
       <c r="E489" s="23"/>
@@ -13268,7 +13278,7 @@
       <c r="V489" s="29"/>
       <c r="W489" s="29"/>
     </row>
-    <row r="490" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="490" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C490" s="23"/>
       <c r="D490" s="23"/>
       <c r="E490" s="23"/>
@@ -13291,7 +13301,7 @@
       <c r="V490" s="29"/>
       <c r="W490" s="29"/>
     </row>
-    <row r="491" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="491" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C491" s="23"/>
       <c r="D491" s="23"/>
       <c r="E491" s="23"/>
@@ -13314,7 +13324,7 @@
       <c r="V491" s="29"/>
       <c r="W491" s="29"/>
     </row>
-    <row r="492" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="492" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C492" s="23"/>
       <c r="D492" s="23"/>
       <c r="E492" s="23"/>
@@ -13337,7 +13347,7 @@
       <c r="V492" s="29"/>
       <c r="W492" s="29"/>
     </row>
-    <row r="493" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="493" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C493" s="23"/>
       <c r="D493" s="23"/>
       <c r="E493" s="23"/>
@@ -13360,7 +13370,7 @@
       <c r="V493" s="29"/>
       <c r="W493" s="29"/>
     </row>
-    <row r="494" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="494" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C494" s="23"/>
       <c r="D494" s="23"/>
       <c r="E494" s="23"/>
@@ -13383,7 +13393,7 @@
       <c r="V494" s="29"/>
       <c r="W494" s="29"/>
     </row>
-    <row r="495" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="495" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C495" s="23"/>
       <c r="D495" s="23"/>
       <c r="E495" s="23"/>
@@ -13406,7 +13416,7 @@
       <c r="V495" s="29"/>
       <c r="W495" s="29"/>
     </row>
-    <row r="496" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="496" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C496" s="23"/>
       <c r="D496" s="23"/>
       <c r="E496" s="23"/>
@@ -13429,7 +13439,7 @@
       <c r="V496" s="29"/>
       <c r="W496" s="29"/>
     </row>
-    <row r="497" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="497" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C497" s="23"/>
       <c r="D497" s="23"/>
       <c r="E497" s="23"/>
@@ -13452,7 +13462,7 @@
       <c r="V497" s="29"/>
       <c r="W497" s="29"/>
     </row>
-    <row r="498" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="498" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C498" s="23"/>
       <c r="D498" s="23"/>
       <c r="E498" s="23"/>
@@ -13475,7 +13485,7 @@
       <c r="V498" s="29"/>
       <c r="W498" s="29"/>
     </row>
-    <row r="499" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="499" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C499" s="23"/>
       <c r="D499" s="23"/>
       <c r="E499" s="23"/>
@@ -13498,7 +13508,7 @@
       <c r="V499" s="29"/>
       <c r="W499" s="29"/>
     </row>
-    <row r="500" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="500" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C500" s="23"/>
       <c r="D500" s="23"/>
       <c r="E500" s="23"/>
@@ -13521,7 +13531,7 @@
       <c r="V500" s="29"/>
       <c r="W500" s="29"/>
     </row>
-    <row r="501" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="501" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C501" s="23"/>
       <c r="D501" s="23"/>
       <c r="E501" s="23"/>
@@ -13544,7 +13554,7 @@
       <c r="V501" s="29"/>
       <c r="W501" s="29"/>
     </row>
-    <row r="502" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="502" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C502" s="23"/>
       <c r="D502" s="23"/>
       <c r="E502" s="23"/>
@@ -13567,7 +13577,7 @@
       <c r="V502" s="29"/>
       <c r="W502" s="29"/>
     </row>
-    <row r="503" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="503" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C503" s="23"/>
       <c r="D503" s="23"/>
       <c r="E503" s="23"/>
@@ -13590,7 +13600,7 @@
       <c r="V503" s="29"/>
       <c r="W503" s="29"/>
     </row>
-    <row r="504" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="504" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C504" s="23"/>
       <c r="D504" s="23"/>
       <c r="E504" s="23"/>
@@ -13613,7 +13623,7 @@
       <c r="V504" s="29"/>
       <c r="W504" s="29"/>
     </row>
-    <row r="505" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="505" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C505" s="23"/>
       <c r="D505" s="23"/>
       <c r="E505" s="23"/>
@@ -13636,7 +13646,7 @@
       <c r="V505" s="29"/>
       <c r="W505" s="29"/>
     </row>
-    <row r="506" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="506" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C506" s="23"/>
       <c r="D506" s="23"/>
       <c r="E506" s="23"/>
@@ -13659,7 +13669,7 @@
       <c r="V506" s="29"/>
       <c r="W506" s="29"/>
     </row>
-    <row r="507" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="507" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C507" s="23"/>
       <c r="D507" s="23"/>
       <c r="E507" s="23"/>
@@ -13682,7 +13692,7 @@
       <c r="V507" s="29"/>
       <c r="W507" s="29"/>
     </row>
-    <row r="508" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="508" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C508" s="23"/>
       <c r="D508" s="23"/>
       <c r="E508" s="23"/>
@@ -13705,7 +13715,7 @@
       <c r="V508" s="29"/>
       <c r="W508" s="29"/>
     </row>
-    <row r="509" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="509" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C509" s="23"/>
       <c r="D509" s="23"/>
       <c r="E509" s="23"/>
@@ -13728,7 +13738,7 @@
       <c r="V509" s="29"/>
       <c r="W509" s="29"/>
     </row>
-    <row r="510" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="510" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C510" s="23"/>
       <c r="D510" s="23"/>
       <c r="E510" s="23"/>
@@ -13751,7 +13761,7 @@
       <c r="V510" s="29"/>
       <c r="W510" s="29"/>
     </row>
-    <row r="511" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="511" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C511" s="23"/>
       <c r="D511" s="23"/>
       <c r="E511" s="23"/>
@@ -13774,7 +13784,7 @@
       <c r="V511" s="29"/>
       <c r="W511" s="29"/>
     </row>
-    <row r="512" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="512" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C512" s="23"/>
       <c r="D512" s="23"/>
       <c r="E512" s="23"/>
@@ -13797,7 +13807,7 @@
       <c r="V512" s="29"/>
       <c r="W512" s="29"/>
     </row>
-    <row r="513" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="513" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C513" s="23"/>
       <c r="D513" s="23"/>
       <c r="E513" s="23"/>
@@ -13820,7 +13830,7 @@
       <c r="V513" s="29"/>
       <c r="W513" s="29"/>
     </row>
-    <row r="514" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="514" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C514" s="23"/>
       <c r="D514" s="23"/>
       <c r="E514" s="23"/>
@@ -13843,7 +13853,7 @@
       <c r="V514" s="29"/>
       <c r="W514" s="29"/>
     </row>
-    <row r="515" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="515" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C515" s="23"/>
       <c r="D515" s="23"/>
       <c r="E515" s="23"/>
@@ -13866,7 +13876,7 @@
       <c r="V515" s="29"/>
       <c r="W515" s="29"/>
     </row>
-    <row r="516" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="516" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C516" s="23"/>
       <c r="D516" s="23"/>
       <c r="E516" s="23"/>
@@ -13889,7 +13899,7 @@
       <c r="V516" s="29"/>
       <c r="W516" s="29"/>
     </row>
-    <row r="517" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="517" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C517" s="23"/>
       <c r="D517" s="23"/>
       <c r="E517" s="23"/>
@@ -13912,7 +13922,7 @@
       <c r="V517" s="29"/>
       <c r="W517" s="29"/>
     </row>
-    <row r="518" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="518" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C518" s="23"/>
       <c r="D518" s="23"/>
       <c r="E518" s="23"/>
@@ -13935,7 +13945,7 @@
       <c r="V518" s="29"/>
       <c r="W518" s="29"/>
     </row>
-    <row r="519" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="519" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C519" s="23"/>
       <c r="D519" s="23"/>
       <c r="E519" s="23"/>
@@ -13958,7 +13968,7 @@
       <c r="V519" s="29"/>
       <c r="W519" s="29"/>
     </row>
-    <row r="520" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="520" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C520" s="23"/>
       <c r="D520" s="23"/>
       <c r="E520" s="23"/>
@@ -13981,7 +13991,7 @@
       <c r="V520" s="29"/>
       <c r="W520" s="29"/>
     </row>
-    <row r="521" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="521" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C521" s="23"/>
       <c r="D521" s="23"/>
       <c r="E521" s="23"/>
@@ -14004,7 +14014,7 @@
       <c r="V521" s="29"/>
       <c r="W521" s="29"/>
     </row>
-    <row r="522" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="522" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C522" s="23"/>
       <c r="D522" s="23"/>
       <c r="E522" s="23"/>
@@ -14027,7 +14037,7 @@
       <c r="V522" s="29"/>
       <c r="W522" s="29"/>
     </row>
-    <row r="523" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="523" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C523" s="23"/>
       <c r="D523" s="23"/>
       <c r="E523" s="23"/>
@@ -14050,7 +14060,7 @@
       <c r="V523" s="29"/>
       <c r="W523" s="29"/>
     </row>
-    <row r="524" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="524" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C524" s="23"/>
       <c r="D524" s="23"/>
       <c r="E524" s="23"/>
@@ -14073,7 +14083,7 @@
       <c r="V524" s="29"/>
       <c r="W524" s="29"/>
     </row>
-    <row r="525" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="525" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C525" s="23"/>
       <c r="D525" s="23"/>
       <c r="E525" s="23"/>
@@ -14096,7 +14106,7 @@
       <c r="V525" s="29"/>
       <c r="W525" s="29"/>
     </row>
-    <row r="526" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="526" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C526" s="23"/>
       <c r="D526" s="23"/>
       <c r="E526" s="23"/>
@@ -14119,7 +14129,7 @@
       <c r="V526" s="29"/>
       <c r="W526" s="29"/>
     </row>
-    <row r="527" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="527" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C527" s="23"/>
       <c r="D527" s="23"/>
       <c r="E527" s="23"/>
@@ -14142,7 +14152,7 @@
       <c r="V527" s="29"/>
       <c r="W527" s="29"/>
     </row>
-    <row r="528" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="528" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C528" s="23"/>
       <c r="D528" s="23"/>
       <c r="E528" s="23"/>
@@ -14165,7 +14175,7 @@
       <c r="V528" s="29"/>
       <c r="W528" s="29"/>
     </row>
-    <row r="529" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C529" s="23"/>
       <c r="D529" s="23"/>
       <c r="E529" s="23"/>
@@ -14188,7 +14198,7 @@
       <c r="V529" s="29"/>
       <c r="W529" s="29"/>
     </row>
-    <row r="530" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C530" s="23"/>
       <c r="D530" s="23"/>
       <c r="E530" s="23"/>
@@ -14211,7 +14221,7 @@
       <c r="V530" s="29"/>
       <c r="W530" s="29"/>
     </row>
-    <row r="531" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C531" s="23"/>
       <c r="D531" s="23"/>
       <c r="E531" s="23"/>
@@ -14234,7 +14244,7 @@
       <c r="V531" s="29"/>
       <c r="W531" s="29"/>
     </row>
-    <row r="532" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C532" s="23"/>
       <c r="D532" s="23"/>
       <c r="E532" s="23"/>
@@ -14257,7 +14267,7 @@
       <c r="V532" s="29"/>
       <c r="W532" s="29"/>
     </row>
-    <row r="533" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C533" s="23"/>
       <c r="D533" s="23"/>
       <c r="E533" s="23"/>
@@ -14280,7 +14290,7 @@
       <c r="V533" s="29"/>
       <c r="W533" s="29"/>
     </row>
-    <row r="534" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C534" s="23"/>
       <c r="D534" s="23"/>
       <c r="E534" s="23"/>
@@ -14303,7 +14313,7 @@
       <c r="V534" s="29"/>
       <c r="W534" s="29"/>
     </row>
-    <row r="535" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C535" s="23"/>
       <c r="D535" s="23"/>
       <c r="E535" s="23"/>
@@ -14326,7 +14336,7 @@
       <c r="V535" s="29"/>
       <c r="W535" s="29"/>
     </row>
-    <row r="536" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C536" s="23"/>
       <c r="D536" s="23"/>
       <c r="E536" s="23"/>
@@ -14349,7 +14359,7 @@
       <c r="V536" s="29"/>
       <c r="W536" s="29"/>
     </row>
-    <row r="537" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C537" s="23"/>
       <c r="D537" s="23"/>
       <c r="E537" s="23"/>
@@ -14372,7 +14382,7 @@
       <c r="V537" s="29"/>
       <c r="W537" s="29"/>
     </row>
-    <row r="538" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C538" s="23"/>
       <c r="D538" s="23"/>
       <c r="E538" s="23"/>
@@ -14395,7 +14405,7 @@
       <c r="V538" s="29"/>
       <c r="W538" s="29"/>
     </row>
-    <row r="539" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C539" s="23"/>
       <c r="D539" s="23"/>
       <c r="E539" s="23"/>
@@ -14418,7 +14428,7 @@
       <c r="V539" s="29"/>
       <c r="W539" s="29"/>
     </row>
-    <row r="540" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C540" s="23"/>
       <c r="D540" s="23"/>
       <c r="E540" s="23"/>
@@ -14441,7 +14451,7 @@
       <c r="V540" s="29"/>
       <c r="W540" s="29"/>
     </row>
-    <row r="541" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C541" s="23"/>
       <c r="D541" s="23"/>
       <c r="E541" s="23"/>
@@ -14464,7 +14474,7 @@
       <c r="V541" s="29"/>
       <c r="W541" s="29"/>
     </row>
-    <row r="542" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C542" s="23"/>
       <c r="D542" s="23"/>
       <c r="E542" s="23"/>
@@ -14487,7 +14497,7 @@
       <c r="V542" s="29"/>
       <c r="W542" s="29"/>
     </row>
-    <row r="543" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C543" s="23"/>
       <c r="D543" s="23"/>
       <c r="E543" s="23"/>
@@ -14510,7 +14520,7 @@
       <c r="V543" s="29"/>
       <c r="W543" s="29"/>
     </row>
-    <row r="544" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C544" s="23"/>
       <c r="D544" s="23"/>
       <c r="E544" s="23"/>
@@ -14533,7 +14543,7 @@
       <c r="V544" s="29"/>
       <c r="W544" s="29"/>
     </row>
-    <row r="545" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C545" s="23"/>
       <c r="D545" s="23"/>
       <c r="E545" s="23"/>
@@ -14556,7 +14566,7 @@
       <c r="V545" s="29"/>
       <c r="W545" s="29"/>
     </row>
-    <row r="546" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C546" s="23"/>
       <c r="D546" s="23"/>
       <c r="E546" s="23"/>
@@ -14579,7 +14589,7 @@
       <c r="V546" s="29"/>
       <c r="W546" s="29"/>
     </row>
-    <row r="547" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C547" s="23"/>
       <c r="D547" s="23"/>
       <c r="E547" s="23"/>
@@ -14602,7 +14612,7 @@
       <c r="V547" s="29"/>
       <c r="W547" s="29"/>
     </row>
-    <row r="548" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C548" s="23"/>
       <c r="D548" s="23"/>
       <c r="E548" s="23"/>
@@ -14625,7 +14635,7 @@
       <c r="V548" s="29"/>
       <c r="W548" s="29"/>
     </row>
-    <row r="549" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C549" s="23"/>
       <c r="D549" s="23"/>
       <c r="E549" s="23"/>
@@ -14648,7 +14658,7 @@
       <c r="V549" s="29"/>
       <c r="W549" s="29"/>
     </row>
-    <row r="550" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C550" s="23"/>
       <c r="D550" s="23"/>
       <c r="E550" s="23"/>
@@ -14671,7 +14681,7 @@
       <c r="V550" s="29"/>
       <c r="W550" s="29"/>
     </row>
-    <row r="551" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C551" s="23"/>
       <c r="D551" s="23"/>
       <c r="E551" s="23"/>
@@ -14694,7 +14704,7 @@
       <c r="V551" s="29"/>
       <c r="W551" s="29"/>
     </row>
-    <row r="552" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C552" s="23"/>
       <c r="D552" s="23"/>
       <c r="E552" s="23"/>
@@ -14717,7 +14727,7 @@
       <c r="V552" s="29"/>
       <c r="W552" s="29"/>
     </row>
-    <row r="553" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C553" s="23"/>
       <c r="D553" s="23"/>
       <c r="E553" s="23"/>
@@ -14740,7 +14750,7 @@
       <c r="V553" s="29"/>
       <c r="W553" s="29"/>
     </row>
-    <row r="554" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C554" s="23"/>
       <c r="D554" s="23"/>
       <c r="E554" s="23"/>
@@ -14763,7 +14773,7 @@
       <c r="V554" s="29"/>
       <c r="W554" s="29"/>
     </row>
-    <row r="555" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C555" s="23"/>
       <c r="D555" s="23"/>
       <c r="E555" s="23"/>
@@ -14786,7 +14796,7 @@
       <c r="V555" s="29"/>
       <c r="W555" s="29"/>
     </row>
-    <row r="556" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C556" s="23"/>
       <c r="D556" s="23"/>
       <c r="E556" s="23"/>
@@ -14809,7 +14819,7 @@
       <c r="V556" s="29"/>
       <c r="W556" s="29"/>
     </row>
-    <row r="557" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C557" s="23"/>
       <c r="D557" s="23"/>
       <c r="E557" s="23"/>
@@ -14832,7 +14842,7 @@
       <c r="V557" s="29"/>
       <c r="W557" s="29"/>
     </row>
-    <row r="558" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C558" s="23"/>
       <c r="D558" s="23"/>
       <c r="E558" s="23"/>
@@ -14855,7 +14865,7 @@
       <c r="V558" s="29"/>
       <c r="W558" s="29"/>
     </row>
-    <row r="559" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C559" s="23"/>
       <c r="D559" s="23"/>
       <c r="E559" s="23"/>
@@ -14878,7 +14888,7 @@
       <c r="V559" s="29"/>
       <c r="W559" s="29"/>
     </row>
-    <row r="560" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C560" s="23"/>
       <c r="D560" s="23"/>
       <c r="E560" s="23"/>
@@ -14901,7 +14911,7 @@
       <c r="V560" s="29"/>
       <c r="W560" s="29"/>
     </row>
-    <row r="561" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C561" s="23"/>
       <c r="D561" s="23"/>
       <c r="E561" s="23"/>
@@ -14924,7 +14934,7 @@
       <c r="V561" s="29"/>
       <c r="W561" s="29"/>
     </row>
-    <row r="562" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C562" s="23"/>
       <c r="D562" s="23"/>
       <c r="E562" s="23"/>
@@ -14947,7 +14957,7 @@
       <c r="V562" s="29"/>
       <c r="W562" s="29"/>
     </row>
-    <row r="563" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C563" s="23"/>
       <c r="D563" s="23"/>
       <c r="E563" s="23"/>
@@ -14970,7 +14980,7 @@
       <c r="V563" s="29"/>
       <c r="W563" s="29"/>
     </row>
-    <row r="564" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C564" s="23"/>
       <c r="D564" s="23"/>
       <c r="E564" s="23"/>
@@ -14993,7 +15003,7 @@
       <c r="V564" s="29"/>
       <c r="W564" s="29"/>
     </row>
-    <row r="565" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C565" s="23"/>
       <c r="D565" s="23"/>
       <c r="E565" s="23"/>
@@ -15016,7 +15026,7 @@
       <c r="V565" s="29"/>
       <c r="W565" s="29"/>
     </row>
-    <row r="566" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C566" s="23"/>
       <c r="D566" s="23"/>
       <c r="E566" s="23"/>
@@ -15039,7 +15049,7 @@
       <c r="V566" s="29"/>
       <c r="W566" s="29"/>
     </row>
-    <row r="567" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C567" s="23"/>
       <c r="D567" s="23"/>
       <c r="E567" s="23"/>
@@ -15062,7 +15072,7 @@
       <c r="V567" s="29"/>
       <c r="W567" s="29"/>
     </row>
-    <row r="568" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C568" s="23"/>
       <c r="D568" s="23"/>
       <c r="E568" s="23"/>
@@ -15085,7 +15095,7 @@
       <c r="V568" s="29"/>
       <c r="W568" s="29"/>
     </row>
-    <row r="569" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C569" s="23"/>
       <c r="D569" s="23"/>
       <c r="E569" s="23"/>
@@ -15108,7 +15118,7 @@
       <c r="V569" s="29"/>
       <c r="W569" s="29"/>
     </row>
-    <row r="570" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C570" s="23"/>
       <c r="D570" s="23"/>
       <c r="E570" s="23"/>
@@ -15131,7 +15141,7 @@
       <c r="V570" s="29"/>
       <c r="W570" s="29"/>
     </row>
-    <row r="571" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C571" s="23"/>
       <c r="D571" s="23"/>
       <c r="E571" s="23"/>
@@ -15154,7 +15164,7 @@
       <c r="V571" s="29"/>
       <c r="W571" s="29"/>
     </row>
-    <row r="572" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C572" s="23"/>
       <c r="D572" s="23"/>
       <c r="E572" s="23"/>
@@ -15177,7 +15187,7 @@
       <c r="V572" s="29"/>
       <c r="W572" s="29"/>
     </row>
-    <row r="573" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C573" s="23"/>
       <c r="D573" s="23"/>
       <c r="E573" s="23"/>
@@ -15200,7 +15210,7 @@
       <c r="V573" s="29"/>
       <c r="W573" s="29"/>
     </row>
-    <row r="574" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C574" s="23"/>
       <c r="D574" s="23"/>
       <c r="E574" s="23"/>
@@ -15223,7 +15233,7 @@
       <c r="V574" s="29"/>
       <c r="W574" s="29"/>
     </row>
-    <row r="575" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C575" s="23"/>
       <c r="D575" s="23"/>
       <c r="E575" s="23"/>
@@ -15246,7 +15256,7 @@
       <c r="V575" s="29"/>
       <c r="W575" s="29"/>
     </row>
-    <row r="576" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C576" s="23"/>
       <c r="D576" s="23"/>
       <c r="E576" s="23"/>
@@ -15269,7 +15279,7 @@
       <c r="V576" s="29"/>
       <c r="W576" s="29"/>
     </row>
-    <row r="577" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C577" s="23"/>
       <c r="D577" s="23"/>
       <c r="E577" s="23"/>
@@ -15292,7 +15302,7 @@
       <c r="V577" s="29"/>
       <c r="W577" s="29"/>
     </row>
-    <row r="578" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C578" s="23"/>
       <c r="D578" s="23"/>
       <c r="E578" s="23"/>
@@ -15315,7 +15325,7 @@
       <c r="V578" s="29"/>
       <c r="W578" s="29"/>
     </row>
-    <row r="579" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C579" s="23"/>
       <c r="D579" s="23"/>
       <c r="E579" s="23"/>
@@ -15338,7 +15348,7 @@
       <c r="V579" s="29"/>
       <c r="W579" s="29"/>
     </row>
-    <row r="580" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C580" s="23"/>
       <c r="D580" s="23"/>
       <c r="E580" s="23"/>
@@ -15361,7 +15371,7 @@
       <c r="V580" s="29"/>
       <c r="W580" s="29"/>
     </row>
-    <row r="581" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C581" s="23"/>
       <c r="D581" s="23"/>
       <c r="E581" s="23"/>
@@ -15384,7 +15394,7 @@
       <c r="V581" s="29"/>
       <c r="W581" s="29"/>
     </row>
-    <row r="582" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C582" s="23"/>
       <c r="D582" s="23"/>
       <c r="E582" s="23"/>
@@ -15407,7 +15417,7 @@
       <c r="V582" s="29"/>
       <c r="W582" s="29"/>
     </row>
-    <row r="583" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C583" s="23"/>
       <c r="D583" s="23"/>
       <c r="E583" s="23"/>
@@ -15430,7 +15440,7 @@
       <c r="V583" s="29"/>
       <c r="W583" s="29"/>
     </row>
-    <row r="584" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C584" s="23"/>
       <c r="D584" s="23"/>
       <c r="E584" s="23"/>
@@ -15453,7 +15463,7 @@
       <c r="V584" s="29"/>
       <c r="W584" s="29"/>
     </row>
-    <row r="585" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C585" s="23"/>
       <c r="D585" s="23"/>
       <c r="E585" s="23"/>
@@ -15476,7 +15486,7 @@
       <c r="V585" s="29"/>
       <c r="W585" s="29"/>
     </row>
-    <row r="586" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C586" s="23"/>
       <c r="D586" s="23"/>
       <c r="E586" s="23"/>
@@ -15499,7 +15509,7 @@
       <c r="V586" s="29"/>
       <c r="W586" s="29"/>
     </row>
-    <row r="587" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C587" s="23"/>
       <c r="D587" s="23"/>
       <c r="E587" s="23"/>
@@ -15522,7 +15532,7 @@
       <c r="V587" s="29"/>
       <c r="W587" s="29"/>
     </row>
-    <row r="588" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C588" s="23"/>
       <c r="D588" s="23"/>
       <c r="E588" s="23"/>
@@ -15545,7 +15555,7 @@
       <c r="V588" s="29"/>
       <c r="W588" s="29"/>
     </row>
-    <row r="589" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C589" s="23"/>
       <c r="D589" s="23"/>
       <c r="E589" s="23"/>
@@ -15568,7 +15578,7 @@
       <c r="V589" s="29"/>
       <c r="W589" s="29"/>
     </row>
-    <row r="590" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C590" s="23"/>
       <c r="D590" s="23"/>
       <c r="E590" s="23"/>
@@ -15591,7 +15601,7 @@
       <c r="V590" s="29"/>
       <c r="W590" s="29"/>
     </row>
-    <row r="591" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C591" s="23"/>
       <c r="D591" s="23"/>
       <c r="E591" s="23"/>
@@ -15614,7 +15624,7 @@
       <c r="V591" s="29"/>
       <c r="W591" s="29"/>
     </row>
-    <row r="592" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C592" s="23"/>
       <c r="D592" s="23"/>
       <c r="E592" s="23"/>
@@ -15637,7 +15647,7 @@
       <c r="V592" s="29"/>
       <c r="W592" s="29"/>
     </row>
-    <row r="593" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C593" s="23"/>
       <c r="D593" s="23"/>
       <c r="E593" s="23"/>
@@ -15660,7 +15670,7 @@
       <c r="V593" s="29"/>
       <c r="W593" s="29"/>
     </row>
-    <row r="594" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C594" s="23"/>
       <c r="D594" s="23"/>
       <c r="E594" s="23"/>
@@ -15683,7 +15693,7 @@
       <c r="V594" s="29"/>
       <c r="W594" s="29"/>
     </row>
-    <row r="595" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C595" s="23"/>
       <c r="D595" s="23"/>
       <c r="E595" s="23"/>
@@ -15706,7 +15716,7 @@
       <c r="V595" s="29"/>
       <c r="W595" s="29"/>
     </row>
-    <row r="596" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C596" s="23"/>
       <c r="D596" s="23"/>
       <c r="E596" s="23"/>
@@ -15729,7 +15739,7 @@
       <c r="V596" s="29"/>
       <c r="W596" s="29"/>
     </row>
-    <row r="597" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C597" s="23"/>
       <c r="D597" s="23"/>
       <c r="E597" s="23"/>
@@ -15752,7 +15762,7 @@
       <c r="V597" s="29"/>
       <c r="W597" s="29"/>
     </row>
-    <row r="598" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C598" s="23"/>
       <c r="D598" s="23"/>
       <c r="E598" s="23"/>
@@ -15775,7 +15785,7 @@
       <c r="V598" s="29"/>
       <c r="W598" s="29"/>
     </row>
-    <row r="599" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C599" s="23"/>
       <c r="D599" s="23"/>
       <c r="E599" s="23"/>
@@ -15798,7 +15808,7 @@
       <c r="V599" s="29"/>
       <c r="W599" s="29"/>
     </row>
-    <row r="600" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C600" s="23"/>
       <c r="D600" s="23"/>
       <c r="E600" s="23"/>
@@ -15821,7 +15831,7 @@
       <c r="V600" s="29"/>
       <c r="W600" s="29"/>
     </row>
-    <row r="601" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C601" s="23"/>
       <c r="D601" s="23"/>
       <c r="E601" s="23"/>
@@ -15844,7 +15854,7 @@
       <c r="V601" s="29"/>
       <c r="W601" s="29"/>
     </row>
-    <row r="602" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C602" s="23"/>
       <c r="D602" s="23"/>
       <c r="E602" s="23"/>
@@ -15867,7 +15877,7 @@
       <c r="V602" s="29"/>
       <c r="W602" s="29"/>
     </row>
-    <row r="603" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C603" s="23"/>
       <c r="D603" s="23"/>
       <c r="E603" s="23"/>
@@ -15890,7 +15900,7 @@
       <c r="V603" s="29"/>
       <c r="W603" s="29"/>
     </row>
-    <row r="604" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C604" s="23"/>
       <c r="D604" s="23"/>
       <c r="E604" s="23"/>
@@ -15913,7 +15923,7 @@
       <c r="V604" s="29"/>
       <c r="W604" s="29"/>
     </row>
-    <row r="605" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C605" s="23"/>
       <c r="D605" s="23"/>
       <c r="E605" s="23"/>
@@ -15936,7 +15946,7 @@
       <c r="V605" s="29"/>
       <c r="W605" s="29"/>
     </row>
-    <row r="606" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C606" s="23"/>
       <c r="D606" s="23"/>
       <c r="E606" s="23"/>
@@ -15959,7 +15969,7 @@
       <c r="V606" s="29"/>
       <c r="W606" s="29"/>
     </row>
-    <row r="607" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C607" s="23"/>
       <c r="D607" s="23"/>
       <c r="E607" s="23"/>
@@ -15982,7 +15992,7 @@
       <c r="V607" s="29"/>
       <c r="W607" s="29"/>
     </row>
-    <row r="608" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C608" s="23"/>
       <c r="D608" s="23"/>
       <c r="E608" s="23"/>
@@ -16005,7 +16015,7 @@
       <c r="V608" s="29"/>
       <c r="W608" s="29"/>
     </row>
-    <row r="609" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C609" s="23"/>
       <c r="D609" s="23"/>
       <c r="E609" s="23"/>
@@ -16028,7 +16038,7 @@
       <c r="V609" s="29"/>
       <c r="W609" s="29"/>
     </row>
-    <row r="610" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C610" s="23"/>
       <c r="D610" s="23"/>
       <c r="E610" s="23"/>
@@ -16051,7 +16061,7 @@
       <c r="V610" s="29"/>
       <c r="W610" s="29"/>
     </row>
-    <row r="611" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C611" s="23"/>
       <c r="D611" s="23"/>
       <c r="E611" s="23"/>
@@ -16074,7 +16084,7 @@
       <c r="V611" s="29"/>
       <c r="W611" s="29"/>
     </row>
-    <row r="612" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C612" s="23"/>
       <c r="D612" s="23"/>
       <c r="E612" s="23"/>
@@ -16097,7 +16107,7 @@
       <c r="V612" s="29"/>
       <c r="W612" s="29"/>
     </row>
-    <row r="613" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C613" s="23"/>
       <c r="D613" s="23"/>
       <c r="E613" s="23"/>
@@ -16120,7 +16130,7 @@
       <c r="V613" s="29"/>
       <c r="W613" s="29"/>
     </row>
-    <row r="614" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="614" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C614" s="23"/>
       <c r="D614" s="23"/>
       <c r="E614" s="23"/>
@@ -16143,7 +16153,7 @@
       <c r="V614" s="29"/>
       <c r="W614" s="29"/>
     </row>
-    <row r="615" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="615" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C615" s="23"/>
       <c r="D615" s="23"/>
       <c r="E615" s="23"/>
@@ -16166,7 +16176,7 @@
       <c r="V615" s="29"/>
       <c r="W615" s="29"/>
     </row>
-    <row r="616" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="616" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C616" s="23"/>
       <c r="D616" s="23"/>
       <c r="E616" s="23"/>
@@ -16189,7 +16199,7 @@
       <c r="V616" s="29"/>
       <c r="W616" s="29"/>
     </row>
-    <row r="617" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="617" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C617" s="23"/>
       <c r="D617" s="23"/>
       <c r="E617" s="23"/>
@@ -16212,7 +16222,7 @@
       <c r="V617" s="29"/>
       <c r="W617" s="29"/>
     </row>
-    <row r="618" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="618" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C618" s="23"/>
       <c r="D618" s="23"/>
       <c r="E618" s="23"/>
@@ -16235,7 +16245,7 @@
       <c r="V618" s="29"/>
       <c r="W618" s="29"/>
     </row>
-    <row r="619" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="619" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C619" s="23"/>
       <c r="D619" s="23"/>
       <c r="E619" s="23"/>
@@ -16258,7 +16268,7 @@
       <c r="V619" s="29"/>
       <c r="W619" s="29"/>
     </row>
-    <row r="620" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="620" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C620" s="23"/>
       <c r="D620" s="23"/>
       <c r="E620" s="23"/>
@@ -16281,7 +16291,7 @@
       <c r="V620" s="29"/>
       <c r="W620" s="29"/>
     </row>
-    <row r="621" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="621" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C621" s="23"/>
       <c r="D621" s="23"/>
       <c r="E621" s="23"/>
@@ -16304,7 +16314,7 @@
       <c r="V621" s="29"/>
       <c r="W621" s="29"/>
     </row>
-    <row r="622" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="622" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C622" s="23"/>
       <c r="D622" s="23"/>
       <c r="E622" s="23"/>
@@ -16327,7 +16337,7 @@
       <c r="V622" s="29"/>
       <c r="W622" s="29"/>
     </row>
-    <row r="623" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="623" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C623" s="23"/>
       <c r="D623" s="23"/>
       <c r="E623" s="23"/>
@@ -16350,7 +16360,7 @@
       <c r="V623" s="29"/>
       <c r="W623" s="29"/>
     </row>
-    <row r="624" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="624" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C624" s="23"/>
       <c r="D624" s="23"/>
       <c r="E624" s="23"/>
@@ -16373,7 +16383,7 @@
       <c r="V624" s="29"/>
       <c r="W624" s="29"/>
     </row>
-    <row r="625" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C625" s="23"/>
       <c r="D625" s="23"/>
       <c r="E625" s="23"/>
@@ -16396,7 +16406,7 @@
       <c r="V625" s="29"/>
       <c r="W625" s="29"/>
     </row>
-    <row r="626" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C626" s="23"/>
       <c r="D626" s="23"/>
       <c r="E626" s="23"/>
@@ -16419,7 +16429,7 @@
       <c r="V626" s="29"/>
       <c r="W626" s="29"/>
     </row>
-    <row r="627" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C627" s="23"/>
       <c r="D627" s="23"/>
       <c r="E627" s="23"/>
@@ -16442,7 +16452,7 @@
       <c r="V627" s="29"/>
       <c r="W627" s="29"/>
     </row>
-    <row r="628" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C628" s="23"/>
       <c r="D628" s="23"/>
       <c r="E628" s="23"/>
@@ -16465,7 +16475,7 @@
       <c r="V628" s="29"/>
       <c r="W628" s="29"/>
     </row>
-    <row r="629" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C629" s="23"/>
       <c r="D629" s="23"/>
       <c r="E629" s="23"/>
@@ -16488,7 +16498,7 @@
       <c r="V629" s="29"/>
       <c r="W629" s="29"/>
     </row>
-    <row r="630" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C630" s="23"/>
       <c r="D630" s="23"/>
       <c r="E630" s="23"/>
@@ -16511,7 +16521,7 @@
       <c r="V630" s="29"/>
       <c r="W630" s="29"/>
     </row>
-    <row r="631" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C631" s="23"/>
       <c r="D631" s="23"/>
       <c r="E631" s="23"/>
@@ -16534,7 +16544,7 @@
       <c r="V631" s="29"/>
       <c r="W631" s="29"/>
     </row>
-    <row r="632" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C632" s="23"/>
       <c r="D632" s="23"/>
       <c r="E632" s="23"/>
@@ -16557,7 +16567,7 @@
       <c r="V632" s="29"/>
       <c r="W632" s="29"/>
     </row>
-    <row r="633" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C633" s="23"/>
       <c r="D633" s="23"/>
       <c r="E633" s="23"/>
@@ -16580,7 +16590,7 @@
       <c r="V633" s="29"/>
       <c r="W633" s="29"/>
     </row>
-    <row r="634" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C634" s="23"/>
       <c r="D634" s="23"/>
       <c r="E634" s="23"/>
@@ -16603,7 +16613,7 @@
       <c r="V634" s="29"/>
       <c r="W634" s="29"/>
     </row>
-    <row r="635" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C635" s="23"/>
       <c r="D635" s="23"/>
       <c r="E635" s="23"/>
@@ -16626,7 +16636,7 @@
       <c r="V635" s="29"/>
       <c r="W635" s="29"/>
     </row>
-    <row r="636" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C636" s="23"/>
       <c r="D636" s="23"/>
       <c r="E636" s="23"/>
@@ -16649,7 +16659,7 @@
       <c r="V636" s="29"/>
       <c r="W636" s="29"/>
     </row>
-    <row r="637" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C637" s="23"/>
       <c r="D637" s="23"/>
       <c r="E637" s="23"/>
@@ -16672,7 +16682,7 @@
       <c r="V637" s="29"/>
       <c r="W637" s="29"/>
     </row>
-    <row r="638" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C638" s="23"/>
       <c r="D638" s="23"/>
       <c r="E638" s="23"/>
@@ -16695,7 +16705,7 @@
       <c r="V638" s="29"/>
       <c r="W638" s="29"/>
     </row>
-    <row r="639" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C639" s="23"/>
       <c r="D639" s="23"/>
       <c r="E639" s="23"/>
@@ -16718,7 +16728,7 @@
       <c r="V639" s="29"/>
       <c r="W639" s="29"/>
     </row>
-    <row r="640" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C640" s="23"/>
       <c r="D640" s="23"/>
       <c r="E640" s="23"/>
@@ -16741,7 +16751,7 @@
       <c r="V640" s="29"/>
       <c r="W640" s="29"/>
     </row>
-    <row r="641" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="641" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C641" s="23"/>
       <c r="D641" s="23"/>
       <c r="E641" s="23"/>
@@ -16764,7 +16774,7 @@
       <c r="V641" s="29"/>
       <c r="W641" s="29"/>
     </row>
-    <row r="642" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="642" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C642" s="23"/>
       <c r="D642" s="23"/>
       <c r="E642" s="23"/>
@@ -16787,7 +16797,7 @@
       <c r="V642" s="29"/>
       <c r="W642" s="29"/>
     </row>
-    <row r="643" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="643" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C643" s="23"/>
       <c r="D643" s="23"/>
       <c r="E643" s="23"/>
@@ -16810,7 +16820,7 @@
       <c r="V643" s="29"/>
       <c r="W643" s="29"/>
     </row>
-    <row r="644" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="644" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C644" s="23"/>
       <c r="D644" s="23"/>
       <c r="E644" s="23"/>
@@ -16833,7 +16843,7 @@
       <c r="V644" s="29"/>
       <c r="W644" s="29"/>
     </row>
-    <row r="645" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="645" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C645" s="23"/>
       <c r="D645" s="23"/>
       <c r="E645" s="23"/>
@@ -16856,7 +16866,7 @@
       <c r="V645" s="29"/>
       <c r="W645" s="29"/>
     </row>
-    <row r="646" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="646" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C646" s="23"/>
       <c r="D646" s="23"/>
       <c r="E646" s="23"/>
@@ -16879,7 +16889,7 @@
       <c r="V646" s="29"/>
       <c r="W646" s="29"/>
     </row>
-    <row r="647" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="647" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C647" s="23"/>
       <c r="D647" s="23"/>
       <c r="E647" s="23"/>
@@ -16902,7 +16912,7 @@
       <c r="V647" s="29"/>
       <c r="W647" s="29"/>
     </row>
-    <row r="648" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="648" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C648" s="23"/>
       <c r="D648" s="23"/>
       <c r="E648" s="23"/>
@@ -16925,7 +16935,7 @@
       <c r="V648" s="29"/>
       <c r="W648" s="29"/>
     </row>
-    <row r="649" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="649" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C649" s="23"/>
       <c r="D649" s="23"/>
       <c r="E649" s="23"/>
@@ -16948,7 +16958,7 @@
       <c r="V649" s="29"/>
       <c r="W649" s="29"/>
     </row>
-    <row r="650" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="650" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C650" s="23"/>
       <c r="D650" s="23"/>
       <c r="E650" s="23"/>
@@ -16971,7 +16981,7 @@
       <c r="V650" s="29"/>
       <c r="W650" s="29"/>
     </row>
-    <row r="651" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="651" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C651" s="23"/>
       <c r="D651" s="23"/>
       <c r="E651" s="23"/>
@@ -16994,7 +17004,7 @@
       <c r="V651" s="29"/>
       <c r="W651" s="29"/>
     </row>
-    <row r="652" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="652" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C652" s="23"/>
       <c r="D652" s="23"/>
       <c r="E652" s="23"/>
@@ -17017,7 +17027,7 @@
       <c r="V652" s="29"/>
       <c r="W652" s="29"/>
     </row>
-    <row r="653" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="653" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C653" s="23"/>
       <c r="D653" s="23"/>
       <c r="E653" s="23"/>
@@ -17040,7 +17050,7 @@
       <c r="V653" s="29"/>
       <c r="W653" s="29"/>
     </row>
-    <row r="654" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="654" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C654" s="23"/>
       <c r="D654" s="23"/>
       <c r="E654" s="23"/>
@@ -17063,7 +17073,7 @@
       <c r="V654" s="29"/>
       <c r="W654" s="29"/>
     </row>
-    <row r="655" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="655" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C655" s="23"/>
       <c r="D655" s="23"/>
       <c r="E655" s="23"/>
@@ -17086,7 +17096,7 @@
       <c r="V655" s="29"/>
       <c r="W655" s="29"/>
     </row>
-    <row r="656" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="656" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C656" s="23"/>
       <c r="D656" s="23"/>
       <c r="E656" s="23"/>
@@ -17109,7 +17119,7 @@
       <c r="V656" s="29"/>
       <c r="W656" s="29"/>
     </row>
-    <row r="657" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="657" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C657" s="23"/>
       <c r="D657" s="23"/>
       <c r="E657" s="23"/>
@@ -17132,7 +17142,7 @@
       <c r="V657" s="29"/>
       <c r="W657" s="29"/>
     </row>
-    <row r="658" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="658" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C658" s="23"/>
       <c r="D658" s="23"/>
       <c r="E658" s="23"/>
@@ -17155,7 +17165,7 @@
       <c r="V658" s="29"/>
       <c r="W658" s="29"/>
     </row>
-    <row r="659" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="659" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C659" s="23"/>
       <c r="D659" s="23"/>
       <c r="E659" s="23"/>
@@ -17178,7 +17188,7 @@
       <c r="V659" s="29"/>
       <c r="W659" s="29"/>
     </row>
-    <row r="660" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="660" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C660" s="23"/>
       <c r="D660" s="23"/>
       <c r="E660" s="23"/>
@@ -17201,7 +17211,7 @@
       <c r="V660" s="29"/>
       <c r="W660" s="29"/>
     </row>
-    <row r="661" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="661" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C661" s="23"/>
       <c r="D661" s="23"/>
       <c r="E661" s="23"/>
@@ -17224,7 +17234,7 @@
       <c r="V661" s="29"/>
       <c r="W661" s="29"/>
     </row>
-    <row r="662" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="662" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C662" s="23"/>
       <c r="D662" s="23"/>
       <c r="E662" s="23"/>
@@ -17247,7 +17257,7 @@
       <c r="V662" s="29"/>
       <c r="W662" s="29"/>
     </row>
-    <row r="663" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="663" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C663" s="23"/>
       <c r="D663" s="23"/>
       <c r="E663" s="23"/>
@@ -17270,7 +17280,7 @@
       <c r="V663" s="29"/>
       <c r="W663" s="29"/>
     </row>
-    <row r="664" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="664" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C664" s="23"/>
       <c r="D664" s="23"/>
       <c r="E664" s="23"/>
@@ -17293,7 +17303,7 @@
       <c r="V664" s="29"/>
       <c r="W664" s="29"/>
     </row>
-    <row r="665" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="665" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C665" s="23"/>
       <c r="D665" s="23"/>
       <c r="E665" s="23"/>
@@ -17316,7 +17326,7 @@
       <c r="V665" s="29"/>
       <c r="W665" s="29"/>
     </row>
-    <row r="666" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="666" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C666" s="23"/>
       <c r="D666" s="23"/>
       <c r="E666" s="23"/>
@@ -17339,7 +17349,7 @@
       <c r="V666" s="29"/>
       <c r="W666" s="29"/>
     </row>
-    <row r="667" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="667" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C667" s="23"/>
       <c r="D667" s="23"/>
       <c r="E667" s="23"/>
@@ -17362,7 +17372,7 @@
       <c r="V667" s="29"/>
       <c r="W667" s="29"/>
     </row>
-    <row r="668" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="668" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C668" s="23"/>
       <c r="D668" s="23"/>
       <c r="E668" s="23"/>
@@ -17385,7 +17395,7 @@
       <c r="V668" s="29"/>
       <c r="W668" s="29"/>
     </row>
-    <row r="669" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="669" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C669" s="23"/>
       <c r="D669" s="23"/>
       <c r="E669" s="23"/>
@@ -17408,7 +17418,7 @@
       <c r="V669" s="29"/>
       <c r="W669" s="29"/>
     </row>
-    <row r="670" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="670" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C670" s="23"/>
       <c r="D670" s="23"/>
       <c r="E670" s="23"/>
@@ -17431,7 +17441,7 @@
       <c r="V670" s="29"/>
       <c r="W670" s="29"/>
     </row>
-    <row r="671" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="671" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C671" s="23"/>
       <c r="D671" s="23"/>
       <c r="E671" s="23"/>
@@ -17454,7 +17464,7 @@
       <c r="V671" s="29"/>
       <c r="W671" s="29"/>
     </row>
-    <row r="672" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="672" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C672" s="23"/>
       <c r="D672" s="23"/>
       <c r="E672" s="23"/>
@@ -17477,7 +17487,7 @@
       <c r="V672" s="29"/>
       <c r="W672" s="29"/>
     </row>
-    <row r="673" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="673" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C673" s="23"/>
       <c r="D673" s="23"/>
       <c r="E673" s="23"/>
@@ -17500,7 +17510,7 @@
       <c r="V673" s="29"/>
       <c r="W673" s="29"/>
     </row>
-    <row r="674" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="674" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C674" s="23"/>
       <c r="D674" s="23"/>
       <c r="E674" s="23"/>
@@ -17523,7 +17533,7 @@
       <c r="V674" s="29"/>
       <c r="W674" s="29"/>
     </row>
-    <row r="675" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="675" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C675" s="23"/>
       <c r="D675" s="23"/>
       <c r="E675" s="23"/>
@@ -17546,7 +17556,7 @@
       <c r="V675" s="29"/>
       <c r="W675" s="29"/>
     </row>
-    <row r="676" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="676" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C676" s="23"/>
       <c r="D676" s="23"/>
       <c r="E676" s="23"/>
@@ -17569,7 +17579,7 @@
       <c r="V676" s="29"/>
       <c r="W676" s="29"/>
     </row>
-    <row r="677" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="677" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C677" s="23"/>
       <c r="D677" s="23"/>
       <c r="E677" s="23"/>
@@ -17592,7 +17602,7 @@
       <c r="V677" s="29"/>
       <c r="W677" s="29"/>
     </row>
-    <row r="678" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="678" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C678" s="23"/>
       <c r="D678" s="23"/>
       <c r="E678" s="23"/>
@@ -17615,7 +17625,7 @@
       <c r="V678" s="29"/>
       <c r="W678" s="29"/>
     </row>
-    <row r="679" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="679" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C679" s="23"/>
       <c r="D679" s="23"/>
       <c r="E679" s="23"/>
@@ -17638,7 +17648,7 @@
       <c r="V679" s="29"/>
       <c r="W679" s="29"/>
     </row>
-    <row r="680" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="680" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C680" s="23"/>
       <c r="D680" s="23"/>
       <c r="E680" s="23"/>
@@ -17661,7 +17671,7 @@
       <c r="V680" s="29"/>
       <c r="W680" s="29"/>
     </row>
-    <row r="681" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="681" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C681" s="23"/>
       <c r="D681" s="23"/>
       <c r="E681" s="23"/>
@@ -17684,7 +17694,7 @@
       <c r="V681" s="29"/>
       <c r="W681" s="29"/>
     </row>
-    <row r="682" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="682" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C682" s="23"/>
       <c r="D682" s="23"/>
       <c r="E682" s="23"/>
@@ -17707,7 +17717,7 @@
       <c r="V682" s="29"/>
       <c r="W682" s="29"/>
     </row>
-    <row r="683" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="683" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C683" s="23"/>
       <c r="D683" s="23"/>
       <c r="E683" s="23"/>
@@ -17730,7 +17740,7 @@
       <c r="V683" s="29"/>
       <c r="W683" s="29"/>
     </row>
-    <row r="684" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="684" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C684" s="23"/>
       <c r="D684" s="23"/>
       <c r="E684" s="23"/>
@@ -17753,7 +17763,7 @@
       <c r="V684" s="29"/>
       <c r="W684" s="29"/>
     </row>
-    <row r="685" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="685" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C685" s="23"/>
       <c r="D685" s="23"/>
       <c r="E685" s="23"/>
@@ -17776,7 +17786,7 @@
       <c r="V685" s="29"/>
       <c r="W685" s="29"/>
     </row>
-    <row r="686" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="686" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C686" s="23"/>
       <c r="D686" s="23"/>
       <c r="E686" s="23"/>
@@ -17799,7 +17809,7 @@
       <c r="V686" s="29"/>
       <c r="W686" s="29"/>
     </row>
-    <row r="687" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="687" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C687" s="23"/>
       <c r="D687" s="23"/>
       <c r="E687" s="23"/>
@@ -17822,7 +17832,7 @@
       <c r="V687" s="29"/>
       <c r="W687" s="29"/>
     </row>
-    <row r="688" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="688" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C688" s="23"/>
       <c r="D688" s="23"/>
       <c r="E688" s="23"/>
@@ -17845,7 +17855,7 @@
       <c r="V688" s="29"/>
       <c r="W688" s="29"/>
     </row>
-    <row r="689" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C689" s="23"/>
       <c r="D689" s="23"/>
       <c r="E689" s="23"/>
@@ -17868,7 +17878,7 @@
       <c r="V689" s="29"/>
       <c r="W689" s="29"/>
     </row>
-    <row r="690" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C690" s="23"/>
       <c r="D690" s="23"/>
       <c r="E690" s="23"/>
@@ -17891,7 +17901,7 @@
       <c r="V690" s="29"/>
       <c r="W690" s="29"/>
     </row>
-    <row r="691" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C691" s="23"/>
       <c r="D691" s="23"/>
       <c r="E691" s="23"/>
@@ -17914,7 +17924,7 @@
       <c r="V691" s="29"/>
       <c r="W691" s="29"/>
     </row>
-    <row r="692" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C692" s="23"/>
       <c r="D692" s="23"/>
       <c r="E692" s="23"/>
@@ -17937,7 +17947,7 @@
       <c r="V692" s="29"/>
       <c r="W692" s="29"/>
     </row>
-    <row r="693" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C693" s="23"/>
       <c r="D693" s="23"/>
       <c r="E693" s="23"/>
@@ -17960,7 +17970,7 @@
       <c r="V693" s="29"/>
       <c r="W693" s="29"/>
     </row>
-    <row r="694" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C694" s="23"/>
       <c r="D694" s="23"/>
       <c r="E694" s="23"/>
@@ -17983,7 +17993,7 @@
       <c r="V694" s="29"/>
       <c r="W694" s="29"/>
     </row>
-    <row r="695" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C695" s="23"/>
       <c r="D695" s="23"/>
       <c r="E695" s="23"/>
@@ -18006,7 +18016,7 @@
       <c r="V695" s="29"/>
       <c r="W695" s="29"/>
     </row>
-    <row r="696" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C696" s="23"/>
       <c r="D696" s="23"/>
       <c r="E696" s="23"/>
@@ -18029,7 +18039,7 @@
       <c r="V696" s="29"/>
       <c r="W696" s="29"/>
     </row>
-    <row r="697" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C697" s="23"/>
       <c r="D697" s="23"/>
       <c r="E697" s="23"/>
@@ -18052,7 +18062,7 @@
       <c r="V697" s="29"/>
       <c r="W697" s="29"/>
     </row>
-    <row r="698" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C698" s="23"/>
       <c r="D698" s="23"/>
       <c r="E698" s="23"/>
@@ -18075,7 +18085,7 @@
       <c r="V698" s="29"/>
       <c r="W698" s="29"/>
     </row>
-    <row r="699" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C699" s="23"/>
       <c r="D699" s="23"/>
       <c r="E699" s="23"/>
@@ -18098,7 +18108,7 @@
       <c r="V699" s="29"/>
       <c r="W699" s="29"/>
     </row>
-    <row r="700" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C700" s="23"/>
       <c r="D700" s="23"/>
       <c r="E700" s="23"/>
@@ -18121,7 +18131,7 @@
       <c r="V700" s="29"/>
       <c r="W700" s="29"/>
     </row>
-    <row r="701" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C701" s="23"/>
       <c r="D701" s="23"/>
       <c r="E701" s="23"/>
@@ -18144,7 +18154,7 @@
       <c r="V701" s="29"/>
       <c r="W701" s="29"/>
     </row>
-    <row r="702" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C702" s="23"/>
       <c r="D702" s="23"/>
       <c r="E702" s="23"/>
@@ -18167,7 +18177,7 @@
       <c r="V702" s="29"/>
       <c r="W702" s="29"/>
     </row>
-    <row r="703" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C703" s="23"/>
       <c r="D703" s="23"/>
       <c r="E703" s="23"/>
@@ -18190,7 +18200,7 @@
       <c r="V703" s="29"/>
       <c r="W703" s="29"/>
     </row>
-    <row r="704" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C704" s="23"/>
       <c r="D704" s="23"/>
       <c r="E704" s="23"/>
@@ -18213,7 +18223,7 @@
       <c r="V704" s="29"/>
       <c r="W704" s="29"/>
     </row>
-    <row r="705" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="705" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C705" s="23"/>
       <c r="D705" s="23"/>
       <c r="E705" s="23"/>
@@ -18236,7 +18246,7 @@
       <c r="V705" s="29"/>
       <c r="W705" s="29"/>
     </row>
-    <row r="706" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="706" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C706" s="23"/>
       <c r="D706" s="23"/>
       <c r="E706" s="23"/>
@@ -18259,7 +18269,7 @@
       <c r="V706" s="29"/>
       <c r="W706" s="29"/>
     </row>
-    <row r="707" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="707" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C707" s="23"/>
       <c r="D707" s="23"/>
       <c r="E707" s="23"/>
@@ -18282,7 +18292,7 @@
       <c r="V707" s="29"/>
       <c r="W707" s="29"/>
     </row>
-    <row r="708" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="708" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C708" s="23"/>
       <c r="D708" s="23"/>
       <c r="E708" s="23"/>
@@ -18305,7 +18315,7 @@
       <c r="V708" s="29"/>
       <c r="W708" s="29"/>
     </row>
-    <row r="709" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="709" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C709" s="23"/>
       <c r="D709" s="23"/>
       <c r="E709" s="23"/>
@@ -18328,7 +18338,7 @@
       <c r="V709" s="29"/>
       <c r="W709" s="29"/>
     </row>
-    <row r="710" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="710" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C710" s="23"/>
       <c r="D710" s="23"/>
       <c r="E710" s="23"/>
@@ -18351,7 +18361,7 @@
       <c r="V710" s="29"/>
       <c r="W710" s="29"/>
     </row>
-    <row r="711" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="711" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C711" s="23"/>
       <c r="D711" s="23"/>
       <c r="E711" s="23"/>
@@ -18374,7 +18384,7 @@
       <c r="V711" s="29"/>
       <c r="W711" s="29"/>
     </row>
-    <row r="712" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="712" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C712" s="23"/>
       <c r="D712" s="23"/>
       <c r="E712" s="23"/>
@@ -18397,7 +18407,7 @@
       <c r="V712" s="29"/>
       <c r="W712" s="29"/>
     </row>
-    <row r="713" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="713" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C713" s="23"/>
       <c r="D713" s="23"/>
       <c r="E713" s="23"/>
@@ -18420,7 +18430,7 @@
       <c r="V713" s="29"/>
       <c r="W713" s="29"/>
     </row>
-    <row r="714" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="714" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C714" s="23"/>
       <c r="D714" s="23"/>
       <c r="E714" s="23"/>
@@ -18443,7 +18453,7 @@
       <c r="V714" s="29"/>
       <c r="W714" s="29"/>
     </row>
-    <row r="715" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="715" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C715" s="23"/>
       <c r="D715" s="23"/>
       <c r="E715" s="23"/>
@@ -18466,7 +18476,7 @@
       <c r="V715" s="29"/>
       <c r="W715" s="29"/>
     </row>
-    <row r="716" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="716" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C716" s="23"/>
       <c r="D716" s="23"/>
       <c r="E716" s="23"/>
@@ -18489,7 +18499,7 @@
       <c r="V716" s="29"/>
       <c r="W716" s="29"/>
     </row>
-    <row r="717" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="717" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C717" s="23"/>
       <c r="D717" s="23"/>
       <c r="E717" s="23"/>
@@ -18512,7 +18522,7 @@
       <c r="V717" s="29"/>
       <c r="W717" s="29"/>
     </row>
-    <row r="718" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="718" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C718" s="23"/>
       <c r="D718" s="23"/>
       <c r="E718" s="23"/>
@@ -18535,7 +18545,7 @@
       <c r="V718" s="29"/>
       <c r="W718" s="29"/>
     </row>
-    <row r="719" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="719" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C719" s="23"/>
       <c r="D719" s="23"/>
       <c r="E719" s="23"/>
@@ -18558,7 +18568,7 @@
       <c r="V719" s="29"/>
       <c r="W719" s="29"/>
     </row>
-    <row r="720" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="720" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C720" s="23"/>
       <c r="D720" s="23"/>
       <c r="E720" s="23"/>
@@ -18581,7 +18591,7 @@
       <c r="V720" s="29"/>
       <c r="W720" s="29"/>
     </row>
-    <row r="721" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="721" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C721" s="23"/>
       <c r="D721" s="23"/>
       <c r="E721" s="23"/>
@@ -18604,7 +18614,7 @@
       <c r="V721" s="29"/>
       <c r="W721" s="29"/>
     </row>
-    <row r="722" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="722" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C722" s="23"/>
       <c r="D722" s="23"/>
       <c r="E722" s="23"/>
@@ -18627,7 +18637,7 @@
       <c r="V722" s="29"/>
       <c r="W722" s="29"/>
     </row>
-    <row r="723" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="723" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C723" s="23"/>
       <c r="D723" s="23"/>
       <c r="E723" s="23"/>
@@ -18650,7 +18660,7 @@
       <c r="V723" s="29"/>
       <c r="W723" s="29"/>
     </row>
-    <row r="724" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="724" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C724" s="23"/>
       <c r="D724" s="23"/>
       <c r="E724" s="23"/>
@@ -18673,7 +18683,7 @@
       <c r="V724" s="29"/>
       <c r="W724" s="29"/>
     </row>
-    <row r="725" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="725" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C725" s="23"/>
       <c r="D725" s="23"/>
       <c r="E725" s="23"/>
@@ -18696,7 +18706,7 @@
       <c r="V725" s="29"/>
       <c r="W725" s="29"/>
     </row>
-    <row r="726" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="726" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C726" s="23"/>
       <c r="D726" s="23"/>
       <c r="E726" s="23"/>
@@ -18719,7 +18729,7 @@
       <c r="V726" s="29"/>
       <c r="W726" s="29"/>
     </row>
-    <row r="727" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="727" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C727" s="23"/>
       <c r="D727" s="23"/>
       <c r="E727" s="23"/>
@@ -18742,7 +18752,7 @@
       <c r="V727" s="29"/>
       <c r="W727" s="29"/>
     </row>
-    <row r="728" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="728" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C728" s="23"/>
       <c r="D728" s="23"/>
       <c r="E728" s="23"/>
@@ -18765,7 +18775,7 @@
       <c r="V728" s="29"/>
       <c r="W728" s="29"/>
     </row>
-    <row r="729" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="729" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C729" s="23"/>
       <c r="D729" s="23"/>
       <c r="E729" s="23"/>
@@ -18788,7 +18798,7 @@
       <c r="V729" s="29"/>
       <c r="W729" s="29"/>
     </row>
-    <row r="730" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="730" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C730" s="23"/>
       <c r="D730" s="23"/>
       <c r="E730" s="23"/>
@@ -18811,7 +18821,7 @@
       <c r="V730" s="29"/>
       <c r="W730" s="29"/>
     </row>
-    <row r="731" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="731" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C731" s="23"/>
       <c r="D731" s="23"/>
       <c r="E731" s="23"/>
@@ -18834,7 +18844,7 @@
       <c r="V731" s="29"/>
       <c r="W731" s="29"/>
     </row>
-    <row r="732" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="732" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C732" s="23"/>
       <c r="D732" s="23"/>
       <c r="E732" s="23"/>
@@ -18857,7 +18867,7 @@
       <c r="V732" s="29"/>
       <c r="W732" s="29"/>
     </row>
-    <row r="733" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="733" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C733" s="23"/>
       <c r="D733" s="23"/>
       <c r="E733" s="23"/>
@@ -18880,7 +18890,7 @@
       <c r="V733" s="29"/>
       <c r="W733" s="29"/>
     </row>
-    <row r="734" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="734" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C734" s="23"/>
       <c r="D734" s="23"/>
       <c r="E734" s="23"/>
@@ -18903,7 +18913,7 @@
       <c r="V734" s="29"/>
       <c r="W734" s="29"/>
     </row>
-    <row r="735" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="735" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C735" s="23"/>
       <c r="D735" s="23"/>
       <c r="E735" s="23"/>
@@ -18926,7 +18936,7 @@
       <c r="V735" s="29"/>
       <c r="W735" s="29"/>
     </row>
-    <row r="736" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="736" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C736" s="23"/>
       <c r="D736" s="23"/>
       <c r="E736" s="23"/>
@@ -18949,7 +18959,7 @@
       <c r="V736" s="29"/>
       <c r="W736" s="29"/>
     </row>
-    <row r="737" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="737" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C737" s="23"/>
       <c r="D737" s="23"/>
       <c r="E737" s="23"/>
@@ -18972,7 +18982,7 @@
       <c r="V737" s="29"/>
       <c r="W737" s="29"/>
     </row>
-    <row r="738" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="738" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C738" s="23"/>
       <c r="D738" s="23"/>
       <c r="E738" s="23"/>
@@ -18995,7 +19005,7 @@
       <c r="V738" s="29"/>
       <c r="W738" s="29"/>
     </row>
-    <row r="739" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="739" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C739" s="23"/>
       <c r="D739" s="23"/>
       <c r="E739" s="23"/>
@@ -19018,7 +19028,7 @@
       <c r="V739" s="29"/>
       <c r="W739" s="29"/>
     </row>
-    <row r="740" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="740" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C740" s="23"/>
       <c r="D740" s="23"/>
       <c r="E740" s="23"/>
@@ -19041,7 +19051,7 @@
       <c r="V740" s="29"/>
       <c r="W740" s="29"/>
     </row>
-    <row r="741" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="741" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C741" s="23"/>
       <c r="D741" s="23"/>
       <c r="E741" s="23"/>
@@ -19064,7 +19074,7 @@
       <c r="V741" s="29"/>
       <c r="W741" s="29"/>
     </row>
-    <row r="742" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="742" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C742" s="23"/>
       <c r="D742" s="23"/>
       <c r="E742" s="23"/>
@@ -19087,7 +19097,7 @@
       <c r="V742" s="29"/>
       <c r="W742" s="29"/>
     </row>
-    <row r="743" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="743" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C743" s="23"/>
       <c r="D743" s="23"/>
       <c r="E743" s="23"/>
@@ -19110,7 +19120,7 @@
       <c r="V743" s="29"/>
       <c r="W743" s="29"/>
     </row>
-    <row r="744" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="744" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C744" s="23"/>
       <c r="D744" s="23"/>
       <c r="E744" s="23"/>
@@ -19133,7 +19143,7 @@
       <c r="V744" s="29"/>
       <c r="W744" s="29"/>
     </row>
-    <row r="745" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="745" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C745" s="23"/>
       <c r="D745" s="23"/>
       <c r="E745" s="23"/>
@@ -19156,7 +19166,7 @@
       <c r="V745" s="29"/>
       <c r="W745" s="29"/>
     </row>
-    <row r="746" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="746" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C746" s="23"/>
       <c r="D746" s="23"/>
       <c r="E746" s="23"/>
@@ -19179,7 +19189,7 @@
       <c r="V746" s="29"/>
       <c r="W746" s="29"/>
     </row>
-    <row r="747" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="747" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C747" s="23"/>
       <c r="D747" s="23"/>
       <c r="E747" s="23"/>
@@ -19202,7 +19212,7 @@
       <c r="V747" s="29"/>
       <c r="W747" s="29"/>
     </row>
-    <row r="748" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="748" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C748" s="23"/>
       <c r="D748" s="23"/>
       <c r="E748" s="23"/>
@@ -19225,7 +19235,7 @@
       <c r="V748" s="29"/>
       <c r="W748" s="29"/>
     </row>
-    <row r="749" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="749" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C749" s="23"/>
       <c r="D749" s="23"/>
       <c r="E749" s="23"/>
@@ -19248,7 +19258,7 @@
       <c r="V749" s="29"/>
       <c r="W749" s="29"/>
     </row>
-    <row r="750" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="750" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C750" s="23"/>
       <c r="D750" s="23"/>
       <c r="E750" s="23"/>
@@ -19271,7 +19281,7 @@
       <c r="V750" s="29"/>
       <c r="W750" s="29"/>
     </row>
-    <row r="751" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="751" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C751" s="23"/>
       <c r="D751" s="23"/>
       <c r="E751" s="23"/>
@@ -19294,7 +19304,7 @@
       <c r="V751" s="29"/>
       <c r="W751" s="29"/>
     </row>
-    <row r="752" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="752" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C752" s="23"/>
       <c r="D752" s="23"/>
       <c r="E752" s="23"/>
@@ -19317,7 +19327,7 @@
       <c r="V752" s="29"/>
       <c r="W752" s="29"/>
     </row>
-    <row r="753" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="753" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C753" s="23"/>
       <c r="D753" s="23"/>
       <c r="E753" s="23"/>
@@ -19340,7 +19350,7 @@
       <c r="V753" s="29"/>
       <c r="W753" s="29"/>
     </row>
-    <row r="754" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="754" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C754" s="23"/>
       <c r="D754" s="23"/>
       <c r="E754" s="23"/>
@@ -19363,7 +19373,7 @@
       <c r="V754" s="29"/>
       <c r="W754" s="29"/>
     </row>
-    <row r="755" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="755" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C755" s="23"/>
       <c r="D755" s="23"/>
       <c r="E755" s="23"/>
@@ -19386,7 +19396,7 @@
       <c r="V755" s="29"/>
       <c r="W755" s="29"/>
     </row>
-    <row r="756" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="756" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C756" s="23"/>
       <c r="D756" s="23"/>
       <c r="E756" s="23"/>
@@ -19409,7 +19419,7 @@
       <c r="V756" s="29"/>
       <c r="W756" s="29"/>
     </row>
-    <row r="757" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="757" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C757" s="23"/>
       <c r="D757" s="23"/>
       <c r="E757" s="23"/>
@@ -19432,7 +19442,7 @@
       <c r="V757" s="29"/>
       <c r="W757" s="29"/>
     </row>
-    <row r="758" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="758" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C758" s="23"/>
       <c r="D758" s="23"/>
       <c r="E758" s="23"/>
@@ -19455,7 +19465,7 @@
       <c r="V758" s="29"/>
       <c r="W758" s="29"/>
     </row>
-    <row r="759" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="759" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C759" s="23"/>
       <c r="D759" s="23"/>
       <c r="E759" s="23"/>
@@ -19478,7 +19488,7 @@
       <c r="V759" s="29"/>
       <c r="W759" s="29"/>
     </row>
-    <row r="760" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="760" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C760" s="23"/>
       <c r="D760" s="23"/>
       <c r="E760" s="23"/>
@@ -19501,7 +19511,7 @@
       <c r="V760" s="29"/>
       <c r="W760" s="29"/>
     </row>
-    <row r="761" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="761" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C761" s="23"/>
       <c r="D761" s="23"/>
       <c r="E761" s="23"/>
@@ -19524,7 +19534,7 @@
       <c r="V761" s="29"/>
       <c r="W761" s="29"/>
     </row>
-    <row r="762" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="762" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C762" s="23"/>
       <c r="D762" s="23"/>
       <c r="E762" s="23"/>
@@ -19547,7 +19557,7 @@
       <c r="V762" s="29"/>
       <c r="W762" s="29"/>
     </row>
-    <row r="763" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="763" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C763" s="23"/>
       <c r="D763" s="23"/>
       <c r="E763" s="23"/>
@@ -19570,7 +19580,7 @@
       <c r="V763" s="29"/>
       <c r="W763" s="29"/>
     </row>
-    <row r="764" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="764" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C764" s="23"/>
       <c r="D764" s="23"/>
       <c r="E764" s="23"/>
@@ -19593,7 +19603,7 @@
       <c r="V764" s="29"/>
       <c r="W764" s="29"/>
     </row>
-    <row r="765" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="765" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C765" s="23"/>
       <c r="D765" s="23"/>
       <c r="E765" s="23"/>
@@ -19616,7 +19626,7 @@
       <c r="V765" s="29"/>
       <c r="W765" s="29"/>
     </row>
-    <row r="766" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="766" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C766" s="23"/>
       <c r="D766" s="23"/>
       <c r="E766" s="23"/>
@@ -19639,7 +19649,7 @@
       <c r="V766" s="29"/>
       <c r="W766" s="29"/>
     </row>
-    <row r="767" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="767" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C767" s="23"/>
       <c r="D767" s="23"/>
       <c r="E767" s="23"/>
@@ -19662,7 +19672,7 @@
       <c r="V767" s="29"/>
       <c r="W767" s="29"/>
     </row>
-    <row r="768" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="768" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C768" s="23"/>
       <c r="D768" s="23"/>
       <c r="E768" s="23"/>
@@ -19685,7 +19695,7 @@
       <c r="V768" s="29"/>
       <c r="W768" s="29"/>
     </row>
-    <row r="769" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="769" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C769" s="23"/>
       <c r="D769" s="23"/>
       <c r="E769" s="23"/>
@@ -19708,7 +19718,7 @@
       <c r="V769" s="29"/>
       <c r="W769" s="29"/>
     </row>
-    <row r="770" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="770" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C770" s="23"/>
       <c r="D770" s="23"/>
       <c r="E770" s="23"/>
@@ -19731,7 +19741,7 @@
       <c r="V770" s="29"/>
       <c r="W770" s="29"/>
     </row>
-    <row r="771" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="771" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C771" s="23"/>
       <c r="D771" s="23"/>
       <c r="E771" s="23"/>
@@ -19754,7 +19764,7 @@
       <c r="V771" s="29"/>
       <c r="W771" s="29"/>
     </row>
-    <row r="772" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="772" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C772" s="23"/>
       <c r="D772" s="23"/>
       <c r="E772" s="23"/>
@@ -19777,7 +19787,7 @@
       <c r="V772" s="29"/>
       <c r="W772" s="29"/>
     </row>
-    <row r="773" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="773" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C773" s="23"/>
       <c r="D773" s="23"/>
       <c r="E773" s="23"/>
@@ -19800,7 +19810,7 @@
       <c r="V773" s="29"/>
       <c r="W773" s="29"/>
     </row>
-    <row r="774" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="774" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C774" s="23"/>
       <c r="D774" s="23"/>
       <c r="E774" s="23"/>
@@ -19823,7 +19833,7 @@
       <c r="V774" s="29"/>
       <c r="W774" s="29"/>
     </row>
-    <row r="775" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="775" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C775" s="23"/>
       <c r="D775" s="23"/>
       <c r="E775" s="23"/>
@@ -19846,7 +19856,7 @@
       <c r="V775" s="29"/>
       <c r="W775" s="29"/>
     </row>
-    <row r="776" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="776" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C776" s="23"/>
       <c r="D776" s="23"/>
       <c r="E776" s="23"/>
@@ -19869,7 +19879,7 @@
       <c r="V776" s="29"/>
       <c r="W776" s="29"/>
     </row>
-    <row r="777" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="777" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C777" s="23"/>
       <c r="D777" s="23"/>
       <c r="E777" s="23"/>
@@ -19892,7 +19902,7 @@
       <c r="V777" s="29"/>
       <c r="W777" s="29"/>
     </row>
-    <row r="778" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="778" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C778" s="23"/>
       <c r="D778" s="23"/>
       <c r="E778" s="23"/>
@@ -19915,7 +19925,7 @@
       <c r="V778" s="29"/>
       <c r="W778" s="29"/>
     </row>
-    <row r="779" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="779" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C779" s="23"/>
       <c r="D779" s="23"/>
       <c r="E779" s="23"/>
@@ -19938,7 +19948,7 @@
       <c r="V779" s="29"/>
       <c r="W779" s="29"/>
     </row>
-    <row r="780" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="780" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C780" s="23"/>
       <c r="D780" s="23"/>
       <c r="E780" s="23"/>
@@ -19961,7 +19971,7 @@
       <c r="V780" s="29"/>
       <c r="W780" s="29"/>
     </row>
-    <row r="781" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="781" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C781" s="23"/>
       <c r="D781" s="23"/>
       <c r="E781" s="23"/>
@@ -19984,7 +19994,7 @@
       <c r="V781" s="29"/>
       <c r="W781" s="29"/>
     </row>
-    <row r="782" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="782" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C782" s="23"/>
       <c r="D782" s="23"/>
       <c r="E782" s="23"/>
@@ -20007,7 +20017,7 @@
       <c r="V782" s="29"/>
       <c r="W782" s="29"/>
     </row>
-    <row r="783" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="783" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C783" s="23"/>
       <c r="D783" s="23"/>
       <c r="E783" s="23"/>
@@ -20030,7 +20040,7 @@
       <c r="V783" s="29"/>
       <c r="W783" s="29"/>
     </row>
-    <row r="784" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="784" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C784" s="23"/>
       <c r="D784" s="23"/>
       <c r="E784" s="23"/>
@@ -20053,7 +20063,7 @@
       <c r="V784" s="29"/>
       <c r="W784" s="29"/>
     </row>
-    <row r="785" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="785" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C785" s="23"/>
       <c r="D785" s="23"/>
       <c r="E785" s="23"/>
@@ -20076,7 +20086,7 @@
       <c r="V785" s="29"/>
       <c r="W785" s="29"/>
     </row>
-    <row r="786" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="786" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C786" s="23"/>
       <c r="D786" s="23"/>
       <c r="E786" s="23"/>
@@ -20099,7 +20109,7 @@
       <c r="V786" s="29"/>
       <c r="W786" s="29"/>
     </row>
-    <row r="787" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="787" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C787" s="23"/>
       <c r="D787" s="23"/>
       <c r="E787" s="23"/>
@@ -20122,7 +20132,7 @@
       <c r="V787" s="29"/>
       <c r="W787" s="29"/>
     </row>
-    <row r="788" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="788" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C788" s="23"/>
       <c r="D788" s="23"/>
       <c r="E788" s="23"/>
@@ -20145,7 +20155,7 @@
       <c r="V788" s="29"/>
       <c r="W788" s="29"/>
     </row>
-    <row r="789" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="789" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C789" s="23"/>
       <c r="D789" s="23"/>
       <c r="E789" s="23"/>
@@ -20168,7 +20178,7 @@
       <c r="V789" s="29"/>
       <c r="W789" s="29"/>
     </row>
-    <row r="790" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="790" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C790" s="23"/>
       <c r="D790" s="23"/>
       <c r="E790" s="23"/>
@@ -20191,7 +20201,7 @@
       <c r="V790" s="29"/>
       <c r="W790" s="29"/>
     </row>
-    <row r="791" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="791" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C791" s="23"/>
       <c r="D791" s="23"/>
       <c r="E791" s="23"/>
@@ -20214,7 +20224,7 @@
       <c r="V791" s="29"/>
       <c r="W791" s="29"/>
     </row>
-    <row r="792" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="792" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C792" s="23"/>
       <c r="D792" s="23"/>
       <c r="E792" s="23"/>
@@ -20237,7 +20247,7 @@
       <c r="V792" s="29"/>
       <c r="W792" s="29"/>
     </row>
-    <row r="793" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="793" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C793" s="23"/>
       <c r="D793" s="23"/>
       <c r="E793" s="23"/>
@@ -20260,7 +20270,7 @@
       <c r="V793" s="29"/>
       <c r="W793" s="29"/>
     </row>
-    <row r="794" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="794" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C794" s="23"/>
       <c r="D794" s="23"/>
       <c r="E794" s="23"/>
@@ -20283,7 +20293,7 @@
       <c r="V794" s="29"/>
       <c r="W794" s="29"/>
     </row>
-    <row r="795" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="795" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C795" s="23"/>
       <c r="D795" s="23"/>
       <c r="E795" s="23"/>
@@ -20306,7 +20316,7 @@
       <c r="V795" s="29"/>
       <c r="W795" s="29"/>
     </row>
-    <row r="796" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="796" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C796" s="23"/>
       <c r="D796" s="23"/>
       <c r="E796" s="23"/>
@@ -20329,7 +20339,7 @@
       <c r="V796" s="29"/>
       <c r="W796" s="29"/>
     </row>
-    <row r="797" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="797" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C797" s="23"/>
       <c r="D797" s="23"/>
       <c r="E797" s="23"/>
@@ -20352,7 +20362,7 @@
       <c r="V797" s="29"/>
       <c r="W797" s="29"/>
     </row>
-    <row r="798" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="798" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C798" s="23"/>
       <c r="D798" s="23"/>
       <c r="E798" s="23"/>
@@ -20375,7 +20385,7 @@
       <c r="V798" s="29"/>
       <c r="W798" s="29"/>
     </row>
-    <row r="799" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="799" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C799" s="23"/>
       <c r="D799" s="23"/>
       <c r="E799" s="23"/>
@@ -20398,7 +20408,7 @@
       <c r="V799" s="29"/>
       <c r="W799" s="29"/>
     </row>
-    <row r="800" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="800" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C800" s="23"/>
       <c r="D800" s="23"/>
       <c r="E800" s="23"/>
@@ -20421,7 +20431,7 @@
       <c r="V800" s="29"/>
       <c r="W800" s="29"/>
     </row>
-    <row r="801" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="801" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C801" s="23"/>
       <c r="D801" s="23"/>
       <c r="E801" s="23"/>
@@ -20444,7 +20454,7 @@
       <c r="V801" s="29"/>
       <c r="W801" s="29"/>
     </row>
-    <row r="802" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="802" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C802" s="23"/>
       <c r="D802" s="23"/>
       <c r="E802" s="23"/>
@@ -20467,7 +20477,7 @@
       <c r="V802" s="29"/>
       <c r="W802" s="29"/>
     </row>
-    <row r="803" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="803" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C803" s="23"/>
       <c r="D803" s="23"/>
       <c r="E803" s="23"/>
@@ -20490,7 +20500,7 @@
       <c r="V803" s="29"/>
       <c r="W803" s="29"/>
     </row>
-    <row r="804" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="804" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C804" s="23"/>
       <c r="D804" s="23"/>
       <c r="E804" s="23"/>
@@ -20513,7 +20523,7 @@
       <c r="V804" s="29"/>
       <c r="W804" s="29"/>
     </row>
-    <row r="805" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="805" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C805" s="23"/>
       <c r="D805" s="23"/>
       <c r="E805" s="23"/>
@@ -20536,7 +20546,7 @@
       <c r="V805" s="29"/>
       <c r="W805" s="29"/>
     </row>
-    <row r="806" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="806" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C806" s="23"/>
       <c r="D806" s="23"/>
       <c r="E806" s="23"/>
@@ -20559,7 +20569,7 @@
       <c r="V806" s="29"/>
       <c r="W806" s="29"/>
     </row>
-    <row r="807" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="807" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C807" s="23"/>
       <c r="D807" s="23"/>
       <c r="E807" s="23"/>
@@ -20582,7 +20592,7 @@
       <c r="V807" s="29"/>
       <c r="W807" s="29"/>
     </row>
-    <row r="808" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="808" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C808" s="23"/>
       <c r="D808" s="23"/>
       <c r="E808" s="23"/>
@@ -20605,7 +20615,7 @@
       <c r="V808" s="29"/>
       <c r="W808" s="29"/>
     </row>
-    <row r="809" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="809" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C809" s="23"/>
       <c r="D809" s="23"/>
       <c r="E809" s="23"/>
@@ -20628,7 +20638,7 @@
       <c r="V809" s="29"/>
       <c r="W809" s="29"/>
     </row>
-    <row r="810" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="810" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C810" s="23"/>
       <c r="D810" s="23"/>
       <c r="E810" s="23"/>
@@ -20651,7 +20661,7 @@
       <c r="V810" s="29"/>
       <c r="W810" s="29"/>
     </row>
-    <row r="811" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="811" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C811" s="23"/>
       <c r="D811" s="23"/>
       <c r="E811" s="23"/>
@@ -20674,7 +20684,7 @@
       <c r="V811" s="29"/>
       <c r="W811" s="29"/>
     </row>
-    <row r="812" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="812" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C812" s="23"/>
       <c r="D812" s="23"/>
       <c r="E812" s="23"/>
@@ -20697,7 +20707,7 @@
       <c r="V812" s="29"/>
       <c r="W812" s="29"/>
     </row>
-    <row r="813" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="813" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C813" s="23"/>
       <c r="D813" s="23"/>
       <c r="E813" s="23"/>
@@ -20720,7 +20730,7 @@
       <c r="V813" s="29"/>
       <c r="W813" s="29"/>
     </row>
-    <row r="814" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="814" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C814" s="23"/>
       <c r="D814" s="23"/>
       <c r="E814" s="23"/>
@@ -20743,7 +20753,7 @@
       <c r="V814" s="29"/>
       <c r="W814" s="29"/>
     </row>
-    <row r="815" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="815" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C815" s="23"/>
       <c r="D815" s="23"/>
       <c r="E815" s="23"/>
@@ -20766,7 +20776,7 @@
       <c r="V815" s="29"/>
       <c r="W815" s="29"/>
     </row>
-    <row r="816" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="816" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C816" s="23"/>
       <c r="D816" s="23"/>
       <c r="E816" s="23"/>
@@ -20789,7 +20799,7 @@
       <c r="V816" s="29"/>
       <c r="W816" s="29"/>
     </row>
-    <row r="817" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="817" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C817" s="23"/>
       <c r="D817" s="23"/>
       <c r="E817" s="23"/>
@@ -20812,7 +20822,7 @@
       <c r="V817" s="29"/>
       <c r="W817" s="29"/>
     </row>
-    <row r="818" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="818" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C818" s="23"/>
       <c r="D818" s="23"/>
       <c r="E818" s="23"/>
@@ -20835,7 +20845,7 @@
       <c r="V818" s="29"/>
       <c r="W818" s="29"/>
     </row>
-    <row r="819" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="819" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C819" s="23"/>
       <c r="D819" s="23"/>
       <c r="E819" s="23"/>
@@ -20858,7 +20868,7 @@
       <c r="V819" s="29"/>
       <c r="W819" s="29"/>
     </row>
-    <row r="820" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="820" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C820" s="23"/>
       <c r="D820" s="23"/>
       <c r="E820" s="23"/>
@@ -20881,7 +20891,7 @@
       <c r="V820" s="29"/>
       <c r="W820" s="29"/>
     </row>
-    <row r="821" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="821" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C821" s="23"/>
       <c r="D821" s="23"/>
       <c r="E821" s="23"/>
@@ -20904,7 +20914,7 @@
       <c r="V821" s="29"/>
       <c r="W821" s="29"/>
     </row>
-    <row r="822" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="822" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C822" s="23"/>
       <c r="D822" s="23"/>
       <c r="E822" s="23"/>
@@ -20927,7 +20937,7 @@
       <c r="V822" s="29"/>
       <c r="W822" s="29"/>
     </row>
-    <row r="823" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="823" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C823" s="23"/>
       <c r="D823" s="23"/>
       <c r="E823" s="23"/>
@@ -20950,7 +20960,7 @@
       <c r="V823" s="29"/>
       <c r="W823" s="29"/>
     </row>
-    <row r="824" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="824" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C824" s="23"/>
       <c r="D824" s="23"/>
       <c r="E824" s="23"/>
@@ -20973,7 +20983,7 @@
       <c r="V824" s="29"/>
       <c r="W824" s="29"/>
     </row>
-    <row r="825" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="825" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C825" s="23"/>
       <c r="D825" s="23"/>
       <c r="E825" s="23"/>
@@ -20996,7 +21006,7 @@
       <c r="V825" s="29"/>
       <c r="W825" s="29"/>
     </row>
-    <row r="826" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="826" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C826" s="23"/>
       <c r="D826" s="23"/>
       <c r="E826" s="23"/>
@@ -21019,7 +21029,7 @@
       <c r="V826" s="29"/>
       <c r="W826" s="29"/>
     </row>
-    <row r="827" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="827" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C827" s="23"/>
       <c r="D827" s="23"/>
       <c r="E827" s="23"/>
@@ -21042,7 +21052,7 @@
       <c r="V827" s="29"/>
       <c r="W827" s="29"/>
     </row>
-    <row r="828" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="828" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C828" s="23"/>
       <c r="D828" s="23"/>
       <c r="E828" s="23"/>
@@ -21065,7 +21075,7 @@
       <c r="V828" s="29"/>
       <c r="W828" s="29"/>
     </row>
-    <row r="829" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="829" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C829" s="23"/>
       <c r="D829" s="23"/>
       <c r="E829" s="23"/>
@@ -21088,7 +21098,7 @@
       <c r="V829" s="29"/>
       <c r="W829" s="29"/>
     </row>
-    <row r="830" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="830" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C830" s="23"/>
       <c r="D830" s="23"/>
       <c r="E830" s="23"/>
@@ -21111,7 +21121,7 @@
       <c r="V830" s="29"/>
       <c r="W830" s="29"/>
     </row>
-    <row r="831" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="831" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C831" s="23"/>
       <c r="D831" s="23"/>
       <c r="E831" s="23"/>
@@ -21134,7 +21144,7 @@
       <c r="V831" s="29"/>
       <c r="W831" s="29"/>
     </row>
-    <row r="832" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="832" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C832" s="23"/>
       <c r="D832" s="23"/>
       <c r="E832" s="23"/>
@@ -21157,7 +21167,7 @@
       <c r="V832" s="29"/>
       <c r="W832" s="29"/>
     </row>
-    <row r="833" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="833" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C833" s="23"/>
       <c r="D833" s="23"/>
       <c r="E833" s="23"/>
@@ -21180,7 +21190,7 @@
       <c r="V833" s="29"/>
       <c r="W833" s="29"/>
     </row>
-    <row r="834" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="834" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C834" s="23"/>
       <c r="D834" s="23"/>
       <c r="E834" s="23"/>
@@ -21203,7 +21213,7 @@
       <c r="V834" s="29"/>
       <c r="W834" s="29"/>
     </row>
-    <row r="835" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="835" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C835" s="23"/>
       <c r="D835" s="23"/>
       <c r="E835" s="23"/>
@@ -21226,7 +21236,7 @@
       <c r="V835" s="29"/>
       <c r="W835" s="29"/>
     </row>
-    <row r="836" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="836" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C836" s="23"/>
       <c r="D836" s="23"/>
       <c r="E836" s="23"/>
@@ -21249,7 +21259,7 @@
       <c r="V836" s="29"/>
       <c r="W836" s="29"/>
     </row>
-    <row r="837" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="837" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C837" s="23"/>
       <c r="D837" s="23"/>
       <c r="E837" s="23"/>
@@ -21272,7 +21282,7 @@
       <c r="V837" s="29"/>
       <c r="W837" s="29"/>
     </row>
-    <row r="838" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="838" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C838" s="23"/>
       <c r="D838" s="23"/>
       <c r="E838" s="23"/>
@@ -21295,7 +21305,7 @@
       <c r="V838" s="29"/>
       <c r="W838" s="29"/>
     </row>
-    <row r="839" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="839" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C839" s="23"/>
       <c r="D839" s="23"/>
       <c r="E839" s="23"/>
@@ -21318,7 +21328,7 @@
       <c r="V839" s="29"/>
       <c r="W839" s="29"/>
     </row>
-    <row r="840" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="840" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C840" s="23"/>
       <c r="D840" s="23"/>
       <c r="E840" s="23"/>
@@ -21341,7 +21351,7 @@
       <c r="V840" s="29"/>
       <c r="W840" s="29"/>
     </row>
-    <row r="841" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="841" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C841" s="23"/>
       <c r="D841" s="23"/>
       <c r="E841" s="23"/>
@@ -21364,7 +21374,7 @@
       <c r="V841" s="29"/>
       <c r="W841" s="29"/>
     </row>
-    <row r="842" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="842" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C842" s="23"/>
       <c r="D842" s="23"/>
       <c r="E842" s="23"/>
@@ -21387,7 +21397,7 @@
       <c r="V842" s="29"/>
       <c r="W842" s="29"/>
     </row>
-    <row r="843" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="843" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C843" s="23"/>
       <c r="D843" s="23"/>
       <c r="E843" s="23"/>
@@ -21410,7 +21420,7 @@
       <c r="V843" s="29"/>
       <c r="W843" s="29"/>
     </row>
-    <row r="844" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="844" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C844" s="23"/>
       <c r="D844" s="23"/>
       <c r="E844" s="23"/>
@@ -21433,7 +21443,7 @@
       <c r="V844" s="29"/>
       <c r="W844" s="29"/>
     </row>
-    <row r="845" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="845" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C845" s="23"/>
       <c r="D845" s="23"/>
       <c r="E845" s="23"/>
@@ -21456,7 +21466,7 @@
       <c r="V845" s="29"/>
       <c r="W845" s="29"/>
     </row>
-    <row r="846" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="846" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C846" s="23"/>
       <c r="D846" s="23"/>
       <c r="E846" s="23"/>
@@ -21479,7 +21489,7 @@
       <c r="V846" s="29"/>
       <c r="W846" s="29"/>
     </row>
-    <row r="847" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="847" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C847" s="23"/>
       <c r="D847" s="23"/>
       <c r="E847" s="23"/>
@@ -21502,7 +21512,7 @@
       <c r="V847" s="29"/>
       <c r="W847" s="29"/>
     </row>
-    <row r="848" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="848" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C848" s="23"/>
       <c r="D848" s="23"/>
       <c r="E848" s="23"/>
@@ -21525,7 +21535,7 @@
       <c r="V848" s="29"/>
       <c r="W848" s="29"/>
     </row>
-    <row r="849" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="849" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C849" s="23"/>
       <c r="D849" s="23"/>
       <c r="E849" s="23"/>
@@ -21548,7 +21558,7 @@
       <c r="V849" s="29"/>
       <c r="W849" s="29"/>
     </row>
-    <row r="850" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="850" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C850" s="23"/>
       <c r="D850" s="23"/>
       <c r="E850" s="23"/>
@@ -21571,7 +21581,7 @@
       <c r="V850" s="29"/>
       <c r="W850" s="29"/>
     </row>
-    <row r="851" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="851" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C851" s="23"/>
       <c r="D851" s="23"/>
       <c r="E851" s="23"/>
@@ -21594,7 +21604,7 @@
       <c r="V851" s="29"/>
       <c r="W851" s="29"/>
     </row>
-    <row r="852" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="852" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C852" s="23"/>
       <c r="D852" s="23"/>
       <c r="E852" s="23"/>
@@ -21617,7 +21627,7 @@
       <c r="V852" s="29"/>
       <c r="W852" s="29"/>
     </row>
-    <row r="853" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="853" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C853" s="23"/>
       <c r="D853" s="23"/>
       <c r="E853" s="23"/>
@@ -21640,7 +21650,7 @@
       <c r="V853" s="29"/>
       <c r="W853" s="29"/>
     </row>
-    <row r="854" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="854" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C854" s="23"/>
       <c r="D854" s="23"/>
       <c r="E854" s="23"/>
@@ -21663,7 +21673,7 @@
       <c r="V854" s="29"/>
       <c r="W854" s="29"/>
     </row>
-    <row r="855" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="855" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C855" s="23"/>
       <c r="D855" s="23"/>
       <c r="E855" s="23"/>
@@ -21686,7 +21696,7 @@
       <c r="V855" s="29"/>
       <c r="W855" s="29"/>
     </row>
-    <row r="856" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="856" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C856" s="23"/>
       <c r="D856" s="23"/>
       <c r="E856" s="23"/>
@@ -21709,7 +21719,7 @@
       <c r="V856" s="29"/>
       <c r="W856" s="29"/>
     </row>
-    <row r="857" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="857" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C857" s="23"/>
       <c r="D857" s="23"/>
       <c r="E857" s="23"/>
@@ -21732,7 +21742,7 @@
       <c r="V857" s="29"/>
       <c r="W857" s="29"/>
     </row>
-    <row r="858" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="858" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C858" s="23"/>
       <c r="D858" s="23"/>
       <c r="E858" s="23"/>
@@ -21755,7 +21765,7 @@
       <c r="V858" s="29"/>
       <c r="W858" s="29"/>
     </row>
-    <row r="859" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="859" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C859" s="23"/>
       <c r="D859" s="23"/>
       <c r="E859" s="23"/>
@@ -21778,7 +21788,7 @@
       <c r="V859" s="29"/>
       <c r="W859" s="29"/>
     </row>
-    <row r="860" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="860" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C860" s="23"/>
       <c r="D860" s="23"/>
       <c r="E860" s="23"/>
@@ -21801,7 +21811,7 @@
       <c r="V860" s="29"/>
       <c r="W860" s="29"/>
     </row>
-    <row r="861" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="861" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C861" s="23"/>
       <c r="D861" s="23"/>
       <c r="E861" s="23"/>
@@ -21824,7 +21834,7 @@
       <c r="V861" s="29"/>
       <c r="W861" s="29"/>
     </row>
-    <row r="862" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="862" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C862" s="23"/>
       <c r="D862" s="23"/>
       <c r="E862" s="23"/>
@@ -21847,7 +21857,7 @@
       <c r="V862" s="29"/>
       <c r="W862" s="29"/>
     </row>
-    <row r="863" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="863" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C863" s="23"/>
       <c r="D863" s="23"/>
       <c r="E863" s="23"/>
@@ -21870,7 +21880,7 @@
       <c r="V863" s="29"/>
       <c r="W863" s="29"/>
     </row>
-    <row r="864" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="864" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C864" s="23"/>
       <c r="D864" s="23"/>
       <c r="E864" s="23"/>
@@ -21893,7 +21903,7 @@
       <c r="V864" s="29"/>
       <c r="W864" s="29"/>
     </row>
-    <row r="865" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="865" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C865" s="23"/>
       <c r="D865" s="23"/>
       <c r="E865" s="23"/>
@@ -21916,7 +21926,7 @@
       <c r="V865" s="29"/>
       <c r="W865" s="29"/>
     </row>
-    <row r="866" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="866" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C866" s="23"/>
       <c r="D866" s="23"/>
       <c r="E866" s="23"/>
@@ -21939,7 +21949,7 @@
       <c r="V866" s="29"/>
       <c r="W866" s="29"/>
     </row>
-    <row r="867" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="867" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C867" s="23"/>
       <c r="D867" s="23"/>
       <c r="E867" s="23"/>
@@ -21962,7 +21972,7 @@
       <c r="V867" s="29"/>
       <c r="W867" s="29"/>
     </row>
-    <row r="868" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="868" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C868" s="23"/>
       <c r="D868" s="23"/>
       <c r="E868" s="23"/>
@@ -21985,7 +21995,7 @@
       <c r="V868" s="29"/>
       <c r="W868" s="29"/>
     </row>
-    <row r="869" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="869" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C869" s="23"/>
       <c r="D869" s="23"/>
       <c r="E869" s="23"/>
@@ -22008,7 +22018,7 @@
       <c r="V869" s="29"/>
       <c r="W869" s="29"/>
     </row>
-    <row r="870" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="870" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C870" s="23"/>
       <c r="D870" s="23"/>
       <c r="E870" s="23"/>
@@ -22031,7 +22041,7 @@
       <c r="V870" s="29"/>
       <c r="W870" s="29"/>
     </row>
-    <row r="871" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="871" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C871" s="23"/>
       <c r="D871" s="23"/>
       <c r="E871" s="23"/>
@@ -22054,7 +22064,7 @@
       <c r="V871" s="29"/>
       <c r="W871" s="29"/>
     </row>
-    <row r="872" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="872" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C872" s="23"/>
       <c r="D872" s="23"/>
       <c r="E872" s="23"/>
@@ -22077,7 +22087,7 @@
       <c r="V872" s="29"/>
       <c r="W872" s="29"/>
     </row>
-    <row r="873" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="873" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C873" s="23"/>
       <c r="D873" s="23"/>
       <c r="E873" s="23"/>
@@ -22100,7 +22110,7 @@
       <c r="V873" s="29"/>
       <c r="W873" s="29"/>
     </row>
-    <row r="874" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="874" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C874" s="23"/>
       <c r="D874" s="23"/>
       <c r="E874" s="23"/>
@@ -22123,7 +22133,7 @@
       <c r="V874" s="29"/>
       <c r="W874" s="29"/>
     </row>
-    <row r="875" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="875" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C875" s="23"/>
       <c r="D875" s="23"/>
       <c r="E875" s="23"/>
@@ -22146,7 +22156,7 @@
       <c r="V875" s="29"/>
       <c r="W875" s="29"/>
     </row>
-    <row r="876" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="876" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C876" s="23"/>
       <c r="D876" s="23"/>
       <c r="E876" s="23"/>
@@ -22169,7 +22179,7 @@
       <c r="V876" s="29"/>
       <c r="W876" s="29"/>
     </row>
-    <row r="877" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="877" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C877" s="23"/>
       <c r="D877" s="23"/>
       <c r="E877" s="23"/>
@@ -22192,7 +22202,7 @@
       <c r="V877" s="29"/>
       <c r="W877" s="29"/>
     </row>
-    <row r="878" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="878" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C878" s="23"/>
       <c r="D878" s="23"/>
       <c r="E878" s="23"/>
@@ -22215,7 +22225,7 @@
       <c r="V878" s="29"/>
       <c r="W878" s="29"/>
     </row>
-    <row r="879" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="879" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C879" s="23"/>
       <c r="D879" s="23"/>
       <c r="E879" s="23"/>
@@ -22238,7 +22248,7 @@
       <c r="V879" s="29"/>
       <c r="W879" s="29"/>
     </row>
-    <row r="880" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="880" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C880" s="23"/>
       <c r="D880" s="23"/>
       <c r="E880" s="23"/>
@@ -22261,7 +22271,7 @@
       <c r="V880" s="29"/>
       <c r="W880" s="29"/>
     </row>
-    <row r="881" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="881" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C881" s="23"/>
       <c r="D881" s="23"/>
       <c r="E881" s="23"/>
@@ -22284,7 +22294,7 @@
       <c r="V881" s="29"/>
       <c r="W881" s="29"/>
     </row>
-    <row r="882" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="882" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C882" s="23"/>
       <c r="D882" s="23"/>
       <c r="E882" s="23"/>
@@ -22307,7 +22317,7 @@
       <c r="V882" s="29"/>
       <c r="W882" s="29"/>
     </row>
-    <row r="883" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="883" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C883" s="23"/>
       <c r="D883" s="23"/>
       <c r="E883" s="23"/>
@@ -22330,7 +22340,7 @@
       <c r="V883" s="29"/>
       <c r="W883" s="29"/>
     </row>
-    <row r="884" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="884" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C884" s="23"/>
       <c r="D884" s="23"/>
       <c r="E884" s="23"/>
@@ -22353,7 +22363,7 @@
       <c r="V884" s="29"/>
       <c r="W884" s="29"/>
     </row>
-    <row r="885" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="885" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C885" s="23"/>
       <c r="D885" s="23"/>
       <c r="E885" s="23"/>
@@ -22376,7 +22386,7 @@
       <c r="V885" s="29"/>
       <c r="W885" s="29"/>
     </row>
-    <row r="886" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="886" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C886" s="23"/>
       <c r="D886" s="23"/>
       <c r="E886" s="23"/>
@@ -22399,7 +22409,7 @@
       <c r="V886" s="29"/>
       <c r="W886" s="29"/>
     </row>
-    <row r="887" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="887" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C887" s="23"/>
       <c r="D887" s="23"/>
       <c r="E887" s="23"/>
@@ -22422,7 +22432,7 @@
       <c r="V887" s="29"/>
       <c r="W887" s="29"/>
     </row>
-    <row r="888" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="888" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C888" s="23"/>
       <c r="D888" s="23"/>
       <c r="E888" s="23"/>
@@ -22445,7 +22455,7 @@
       <c r="V888" s="29"/>
       <c r="W888" s="29"/>
     </row>
-    <row r="889" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="889" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C889" s="23"/>
       <c r="D889" s="23"/>
       <c r="E889" s="23"/>
@@ -22468,7 +22478,7 @@
       <c r="V889" s="29"/>
       <c r="W889" s="29"/>
     </row>
-    <row r="890" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="890" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C890" s="23"/>
       <c r="D890" s="23"/>
       <c r="E890" s="23"/>
@@ -22491,7 +22501,7 @@
       <c r="V890" s="29"/>
       <c r="W890" s="29"/>
     </row>
-    <row r="891" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="891" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C891" s="23"/>
       <c r="D891" s="23"/>
       <c r="E891" s="23"/>
@@ -22514,7 +22524,7 @@
       <c r="V891" s="29"/>
       <c r="W891" s="29"/>
     </row>
-    <row r="892" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="892" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C892" s="23"/>
       <c r="D892" s="23"/>
       <c r="E892" s="23"/>
@@ -22537,7 +22547,7 @@
       <c r="V892" s="29"/>
       <c r="W892" s="29"/>
     </row>
-    <row r="893" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="893" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C893" s="23"/>
       <c r="D893" s="23"/>
       <c r="E893" s="23"/>
@@ -22560,7 +22570,7 @@
       <c r="V893" s="29"/>
       <c r="W893" s="29"/>
     </row>
-    <row r="894" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="894" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C894" s="23"/>
       <c r="D894" s="23"/>
       <c r="E894" s="23"/>
@@ -22583,7 +22593,7 @@
       <c r="V894" s="29"/>
       <c r="W894" s="29"/>
     </row>
-    <row r="895" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="895" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C895" s="23"/>
       <c r="D895" s="23"/>
       <c r="E895" s="23"/>
@@ -22606,7 +22616,7 @@
       <c r="V895" s="29"/>
       <c r="W895" s="29"/>
     </row>
-    <row r="896" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="896" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C896" s="23"/>
       <c r="D896" s="23"/>
       <c r="E896" s="23"/>
@@ -22629,7 +22639,7 @@
       <c r="V896" s="29"/>
       <c r="W896" s="29"/>
     </row>
-    <row r="897" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="897" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C897" s="23"/>
       <c r="D897" s="23"/>
       <c r="E897" s="23"/>
@@ -22652,7 +22662,7 @@
       <c r="V897" s="29"/>
       <c r="W897" s="29"/>
     </row>
-    <row r="898" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="898" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C898" s="23"/>
       <c r="D898" s="23"/>
       <c r="E898" s="23"/>
@@ -22675,7 +22685,7 @@
       <c r="V898" s="29"/>
       <c r="W898" s="29"/>
     </row>
-    <row r="899" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="899" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C899" s="23"/>
       <c r="D899" s="23"/>
       <c r="E899" s="23"/>
@@ -22698,7 +22708,7 @@
       <c r="V899" s="29"/>
       <c r="W899" s="29"/>
     </row>
-    <row r="900" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="900" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C900" s="23"/>
       <c r="D900" s="23"/>
       <c r="E900" s="23"/>
@@ -22721,7 +22731,7 @@
       <c r="V900" s="29"/>
       <c r="W900" s="29"/>
     </row>
-    <row r="901" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="901" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C901" s="23"/>
       <c r="D901" s="23"/>
       <c r="E901" s="23"/>
@@ -22744,7 +22754,7 @@
       <c r="V901" s="29"/>
       <c r="W901" s="29"/>
     </row>
-    <row r="902" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="902" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C902" s="23"/>
       <c r="D902" s="23"/>
       <c r="E902" s="23"/>
@@ -22767,7 +22777,7 @@
       <c r="V902" s="29"/>
       <c r="W902" s="29"/>
     </row>
-    <row r="903" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="903" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C903" s="23"/>
       <c r="D903" s="23"/>
       <c r="E903" s="23"/>
@@ -22790,7 +22800,7 @@
       <c r="V903" s="29"/>
       <c r="W903" s="29"/>
     </row>
-    <row r="904" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="904" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C904" s="23"/>
       <c r="D904" s="23"/>
       <c r="E904" s="23"/>
@@ -22813,7 +22823,7 @@
       <c r="V904" s="29"/>
       <c r="W904" s="29"/>
     </row>
-    <row r="905" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="905" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C905" s="23"/>
       <c r="D905" s="23"/>
       <c r="E905" s="23"/>
@@ -22836,7 +22846,7 @@
       <c r="V905" s="29"/>
       <c r="W905" s="29"/>
     </row>
-    <row r="906" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="906" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C906" s="23"/>
       <c r="D906" s="23"/>
       <c r="E906" s="23"/>
@@ -22859,7 +22869,7 @@
       <c r="V906" s="29"/>
       <c r="W906" s="29"/>
     </row>
-    <row r="907" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="907" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C907" s="23"/>
       <c r="D907" s="23"/>
       <c r="E907" s="23"/>
@@ -22882,7 +22892,7 @@
       <c r="V907" s="29"/>
       <c r="W907" s="29"/>
     </row>
-    <row r="908" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="908" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C908" s="23"/>
       <c r="D908" s="23"/>
       <c r="E908" s="23"/>
@@ -22905,7 +22915,7 @@
       <c r="V908" s="29"/>
       <c r="W908" s="29"/>
     </row>
-    <row r="909" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="909" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C909" s="23"/>
       <c r="D909" s="23"/>
       <c r="E909" s="23"/>
@@ -22928,7 +22938,7 @@
       <c r="V909" s="29"/>
       <c r="W909" s="29"/>
     </row>
-    <row r="910" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="910" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C910" s="23"/>
       <c r="D910" s="23"/>
       <c r="E910" s="23"/>
@@ -22951,7 +22961,7 @@
       <c r="V910" s="29"/>
       <c r="W910" s="29"/>
     </row>
-    <row r="911" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="911" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C911" s="23"/>
       <c r="D911" s="23"/>
       <c r="E911" s="23"/>
@@ -22974,7 +22984,7 @@
       <c r="V911" s="29"/>
       <c r="W911" s="29"/>
     </row>
-    <row r="912" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="912" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C912" s="23"/>
       <c r="D912" s="23"/>
       <c r="E912" s="23"/>
@@ -22997,7 +23007,7 @@
       <c r="V912" s="29"/>
       <c r="W912" s="29"/>
     </row>
-    <row r="913" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="913" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C913" s="23"/>
       <c r="D913" s="23"/>
       <c r="E913" s="23"/>
@@ -23020,7 +23030,7 @@
       <c r="V913" s="29"/>
       <c r="W913" s="29"/>
     </row>
-    <row r="914" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="914" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C914" s="23"/>
       <c r="D914" s="23"/>
       <c r="E914" s="23"/>
@@ -23043,7 +23053,7 @@
       <c r="V914" s="29"/>
       <c r="W914" s="29"/>
     </row>
-    <row r="915" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="915" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C915" s="23"/>
       <c r="D915" s="23"/>
       <c r="E915" s="23"/>
@@ -23066,7 +23076,7 @@
       <c r="V915" s="29"/>
       <c r="W915" s="29"/>
     </row>
-    <row r="916" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="916" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C916" s="23"/>
       <c r="D916" s="23"/>
       <c r="E916" s="23"/>
@@ -23089,7 +23099,7 @@
       <c r="V916" s="29"/>
       <c r="W916" s="29"/>
     </row>
-    <row r="917" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="917" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C917" s="23"/>
       <c r="D917" s="23"/>
       <c r="E917" s="23"/>
@@ -23112,7 +23122,7 @@
       <c r="V917" s="29"/>
       <c r="W917" s="29"/>
     </row>
-    <row r="918" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="918" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C918" s="23"/>
       <c r="D918" s="23"/>
       <c r="E918" s="23"/>
@@ -23135,7 +23145,7 @@
       <c r="V918" s="29"/>
       <c r="W918" s="29"/>
     </row>
-    <row r="919" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="919" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C919" s="23"/>
       <c r="D919" s="23"/>
       <c r="E919" s="23"/>
@@ -23158,7 +23168,7 @@
       <c r="V919" s="29"/>
       <c r="W919" s="29"/>
     </row>
-    <row r="920" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="920" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C920" s="23"/>
       <c r="D920" s="23"/>
       <c r="E920" s="23"/>
@@ -23181,7 +23191,7 @@
       <c r="V920" s="29"/>
       <c r="W920" s="29"/>
     </row>
-    <row r="921" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="921" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C921" s="23"/>
       <c r="D921" s="23"/>
       <c r="E921" s="23"/>
@@ -23204,7 +23214,7 @@
       <c r="V921" s="29"/>
       <c r="W921" s="29"/>
     </row>
-    <row r="922" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="922" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C922" s="23"/>
       <c r="D922" s="23"/>
       <c r="E922" s="23"/>
@@ -23227,7 +23237,7 @@
       <c r="V922" s="29"/>
       <c r="W922" s="29"/>
     </row>
-    <row r="923" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="923" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C923" s="23"/>
       <c r="D923" s="23"/>
       <c r="E923" s="23"/>
@@ -23250,7 +23260,7 @@
       <c r="V923" s="29"/>
       <c r="W923" s="29"/>
     </row>
-    <row r="924" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="924" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C924" s="23"/>
       <c r="D924" s="23"/>
       <c r="E924" s="23"/>
@@ -23273,7 +23283,7 @@
       <c r="V924" s="29"/>
       <c r="W924" s="29"/>
     </row>
-    <row r="925" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="925" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C925" s="23"/>
       <c r="D925" s="23"/>
       <c r="E925" s="23"/>
@@ -23296,7 +23306,7 @@
       <c r="V925" s="29"/>
       <c r="W925" s="29"/>
     </row>
-    <row r="926" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="926" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C926" s="23"/>
       <c r="D926" s="23"/>
       <c r="E926" s="23"/>
@@ -23319,7 +23329,7 @@
       <c r="V926" s="29"/>
       <c r="W926" s="29"/>
     </row>
-    <row r="927" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="927" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C927" s="23"/>
       <c r="D927" s="23"/>
       <c r="E927" s="23"/>
@@ -23342,7 +23352,7 @@
       <c r="V927" s="29"/>
       <c r="W927" s="29"/>
     </row>
-    <row r="928" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="928" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C928" s="23"/>
       <c r="D928" s="23"/>
       <c r="E928" s="23"/>
@@ -23365,7 +23375,7 @@
       <c r="V928" s="29"/>
       <c r="W928" s="29"/>
     </row>
-    <row r="929" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="929" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C929" s="23"/>
       <c r="D929" s="23"/>
       <c r="E929" s="23"/>
@@ -23388,7 +23398,7 @@
       <c r="V929" s="29"/>
       <c r="W929" s="29"/>
     </row>
-    <row r="930" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="930" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C930" s="23"/>
       <c r="D930" s="23"/>
       <c r="E930" s="23"/>
@@ -23411,7 +23421,7 @@
       <c r="V930" s="29"/>
       <c r="W930" s="29"/>
     </row>
-    <row r="931" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="931" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C931" s="23"/>
       <c r="D931" s="23"/>
       <c r="E931" s="23"/>
@@ -23434,7 +23444,7 @@
       <c r="V931" s="29"/>
       <c r="W931" s="29"/>
     </row>
-    <row r="932" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="932" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C932" s="23"/>
       <c r="D932" s="23"/>
       <c r="E932" s="23"/>
@@ -23457,7 +23467,7 @@
       <c r="V932" s="29"/>
       <c r="W932" s="29"/>
     </row>
-    <row r="933" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="933" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C933" s="23"/>
       <c r="D933" s="23"/>
       <c r="E933" s="23"/>
@@ -23480,7 +23490,7 @@
       <c r="V933" s="29"/>
       <c r="W933" s="29"/>
     </row>
-    <row r="934" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="934" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C934" s="23"/>
       <c r="D934" s="23"/>
       <c r="E934" s="23"/>
@@ -23503,7 +23513,7 @@
       <c r="V934" s="29"/>
       <c r="W934" s="29"/>
     </row>
-    <row r="935" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="935" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C935" s="23"/>
       <c r="D935" s="23"/>
       <c r="E935" s="23"/>
@@ -23526,7 +23536,7 @@
       <c r="V935" s="29"/>
       <c r="W935" s="29"/>
     </row>
-    <row r="936" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="936" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C936" s="23"/>
       <c r="D936" s="23"/>
       <c r="E936" s="23"/>
@@ -23549,7 +23559,7 @@
       <c r="V936" s="29"/>
       <c r="W936" s="29"/>
     </row>
-    <row r="937" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="937" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C937" s="23"/>
       <c r="D937" s="23"/>
       <c r="E937" s="23"/>
@@ -23572,7 +23582,7 @@
       <c r="V937" s="29"/>
       <c r="W937" s="29"/>
     </row>
-    <row r="938" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="938" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C938" s="23"/>
       <c r="D938" s="23"/>
       <c r="E938" s="23"/>
@@ -23595,7 +23605,7 @@
       <c r="V938" s="29"/>
       <c r="W938" s="29"/>
     </row>
-    <row r="939" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="939" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C939" s="23"/>
       <c r="D939" s="23"/>
       <c r="E939" s="23"/>
@@ -23618,7 +23628,7 @@
       <c r="V939" s="29"/>
       <c r="W939" s="29"/>
     </row>
-    <row r="940" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="940" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C940" s="23"/>
       <c r="D940" s="23"/>
       <c r="E940" s="23"/>
@@ -23641,7 +23651,7 @@
       <c r="V940" s="29"/>
       <c r="W940" s="29"/>
     </row>
-    <row r="941" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="941" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C941" s="23"/>
       <c r="D941" s="23"/>
       <c r="E941" s="23"/>
@@ -23664,7 +23674,7 @@
       <c r="V941" s="29"/>
       <c r="W941" s="29"/>
     </row>
-    <row r="942" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="942" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C942" s="23"/>
       <c r="D942" s="23"/>
       <c r="E942" s="23"/>
@@ -23687,7 +23697,7 @@
       <c r="V942" s="29"/>
       <c r="W942" s="29"/>
     </row>
-    <row r="943" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="943" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C943" s="23"/>
       <c r="D943" s="23"/>
       <c r="E943" s="23"/>
@@ -23710,7 +23720,7 @@
       <c r="V943" s="29"/>
       <c r="W943" s="29"/>
     </row>
-    <row r="944" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="944" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C944" s="23"/>
       <c r="D944" s="23"/>
       <c r="E944" s="23"/>
@@ -23733,7 +23743,7 @@
       <c r="V944" s="29"/>
       <c r="W944" s="29"/>
     </row>
-    <row r="945" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="945" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C945" s="23"/>
       <c r="D945" s="23"/>
       <c r="E945" s="23"/>
@@ -23756,7 +23766,7 @@
       <c r="V945" s="29"/>
       <c r="W945" s="29"/>
     </row>
-    <row r="946" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="946" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C946" s="23"/>
       <c r="D946" s="23"/>
       <c r="E946" s="23"/>
@@ -23779,7 +23789,7 @@
       <c r="V946" s="29"/>
       <c r="W946" s="29"/>
     </row>
-    <row r="947" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="947" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C947" s="23"/>
       <c r="D947" s="23"/>
       <c r="E947" s="23"/>
@@ -23802,7 +23812,7 @@
       <c r="V947" s="29"/>
       <c r="W947" s="29"/>
     </row>
-    <row r="948" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="948" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C948" s="23"/>
       <c r="D948" s="23"/>
       <c r="E948" s="23"/>
@@ -23825,7 +23835,7 @@
       <c r="V948" s="29"/>
       <c r="W948" s="29"/>
     </row>
-    <row r="949" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="949" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C949" s="23"/>
       <c r="D949" s="23"/>
       <c r="E949" s="23"/>
@@ -23848,7 +23858,7 @@
       <c r="V949" s="29"/>
       <c r="W949" s="29"/>
     </row>
-    <row r="950" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="950" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C950" s="23"/>
       <c r="D950" s="23"/>
       <c r="E950" s="23"/>
@@ -23871,7 +23881,7 @@
       <c r="V950" s="29"/>
       <c r="W950" s="29"/>
     </row>
-    <row r="951" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="951" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C951" s="23"/>
       <c r="D951" s="23"/>
       <c r="E951" s="23"/>
@@ -23894,7 +23904,7 @@
       <c r="V951" s="29"/>
       <c r="W951" s="29"/>
     </row>
-    <row r="952" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="952" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C952" s="23"/>
       <c r="D952" s="23"/>
       <c r="E952" s="23"/>
@@ -23917,7 +23927,7 @@
       <c r="V952" s="29"/>
       <c r="W952" s="29"/>
     </row>
-    <row r="953" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="953" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C953" s="23"/>
       <c r="D953" s="23"/>
       <c r="E953" s="23"/>
@@ -23940,7 +23950,7 @@
       <c r="V953" s="29"/>
       <c r="W953" s="29"/>
     </row>
-    <row r="954" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="954" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C954" s="23"/>
       <c r="D954" s="23"/>
       <c r="E954" s="23"/>
@@ -23963,7 +23973,7 @@
       <c r="V954" s="29"/>
       <c r="W954" s="29"/>
     </row>
-    <row r="955" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="955" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C955" s="23"/>
       <c r="D955" s="23"/>
       <c r="E955" s="23"/>
@@ -23986,7 +23996,7 @@
       <c r="V955" s="29"/>
       <c r="W955" s="29"/>
     </row>
-    <row r="956" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="956" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C956" s="23"/>
       <c r="D956" s="23"/>
       <c r="E956" s="23"/>
@@ -24009,7 +24019,7 @@
       <c r="V956" s="29"/>
       <c r="W956" s="29"/>
     </row>
-    <row r="957" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="957" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C957" s="23"/>
       <c r="D957" s="23"/>
       <c r="E957" s="23"/>
@@ -24032,7 +24042,7 @@
       <c r="V957" s="29"/>
       <c r="W957" s="29"/>
     </row>
-    <row r="958" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="958" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C958" s="23"/>
       <c r="D958" s="23"/>
       <c r="E958" s="23"/>
@@ -24055,7 +24065,7 @@
       <c r="V958" s="29"/>
       <c r="W958" s="29"/>
     </row>
-    <row r="959" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="959" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C959" s="23"/>
       <c r="D959" s="23"/>
       <c r="E959" s="23"/>
@@ -24078,7 +24088,7 @@
       <c r="V959" s="29"/>
       <c r="W959" s="29"/>
     </row>
-    <row r="960" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="960" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C960" s="23"/>
       <c r="D960" s="23"/>
       <c r="E960" s="23"/>
@@ -24101,7 +24111,7 @@
       <c r="V960" s="29"/>
       <c r="W960" s="29"/>
     </row>
-    <row r="961" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="961" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C961" s="23"/>
       <c r="D961" s="23"/>
       <c r="E961" s="23"/>
@@ -24124,7 +24134,7 @@
       <c r="V961" s="29"/>
       <c r="W961" s="29"/>
     </row>
-    <row r="962" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="962" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C962" s="23"/>
       <c r="D962" s="23"/>
       <c r="E962" s="23"/>
@@ -24147,7 +24157,7 @@
       <c r="V962" s="29"/>
       <c r="W962" s="29"/>
     </row>
-    <row r="963" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="963" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C963" s="23"/>
       <c r="D963" s="23"/>
       <c r="E963" s="23"/>
@@ -24170,7 +24180,7 @@
       <c r="V963" s="29"/>
       <c r="W963" s="29"/>
     </row>
-    <row r="964" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="964" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C964" s="23"/>
       <c r="D964" s="23"/>
       <c r="E964" s="23"/>
@@ -24193,7 +24203,7 @@
       <c r="V964" s="29"/>
       <c r="W964" s="29"/>
     </row>
-    <row r="965" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="965" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C965" s="23"/>
       <c r="D965" s="23"/>
       <c r="E965" s="23"/>
@@ -24216,7 +24226,7 @@
       <c r="V965" s="29"/>
       <c r="W965" s="29"/>
     </row>
-    <row r="966" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="966" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C966" s="23"/>
       <c r="D966" s="23"/>
       <c r="E966" s="23"/>
@@ -24239,7 +24249,7 @@
       <c r="V966" s="29"/>
       <c r="W966" s="29"/>
     </row>
-    <row r="967" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="967" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C967" s="23"/>
       <c r="D967" s="23"/>
       <c r="E967" s="23"/>
@@ -24262,7 +24272,7 @@
       <c r="V967" s="29"/>
       <c r="W967" s="29"/>
     </row>
-    <row r="968" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="968" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C968" s="23"/>
       <c r="D968" s="23"/>
       <c r="E968" s="23"/>
@@ -24285,7 +24295,7 @@
       <c r="V968" s="29"/>
       <c r="W968" s="29"/>
     </row>
-    <row r="969" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="969" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C969" s="23"/>
       <c r="D969" s="23"/>
       <c r="E969" s="23"/>
@@ -24308,7 +24318,7 @@
       <c r="V969" s="29"/>
       <c r="W969" s="29"/>
     </row>
-    <row r="970" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="970" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C970" s="23"/>
       <c r="D970" s="23"/>
       <c r="E970" s="23"/>
@@ -24331,7 +24341,7 @@
       <c r="V970" s="29"/>
       <c r="W970" s="29"/>
     </row>
-    <row r="971" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="971" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C971" s="23"/>
       <c r="D971" s="23"/>
       <c r="E971" s="23"/>
@@ -24354,7 +24364,7 @@
       <c r="V971" s="29"/>
       <c r="W971" s="29"/>
     </row>
-    <row r="972" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="972" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C972" s="23"/>
       <c r="D972" s="23"/>
       <c r="E972" s="23"/>
@@ -24377,7 +24387,7 @@
       <c r="V972" s="29"/>
       <c r="W972" s="29"/>
     </row>
-    <row r="973" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="973" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C973" s="23"/>
       <c r="D973" s="23"/>
       <c r="E973" s="23"/>
@@ -24400,7 +24410,7 @@
       <c r="V973" s="29"/>
       <c r="W973" s="29"/>
     </row>
-    <row r="974" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="974" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C974" s="23"/>
       <c r="D974" s="23"/>
       <c r="E974" s="23"/>
@@ -24423,7 +24433,7 @@
       <c r="V974" s="29"/>
       <c r="W974" s="29"/>
     </row>
-    <row r="975" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="975" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C975" s="23"/>
       <c r="D975" s="23"/>
       <c r="E975" s="23"/>
@@ -24446,7 +24456,7 @@
       <c r="V975" s="29"/>
       <c r="W975" s="29"/>
     </row>
-    <row r="976" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="976" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C976" s="23"/>
       <c r="D976" s="23"/>
       <c r="E976" s="23"/>
@@ -24469,7 +24479,7 @@
       <c r="V976" s="29"/>
       <c r="W976" s="29"/>
     </row>
-    <row r="977" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="977" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C977" s="23"/>
       <c r="D977" s="23"/>
       <c r="E977" s="23"/>
@@ -24492,7 +24502,7 @@
       <c r="V977" s="29"/>
       <c r="W977" s="29"/>
     </row>
-    <row r="978" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="978" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C978" s="23"/>
       <c r="D978" s="23"/>
       <c r="E978" s="23"/>
@@ -24515,7 +24525,7 @@
       <c r="V978" s="29"/>
       <c r="W978" s="29"/>
     </row>
-    <row r="979" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="979" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C979" s="23"/>
       <c r="D979" s="23"/>
       <c r="E979" s="23"/>
@@ -24538,7 +24548,7 @@
       <c r="V979" s="29"/>
       <c r="W979" s="29"/>
     </row>
-    <row r="980" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="980" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C980" s="23"/>
       <c r="D980" s="23"/>
       <c r="E980" s="23"/>
@@ -24561,7 +24571,7 @@
       <c r="V980" s="29"/>
       <c r="W980" s="29"/>
     </row>
-    <row r="981" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="981" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C981" s="23"/>
       <c r="D981" s="23"/>
       <c r="E981" s="23"/>
@@ -24584,7 +24594,7 @@
       <c r="V981" s="29"/>
       <c r="W981" s="29"/>
     </row>
-    <row r="982" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="982" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C982" s="23"/>
       <c r="D982" s="23"/>
       <c r="E982" s="23"/>
@@ -24607,7 +24617,7 @@
       <c r="V982" s="29"/>
       <c r="W982" s="29"/>
     </row>
-    <row r="983" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="983" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C983" s="23"/>
       <c r="D983" s="23"/>
       <c r="E983" s="23"/>
@@ -24630,7 +24640,7 @@
       <c r="V983" s="29"/>
       <c r="W983" s="29"/>
     </row>
-    <row r="984" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="984" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C984" s="23"/>
       <c r="D984" s="23"/>
       <c r="E984" s="23"/>
@@ -24653,7 +24663,7 @@
       <c r="V984" s="29"/>
       <c r="W984" s="29"/>
     </row>
-    <row r="985" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="985" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C985" s="23"/>
       <c r="D985" s="23"/>
       <c r="E985" s="23"/>
@@ -24676,7 +24686,7 @@
       <c r="V985" s="29"/>
       <c r="W985" s="29"/>
     </row>
-    <row r="986" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="986" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C986" s="23"/>
       <c r="D986" s="23"/>
       <c r="E986" s="23"/>
@@ -24699,7 +24709,7 @@
       <c r="V986" s="29"/>
       <c r="W986" s="29"/>
     </row>
-    <row r="987" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="987" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C987" s="23"/>
       <c r="D987" s="23"/>
       <c r="E987" s="23"/>
@@ -24722,7 +24732,7 @@
       <c r="V987" s="29"/>
       <c r="W987" s="29"/>
     </row>
-    <row r="988" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="988" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C988" s="23"/>
       <c r="D988" s="23"/>
       <c r="E988" s="23"/>
@@ -24745,7 +24755,7 @@
       <c r="V988" s="29"/>
       <c r="W988" s="29"/>
     </row>
-    <row r="989" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="989" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C989" s="23"/>
       <c r="D989" s="23"/>
       <c r="E989" s="23"/>
@@ -24768,7 +24778,7 @@
       <c r="V989" s="29"/>
       <c r="W989" s="29"/>
     </row>
-    <row r="990" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="990" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C990" s="23"/>
       <c r="D990" s="23"/>
       <c r="E990" s="23"/>
@@ -24791,7 +24801,7 @@
       <c r="V990" s="29"/>
       <c r="W990" s="29"/>
     </row>
-    <row r="991" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="991" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C991" s="23"/>
       <c r="D991" s="23"/>
       <c r="E991" s="23"/>
@@ -24814,7 +24824,7 @@
       <c r="V991" s="29"/>
       <c r="W991" s="29"/>
     </row>
-    <row r="992" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="992" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C992" s="23"/>
       <c r="D992" s="23"/>
       <c r="E992" s="23"/>
@@ -24837,7 +24847,7 @@
       <c r="V992" s="29"/>
       <c r="W992" s="29"/>
     </row>
-    <row r="993" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="993" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C993" s="23"/>
       <c r="D993" s="23"/>
       <c r="E993" s="23"/>
@@ -24860,7 +24870,7 @@
       <c r="V993" s="29"/>
       <c r="W993" s="29"/>
     </row>
-    <row r="994" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="994" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C994" s="23"/>
       <c r="D994" s="23"/>
       <c r="E994" s="23"/>
@@ -24883,7 +24893,7 @@
       <c r="V994" s="29"/>
       <c r="W994" s="29"/>
     </row>
-    <row r="995" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="995" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C995" s="23"/>
       <c r="D995" s="23"/>
       <c r="E995" s="23"/>
@@ -24906,7 +24916,7 @@
       <c r="V995" s="29"/>
       <c r="W995" s="29"/>
     </row>
-    <row r="996" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="996" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C996" s="23"/>
       <c r="D996" s="23"/>
       <c r="E996" s="23"/>
@@ -24929,7 +24939,7 @@
       <c r="V996" s="29"/>
       <c r="W996" s="29"/>
     </row>
-    <row r="997" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="997" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C997" s="23"/>
       <c r="D997" s="23"/>
       <c r="E997" s="23"/>
@@ -24952,7 +24962,7 @@
       <c r="V997" s="29"/>
       <c r="W997" s="29"/>
     </row>
-    <row r="998" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="998" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C998" s="23"/>
       <c r="D998" s="23"/>
       <c r="E998" s="23"/>
@@ -24975,7 +24985,7 @@
       <c r="V998" s="29"/>
       <c r="W998" s="29"/>
     </row>
-    <row r="999" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="999" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C999" s="23"/>
       <c r="D999" s="23"/>
       <c r="E999" s="23"/>
@@ -24998,7 +25008,7 @@
       <c r="V999" s="29"/>
       <c r="W999" s="29"/>
     </row>
-    <row r="1000" spans="3:23" x14ac:dyDescent="0.25">
+    <row r="1000" spans="3:23" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C1000" s="23"/>
       <c r="D1000" s="23"/>
       <c r="E1000" s="23"/>
@@ -25035,18 +25045,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>26</v>
       </c>
@@ -25076,7 +25086,7 @@
       <c r="Y2" s="32"/>
       <c r="Z2" s="32"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>27</v>
       </c>
@@ -25108,7 +25118,7 @@
       <c r="Y3" s="34"/>
       <c r="Z3" s="34"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>29</v>
       </c>
